--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E22455-0753-4E2F-8535-5C7319052142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E123A93-41C9-428F-B995-9D55B6B0AD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -4250,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4826,10 +4826,10 @@
   <dimension ref="A7:Z18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="D18:Q18"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5460,7 +5460,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0004</v>
@@ -5514,7 +5514,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0004</v>
@@ -6847,8 +6847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E123A93-41C9-428F-B995-9D55B6B0AD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821678DD-7B4A-4794-964D-0B036FA04393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,11 @@
     <definedName name="SegmentaciónDeDatos_Estado">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Estado1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Investigación">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Producto">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Responsable_Desarrollo">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Responsable_Información">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Secciones">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Variables">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,6 +50,9 @@
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="855">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -2430,9 +2436,6 @@
   </si>
   <si>
     <t xml:space="preserve">Población comunal total, por rango de edad, por género </t>
-  </si>
-  <si>
-    <t>Censo</t>
   </si>
   <si>
     <t>Población comunal total, por ruralidad</t>
@@ -2555,9 +2558,6 @@
     <t xml:space="preserve">Número de empresas medianas y grandes por cada 1.000 personas ocupadas en la comuna. </t>
   </si>
   <si>
-    <t>Empresas Grandes</t>
-  </si>
-  <si>
     <t>Gobierno</t>
   </si>
   <si>
@@ -2616,13 +2616,40 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Miniaturas/Municipio%20Ranking%20Guatemala.PNG</t>
+  </si>
+  <si>
+    <t>Censo 2017 - CHILE</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>0004-00010</t>
+  </si>
+  <si>
+    <t>0004-00011</t>
+  </si>
+  <si>
+    <t>Situación Variable</t>
+  </si>
+  <si>
+    <t>Fecha Actualización</t>
+  </si>
+  <si>
+    <t>LISTO</t>
+  </si>
+  <si>
+    <t>EN DESARROLLO</t>
+  </si>
+  <si>
+    <t>FALTA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2672,16 +2699,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,12 +2716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,7 +2769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2813,26 +2826,230 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3766,11 +3983,270 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Producto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A99882-7B01-4061-8962-2AEDC5940320}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Producto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="784860" y="7621"/>
+              <a:ext cx="1828800" cy="1066800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Secciones">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F4847E-FB16-40E9-A667-92108CCDA5CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Secciones"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2796540" y="1"/>
+              <a:ext cx="3672840" cy="1120140"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Variables">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7908BEB-E652-42F7-B3CD-E5E13BB0E436}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Variables"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6774180" y="1"/>
+              <a:ext cx="4610100" cy="1211580"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Data" xr10:uid="{0E7ADA3C-2E4A-4BC5-8DE0-31524525F197}" sourceName="Data">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="3" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache10.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Secciones" xr10:uid="{24B0741A-5F47-486A-85FD-7377016EA70F}" sourceName="Secciones">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache11.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Variables" xr10:uid="{0356D9F4-A3D1-4D05-97BC-A89856003229}" sourceName="Variables">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="6"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
@@ -3846,6 +4322,16 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache9.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Producto" xr10:uid="{68D528BE-EE45-467C-BB55-B113F73DF63F}" sourceName="Producto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="5" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Data 1" xr10:uid="{EEF9598E-1665-4372-B7AD-B1274F21649F}" cache="SegmentaciónDeDatos_Data1" caption="Data" columnCount="4" rowHeight="234950"/>
@@ -3864,58 +4350,66 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Producto" xr10:uid="{216F7174-D0CB-4627-BA7A-235BD717E040}" cache="SegmentaciónDeDatos_Producto" caption="Producto" rowHeight="234950"/>
+  <slicer name="Secciones" xr10:uid="{7B27F1D2-76AF-459E-BC11-480EFA18D8E3}" cache="SegmentaciónDeDatos_Secciones" caption="Secciones" columnCount="2" rowHeight="234950"/>
+  <slicer name="Variables" xr10:uid="{2A1193AE-C4A3-4913-A0E6-D675DA800125}" cache="SegmentaciónDeDatos_Variables" caption="Variables" columnCount="2" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J26" totalsRowShown="0" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J26" totalsRowShown="0" dataDxfId="47">
   <autoFilter ref="B7:J26" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z18" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z18" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A7:Z18" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="36">
       <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$25,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="33">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="16"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3928,7 +4422,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -3948,6 +4442,26 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4250,7 +4764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4826,10 +5340,10 @@
   <dimension ref="A7:Z18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5466,7 +5980,7 @@
         <v>0004</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -5482,14 +5996,14 @@
         <v>170</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -5511,7 +6025,7 @@
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -5520,7 +6034,7 @@
         <v>0004</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -5530,20 +6044,20 @@
         <v>0004-00011</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -5564,7 +6078,7 @@
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -16102,173 +16616,68 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC69A750-CD1D-4669-9A9D-018B9017F0D6}">
-  <dimension ref="C2:I82"/>
+  <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="3" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="J8" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>787</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>785</v>
@@ -16277,19 +16686,29 @@
         <v>315</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>786</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K9" s="22">
+        <v>44105</v>
+      </c>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>785</v>
@@ -16298,19 +16717,29 @@
         <v>315</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G10" s="20"/>
+        <v>453</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K10" s="22">
+        <v>44105</v>
+      </c>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>785</v>
@@ -16321,17 +16750,27 @@
       <c r="F11" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>792</v>
+        <v>677</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K11" s="22">
+        <v>44105</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>785</v>
@@ -16342,17 +16781,27 @@
       <c r="F12" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K12" s="22">
+        <v>44105</v>
+      </c>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>785</v>
@@ -16363,17 +16812,27 @@
       <c r="F13" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21" t="s">
-        <v>599</v>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>651</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K13" s="22">
+        <v>44105</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>785</v>
@@ -16384,17 +16843,27 @@
       <c r="F14" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
-        <v>794</v>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>643</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K14" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>785</v>
@@ -16405,17 +16874,27 @@
       <c r="F15" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19" t="s">
-        <v>522</v>
+        <v>789</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K15" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>785</v>
@@ -16424,21 +16903,29 @@
         <v>315</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>546</v>
+        <v>790</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K16" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>785</v>
@@ -16447,21 +16934,29 @@
         <v>315</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G17" s="19"/>
       <c r="H17" s="19" t="s">
-        <v>627</v>
+        <v>791</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K17" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>785</v>
@@ -16470,21 +16965,29 @@
         <v>315</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G18" s="19"/>
       <c r="H18" s="19" t="s">
-        <v>625</v>
+        <v>792</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K18" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>785</v>
@@ -16493,21 +16996,29 @@
         <v>315</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>456</v>
+        <v>599</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K19" s="22">
+        <v>44119</v>
+      </c>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>785</v>
@@ -16516,21 +17027,29 @@
         <v>315</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>460</v>
+        <v>793</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K20" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>785</v>
@@ -16539,21 +17058,29 @@
         <v>315</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>795</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K21" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>785</v>
@@ -16564,19 +17091,29 @@
       <c r="F22" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K22" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>785</v>
@@ -16587,19 +17124,29 @@
       <c r="F23" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J23" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K23" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>785</v>
@@ -16610,19 +17157,29 @@
       <c r="F24" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>797</v>
+      <c r="G24" s="19" t="s">
+        <v>794</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K24" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>785</v>
@@ -16633,19 +17190,29 @@
       <c r="F25" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>797</v>
+      <c r="G25" s="19" t="s">
+        <v>794</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K25" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>785</v>
@@ -16656,19 +17223,29 @@
       <c r="F26" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>797</v>
+      <c r="G26" s="19" t="s">
+        <v>794</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K26" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>848</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>785</v>
@@ -16679,1158 +17256,1924 @@
       <c r="F27" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K27" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K28" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K29" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K30" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K31" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K32" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K33" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E34" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19" t="s">
-        <v>803</v>
+        <v>669</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K34" s="22">
+        <v>44124</v>
+      </c>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="19" t="s">
-        <v>805</v>
+        <v>556</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K35" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K36" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K37" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K38" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K39" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K40" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+      <c r="I41" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K41" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K42" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="19" t="s">
-        <v>808</v>
+        <v>354</v>
       </c>
       <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J43" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K43" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="19" t="s">
-        <v>548</v>
+        <v>374</v>
       </c>
       <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J44" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K44" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K45" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
+      <c r="F46" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K46" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>799</v>
-      </c>
       <c r="F47" s="19" t="s">
-        <v>745</v>
+        <v>355</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="82.8" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K47" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K48" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="F49" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K49" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K50" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>811</v>
-      </c>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="3:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+      <c r="J51" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K51" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="F52" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>812</v>
-      </c>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
+      <c r="J52" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K52" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="3:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+      <c r="F53" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K53" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="2:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>813</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>816</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="3:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="3:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="J54" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K54" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="2:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>470</v>
+        <v>811</v>
       </c>
       <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J55" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K55" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J56" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K56" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K57" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K58" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="59" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J59" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K59" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>388</v>
+        <v>817</v>
       </c>
       <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="3:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K60" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>821</v>
+        <v>470</v>
       </c>
       <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="3:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K61" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G62" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K62" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K63" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L63" s="19"/>
+    </row>
+    <row r="64" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K64" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L64" s="19"/>
+    </row>
+    <row r="65" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K65" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K66" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L66" s="19"/>
+    </row>
+    <row r="67" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="H67" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
+      <c r="I67" s="19"/>
+      <c r="J67" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K67" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>824</v>
-      </c>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
+      <c r="F68" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K68" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L68" s="19"/>
+    </row>
+    <row r="69" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>826</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>436</v>
+        <v>823</v>
       </c>
       <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J69" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K69" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J70" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K70" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L70" s="19"/>
+    </row>
+    <row r="71" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F71" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>831</v>
+        <v>573</v>
       </c>
       <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J71" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K71" s="22">
+        <v>44126</v>
+      </c>
+      <c r="L71" s="19"/>
+    </row>
+    <row r="72" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F72" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K72" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>833</v>
+        <v>571</v>
       </c>
       <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J73" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K73" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>834</v>
+        <v>587</v>
       </c>
       <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J74" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K74" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L74" s="19"/>
+    </row>
+    <row r="75" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>836</v>
+        <v>436</v>
       </c>
       <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J75" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K75" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L75" s="19"/>
+    </row>
+    <row r="76" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J76" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K76" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>665</v>
+        <v>829</v>
       </c>
       <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J77" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K77" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J78" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K78" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L78" s="19"/>
+    </row>
+    <row r="79" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="3:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J79" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K79" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L79" s="19"/>
+    </row>
+    <row r="80" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>799</v>
       </c>
       <c r="F80" s="19" t="s">
         <v>437</v>
       </c>
       <c r="G80" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K80" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L80" s="19"/>
+    </row>
+    <row r="81" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K81" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L81" s="19"/>
+    </row>
+    <row r="82" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H82" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="I82" s="19"/>
+      <c r="J82" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K82" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L82" s="19"/>
+    </row>
+    <row r="83" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K83" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K84" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L84" s="19"/>
+    </row>
+    <row r="85" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K85" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L85" s="19"/>
+    </row>
+    <row r="86" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K86" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L86" s="19"/>
+    </row>
+    <row r="87" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
+      <c r="I87" s="19"/>
+      <c r="J87" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="K87" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L87" s="19"/>
+    </row>
+    <row r="88" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="E81" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F81" s="19" t="s">
+      <c r="F88" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H88" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>841</v>
-      </c>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="3:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>840</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>842</v>
-      </c>
-      <c r="I82" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="K88" s="22">
+        <v>44129</v>
+      </c>
+      <c r="L88" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821678DD-7B4A-4794-964D-0B036FA04393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1498C6-A5F2-41D3-BA2F-D351F2DF431F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -2917,52 +2917,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3049,6 +3003,52 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3998,8 +3998,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>160021</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Producto">
@@ -4022,7 +4022,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4076,8 +4076,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Secciones">
@@ -4100,7 +4100,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4154,8 +4154,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Variables">
@@ -4178,7 +4178,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4446,19 +4446,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16619,7 +16619,7 @@
   <dimension ref="B8:L88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975F994-023D-457B-9ADA-45ECFDC11443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0F5D3-70BE-490E-96A3-E45260FFE41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1103">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -6538,8 +6538,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137161</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Data 3">
@@ -6562,7 +6562,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6616,8 +6616,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Estado 3">
@@ -6640,7 +6640,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6683,19 +6683,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324838</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1208758</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>14110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>660965</xdr:colOff>
+      <xdr:colOff>20885</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>105550</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Responsable Desarrollo 2">
@@ -6718,7 +6718,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6762,18 +6762,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>725593</xdr:colOff>
+      <xdr:colOff>85513</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>35277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>100753</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>344593</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Responsable Información 2">
@@ -6796,7 +6796,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6854,7 +6854,7 @@
       <sheetName val="Detalle Productos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="8">
           <cell r="B8" t="str">
             <v>DATASALUD</v>
@@ -7048,13 +7048,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22269,7 +22269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD17B5-9F7E-4F39-86BE-12F114AA6DEC}">
   <dimension ref="B11:O108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
@@ -25417,8 +25417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <dimension ref="A7:AO74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25429,7 +25429,9 @@
     <col min="5" max="5" width="31.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="15" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="15" width="12.88671875" customWidth="1"/>
     <col min="16" max="16" width="55.6640625" customWidth="1"/>
     <col min="17" max="17" width="22.77734375" customWidth="1"/>
     <col min="18" max="19" width="22.88671875" customWidth="1"/>
@@ -25605,7 +25607,9 @@
       <c r="H8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>206</v>
       </c>
@@ -25968,7 +25972,7 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25995,7 +25999,9 @@
       <c r="H13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0F5D3-70BE-490E-96A3-E45260FFE41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD71DCB-1BD8-4179-BB3A-EDE13872D81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="1105">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3114,9 +3114,6 @@
     <t>Mapa de Femicidios en Chile (2020)</t>
   </si>
   <si>
-    <t>Gratuito</t>
-  </si>
-  <si>
     <t>Data Intelligence</t>
   </si>
   <si>
@@ -3418,6 +3415,15 @@
   </si>
   <si>
     <t>Ods1</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Comunal</t>
+  </si>
+  <si>
+    <t>Básico</t>
   </si>
 </sst>
 </file>
@@ -24806,7 +24812,7 @@
         <v>960</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D77" s="23">
         <v>1</v>
@@ -24834,7 +24840,7 @@
         <v>960</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D78" s="23">
         <v>2</v>
@@ -25417,8 +25423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <dimension ref="A7:AO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="A10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25580,7 +25586,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(C8,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25608,23 +25614,31 @@
         <v>148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1000</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>206</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5000</v>
+      </c>
       <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>1001</v>
+        <v>1104</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>205</v>
@@ -25633,7 +25647,7 @@
         <v>207</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="U8" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -25659,19 +25673,19 @@
         <v>207</v>
       </c>
       <c r="AC8" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AF8" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG8" s="7" t="s">
         <v>1005</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>1006</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>220</v>
@@ -25680,7 +25694,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AK8" s="12" t="s">
         <v>182</v>
@@ -25723,20 +25737,42 @@
       <c r="H9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5000</v>
+      </c>
       <c r="P9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>1001</v>
+      </c>
       <c r="U9" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
@@ -25754,18 +25790,34 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AC9" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="AN9" s="7"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:41" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(C10,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25792,20 +25844,42 @@
       <c r="H10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5000</v>
+      </c>
       <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>1001</v>
+      </c>
       <c r="U10" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
@@ -25823,18 +25897,34 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AC10" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="AN10" s="7"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(C11,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25861,20 +25951,42 @@
       <c r="H11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5000</v>
+      </c>
       <c r="P11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>1001</v>
+      </c>
       <c r="U11" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
@@ -25892,18 +26004,34 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AC11" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="AN11" s="7"/>
       <c r="AO11" s="13"/>
     </row>
-    <row r="12" spans="1:41" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(C12,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25930,20 +26058,42 @@
       <c r="H12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5000</v>
+      </c>
       <c r="P12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>1001</v>
+      </c>
       <c r="U12" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
@@ -25972,7 +26122,7 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:41" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -26000,14 +26150,26 @@
         <v>148</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5000</v>
+      </c>
       <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
@@ -26421,7 +26583,7 @@
         <v>0011</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -26431,7 +26593,7 @@
         <v>0011-00012</v>
       </c>
       <c r="E19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -26476,7 +26638,7 @@
         <v>0010</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -26531,7 +26693,7 @@
         <v>0010</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -26586,7 +26748,7 @@
         <v>0010</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -26641,7 +26803,7 @@
         <v>0010</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
@@ -26651,7 +26813,7 @@
         <v>0010-00016</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -26696,7 +26858,7 @@
         <v>0013</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -26751,7 +26913,7 @@
         <v>0013</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -26806,7 +26968,7 @@
         <v>0013</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -26861,7 +27023,7 @@
         <v>0013</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -26916,7 +27078,7 @@
         <v>0013</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -26971,7 +27133,7 @@
         <v>0013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -26981,7 +27143,7 @@
         <v>0013-00022</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -27026,7 +27188,7 @@
         <v>0001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -27036,7 +27198,7 @@
         <v>0001-00023</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -27081,7 +27243,7 @@
         <v>0001</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -27091,7 +27253,7 @@
         <v>0001-00024</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -27136,17 +27298,17 @@
         <v>0020</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0020-00025</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -27191,17 +27353,17 @@
         <v>0020</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0020-00026</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -27246,17 +27408,17 @@
         <v>0020</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0020-00027</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -27301,17 +27463,17 @@
         <v>0020</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0020-00028</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -27356,7 +27518,7 @@
         <v>0017</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -27366,7 +27528,7 @@
         <v>0017-00029</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -27411,7 +27573,7 @@
         <v>0016</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -27466,7 +27628,7 @@
         <v>0016</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -27521,7 +27683,7 @@
         <v>0016</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -27576,7 +27738,7 @@
         <v>0003</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
@@ -27586,7 +27748,7 @@
         <v>0003-00033</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -27631,7 +27793,7 @@
         <v>0003</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
@@ -27641,7 +27803,7 @@
         <v>0003-00034</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -27686,7 +27848,7 @@
         <v>0003</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -27696,7 +27858,7 @@
         <v>0003-00035</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -27741,7 +27903,7 @@
         <v>0011</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -27796,7 +27958,7 @@
         <v>0011</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -27851,7 +28013,7 @@
         <v>0011</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -27906,7 +28068,7 @@
         <v>0011</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -27961,7 +28123,7 @@
         <v>0005</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
@@ -27971,7 +28133,7 @@
         <v>0005-00040</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -28016,7 +28178,7 @@
         <v>0005</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
@@ -28026,7 +28188,7 @@
         <v>0005-00041</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -28071,7 +28233,7 @@
         <v>0005</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
@@ -28081,7 +28243,7 @@
         <v>0005-00042</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -28126,7 +28288,7 @@
         <v>0005</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>31</v>
@@ -28136,7 +28298,7 @@
         <v>0005-00043</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -28181,7 +28343,7 @@
         <v>0005</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
@@ -28191,7 +28353,7 @@
         <v>0005-00044</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -28236,7 +28398,7 @@
         <v>0019</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>193</v>
@@ -28246,7 +28408,7 @@
         <v>0019-00045</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -28291,7 +28453,7 @@
         <v>0019</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>193</v>
@@ -28301,7 +28463,7 @@
         <v>0019-00046</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -28346,7 +28508,7 @@
         <v>0004</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
@@ -28401,7 +28563,7 @@
         <v>0004</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -28411,7 +28573,7 @@
         <v>0004-00048</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -28456,7 +28618,7 @@
         <v>0004</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
@@ -28466,7 +28628,7 @@
         <v>0004-00049</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -28511,7 +28673,7 @@
         <v>0004</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
@@ -28521,7 +28683,7 @@
         <v>0004-00050</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -28566,7 +28728,7 @@
         <v>0004</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
@@ -28576,7 +28738,7 @@
         <v>0004-00051</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -28621,7 +28783,7 @@
         <v>0004</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
@@ -28631,7 +28793,7 @@
         <v>0004-00052</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -28676,7 +28838,7 @@
         <v>0004</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
@@ -28686,7 +28848,7 @@
         <v>0004-00053</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -28731,7 +28893,7 @@
         <v>0004</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -28786,7 +28948,7 @@
         <v>0004</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
@@ -28796,7 +28958,7 @@
         <v>0004-00055</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -28841,7 +29003,7 @@
         <v>0004</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -28851,7 +29013,7 @@
         <v>0004-00056</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -28896,7 +29058,7 @@
         <v>0007</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
@@ -28906,7 +29068,7 @@
         <v>0007-00057</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -28951,17 +29113,17 @@
         <v>0024</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0024-00058</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -29006,17 +29168,17 @@
         <v>0024</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0024-00059</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -29061,17 +29223,17 @@
         <v>0024</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0024-00060</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -29116,17 +29278,17 @@
         <v>0024</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0024-00061</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -29171,7 +29333,7 @@
         <v>0006</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
@@ -29181,7 +29343,7 @@
         <v>0006-00062</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -29226,7 +29388,7 @@
         <v>0006</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
@@ -29236,7 +29398,7 @@
         <v>0006-00063</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -29281,7 +29443,7 @@
         <v>0003</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>5</v>
@@ -29291,7 +29453,7 @@
         <v>0003-00064</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -29336,7 +29498,7 @@
         <v>#N/A</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="e">
@@ -29387,7 +29549,7 @@
         <v>#N/A</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="e">
@@ -29438,7 +29600,7 @@
         <v>#N/A</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="e">

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD71DCB-1BD8-4179-BB3A-EDE13872D81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7214F-B240-465F-BA7D-C748477B2165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
     <sheet name="PRODUCTOS" sheetId="2" r:id="rId2"/>
     <sheet name="MONITOREO" sheetId="5" r:id="rId3"/>
-    <sheet name="Variables" sheetId="6" r:id="rId4"/>
-    <sheet name="DATOS" sheetId="3" r:id="rId5"/>
+    <sheet name="DATOS" sheetId="3" r:id="rId4"/>
+    <sheet name="Variables" sheetId="6" r:id="rId5"/>
     <sheet name="PERSONAS" sheetId="4" r:id="rId6"/>
     <sheet name="Detalle Productos" sheetId="7" r:id="rId7"/>
     <sheet name="PRIORIZACION" sheetId="8" r:id="rId8"/>
@@ -4054,7 +4054,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4086,7 +4086,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5905,15 +5905,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5983,15 +5983,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>636905</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>125096</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6063,13 +6063,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:rowOff>102236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6141,7 +6141,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -6223,9 +6223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:colOff>713105</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6295,15 +6295,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:colOff>788035</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26035</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6373,13 +6373,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>141605</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>163195</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6453,13 +6453,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:rowOff>88266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7477,7 +7477,13 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:O83" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53">
-  <autoFilter ref="B11:O83" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
+  <autoFilter ref="B11:O83" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATAAGRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:O65">
     <sortCondition ref="B12:B65"/>
     <sortCondition ref="D12:D65"/>
@@ -7857,25 +7863,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="5" width="12.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6328125" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:10" ht="24.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -8064,7 +8070,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -8170,7 +8176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -8251,7 +8257,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -8357,7 +8363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="42" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>193</v>
       </c>
@@ -8433,43 +8439,43 @@
   <dimension ref="A7:Z18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8:E18"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" customWidth="1"/>
-    <col min="19" max="19" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="55.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" customWidth="1"/>
+    <col min="19" max="19" width="31.36328125" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="32" customWidth="1"/>
     <col min="22" max="22" width="25" customWidth="1"/>
-    <col min="23" max="23" width="21.44140625" customWidth="1"/>
-    <col min="24" max="24" width="26.109375" customWidth="1"/>
-    <col min="25" max="25" width="19.44140625" customWidth="1"/>
+    <col min="23" max="23" width="21.453125" customWidth="1"/>
+    <col min="24" max="24" width="26.08984375" customWidth="1"/>
+    <col min="25" max="25" width="19.453125" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:26" s="14" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="14" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -8549,7 +8555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8625,7 +8631,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="72" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8676,7 +8682,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8731,7 +8737,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8784,7 +8790,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8837,7 +8843,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -8890,7 +8896,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0017</v>
@@ -8954,7 +8960,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0017</v>
@@ -9016,7 +9022,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0012</v>
@@ -9067,7 +9073,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0004</v>
@@ -9121,7 +9127,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$25,2,0)</f>
         <v>0004</v>
@@ -9195,20 +9201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ECE941-44B2-41AF-B104-0EFC03F75B70}">
   <dimension ref="A3:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -9322,7 +9328,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -9418,7 +9424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -9444,7 +9450,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -9496,7 +9502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -9586,7 +9592,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>261</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -9659,7 +9665,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -9694,7 +9700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -9758,7 +9764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -9813,7 +9819,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -9824,7 +9830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>287</v>
       </c>
@@ -9850,7 +9856,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -9876,7 +9882,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>287</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -9968,7 +9974,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>287</v>
       </c>
@@ -9979,7 +9985,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -9990,7 +9996,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>300</v>
       </c>
@@ -10016,7 +10022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>300</v>
       </c>
@@ -10068,7 +10074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>300</v>
       </c>
@@ -10094,7 +10100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>300</v>
       </c>
@@ -10120,7 +10126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -10146,7 +10152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>312</v>
       </c>
@@ -10172,7 +10178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>317</v>
       </c>
@@ -10192,7 +10198,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -10215,7 +10221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -10244,7 +10250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -10264,7 +10270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>337</v>
       </c>
@@ -10322,7 +10328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>341</v>
       </c>
@@ -10339,7 +10345,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -10359,7 +10365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>343</v>
       </c>
@@ -10382,7 +10388,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -10405,7 +10411,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>343</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -10451,6 +10457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EB1DF-555F-4C14-8E69-28A1E57A4895}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
@@ -10458,16 +10478,16 @@
       <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -10490,7 +10510,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
@@ -10511,7 +10531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
@@ -10532,7 +10552,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10553,7 +10573,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -10574,7 +10594,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -10595,7 +10615,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -10616,7 +10636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -10637,7 +10657,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -10658,7 +10678,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -10679,7 +10699,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10700,7 +10720,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -10721,7 +10741,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -10742,7 +10762,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -10763,7 +10783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
@@ -10784,7 +10804,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -10805,7 +10825,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -10826,7 +10846,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
@@ -10847,7 +10867,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -10868,7 +10888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -10888,7 +10908,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -10908,7 +10928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -10928,7 +10948,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -10948,7 +10968,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -10968,7 +10988,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -10988,7 +11008,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -11008,7 +11028,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -11048,7 +11068,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>779</v>
       </c>
@@ -11068,7 +11088,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>6</v>
       </c>
@@ -11088,7 +11108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -11108,7 +11128,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -11128,7 +11148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -11148,7 +11168,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -11168,7 +11188,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -11188,7 +11208,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -11208,7 +11228,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -11228,7 +11248,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>10</v>
       </c>
@@ -11248,7 +11268,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -11268,7 +11288,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
         <v>6</v>
       </c>
@@ -11288,7 +11308,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -11308,7 +11328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>4</v>
       </c>
@@ -11348,7 +11368,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -11368,7 +11388,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -11388,7 +11408,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -11408,7 +11428,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -11428,7 +11448,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -11448,7 +11468,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>4</v>
       </c>
@@ -11468,7 +11488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -11488,7 +11508,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -11508,7 +11528,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>4</v>
       </c>
@@ -11528,7 +11548,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>4</v>
       </c>
@@ -11548,7 +11568,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>4</v>
       </c>
@@ -11568,7 +11588,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>4</v>
       </c>
@@ -11588,7 +11608,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>4</v>
       </c>
@@ -11608,7 +11628,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>3</v>
       </c>
@@ -11628,7 +11648,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -11648,7 +11668,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -11668,7 +11688,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>780</v>
       </c>
@@ -11688,7 +11708,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>780</v>
       </c>
@@ -11708,7 +11728,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -11728,7 +11748,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>780</v>
       </c>
@@ -11748,7 +11768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>780</v>
       </c>
@@ -11768,7 +11788,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>3</v>
       </c>
@@ -11788,7 +11808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>779</v>
       </c>
@@ -11808,7 +11828,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="17" t="s">
         <v>6</v>
       </c>
@@ -11828,7 +11848,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="17" t="s">
         <v>6</v>
       </c>
@@ -11848,7 +11868,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="17" t="s">
         <v>6</v>
       </c>
@@ -11868,7 +11888,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>780</v>
       </c>
@@ -11888,7 +11908,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>780</v>
       </c>
@@ -11908,7 +11928,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>780</v>
       </c>
@@ -11928,7 +11948,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>780</v>
       </c>
@@ -11948,7 +11968,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>4</v>
       </c>
@@ -11968,7 +11988,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>4</v>
       </c>
@@ -11988,7 +12008,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>4</v>
       </c>
@@ -12008,7 +12028,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>4</v>
       </c>
@@ -12028,7 +12048,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>4</v>
       </c>
@@ -12048,7 +12068,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>3</v>
       </c>
@@ -12068,7 +12088,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>3</v>
       </c>
@@ -12088,7 +12108,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>8</v>
       </c>
@@ -12108,7 +12128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>780</v>
       </c>
@@ -12128,7 +12148,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>780</v>
       </c>
@@ -12148,7 +12168,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -12168,7 +12188,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>4</v>
       </c>
@@ -12188,7 +12208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>4</v>
       </c>
@@ -12208,7 +12228,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>4</v>
       </c>
@@ -12228,7 +12248,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -12248,7 +12268,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="17" t="s">
         <v>6</v>
       </c>
@@ -12268,7 +12288,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>779</v>
       </c>
@@ -12288,7 +12308,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="17" t="s">
         <v>6</v>
       </c>
@@ -12308,7 +12328,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>18</v>
       </c>
@@ -12328,7 +12348,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>18</v>
       </c>
@@ -12348,7 +12368,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>18</v>
       </c>
@@ -12368,7 +12388,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>18</v>
       </c>
@@ -12388,7 +12408,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>18</v>
       </c>
@@ -12408,7 +12428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>18</v>
       </c>
@@ -12428,7 +12448,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>18</v>
       </c>
@@ -12448,7 +12468,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>18</v>
       </c>
@@ -12468,7 +12488,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="17" t="s">
         <v>6</v>
       </c>
@@ -12488,7 +12508,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>18</v>
       </c>
@@ -12508,7 +12528,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>18</v>
       </c>
@@ -12528,7 +12548,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>18</v>
       </c>
@@ -12548,7 +12568,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>18</v>
       </c>
@@ -12568,7 +12588,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -12588,7 +12608,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -12608,7 +12628,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -12628,7 +12648,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -12648,7 +12668,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>4</v>
       </c>
@@ -12668,7 +12688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>4</v>
       </c>
@@ -12688,7 +12708,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>4</v>
       </c>
@@ -12708,7 +12728,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="17" t="s">
         <v>6</v>
       </c>
@@ -12728,7 +12748,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="17" t="s">
         <v>6</v>
       </c>
@@ -12748,7 +12768,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="17" t="s">
         <v>6</v>
       </c>
@@ -12768,7 +12788,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>3</v>
       </c>
@@ -12788,7 +12808,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>780</v>
       </c>
@@ -12808,7 +12828,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>780</v>
       </c>
@@ -12828,7 +12848,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="17" t="s">
         <v>6</v>
       </c>
@@ -12848,7 +12868,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="17" t="s">
         <v>6</v>
       </c>
@@ -12868,7 +12888,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="17" t="s">
         <v>6</v>
       </c>
@@ -12888,7 +12908,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>8</v>
       </c>
@@ -12908,7 +12928,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="17" t="s">
         <v>6</v>
       </c>
@@ -12928,7 +12948,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="17" t="s">
         <v>6</v>
       </c>
@@ -12948,7 +12968,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="17" t="s">
         <v>6</v>
       </c>
@@ -12968,7 +12988,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>13</v>
       </c>
@@ -12988,7 +13008,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="17" t="s">
         <v>6</v>
       </c>
@@ -13008,7 +13028,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" s="17" t="s">
         <v>6</v>
       </c>
@@ -13028,7 +13048,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>13</v>
       </c>
@@ -13048,7 +13068,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>10</v>
       </c>
@@ -13068,7 +13088,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>10</v>
       </c>
@@ -13088,7 +13108,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="17" t="s">
         <v>6</v>
       </c>
@@ -13108,7 +13128,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -13128,7 +13148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="17" t="s">
         <v>6</v>
       </c>
@@ -13148,7 +13168,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>4</v>
       </c>
@@ -13168,7 +13188,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>4</v>
       </c>
@@ -13188,7 +13208,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>4</v>
       </c>
@@ -13208,7 +13228,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>4</v>
       </c>
@@ -13228,7 +13248,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>4</v>
       </c>
@@ -13248,7 +13268,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>13</v>
       </c>
@@ -13268,7 +13288,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>4</v>
       </c>
@@ -13288,7 +13308,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -13308,7 +13328,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -13328,7 +13348,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -13348,7 +13368,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -13368,7 +13388,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>13</v>
       </c>
@@ -13388,7 +13408,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>4</v>
       </c>
@@ -13408,7 +13428,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>4</v>
       </c>
@@ -13428,7 +13448,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>4</v>
       </c>
@@ -13448,7 +13468,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>4</v>
       </c>
@@ -13468,7 +13488,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>4</v>
       </c>
@@ -13488,7 +13508,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>13</v>
       </c>
@@ -13508,7 +13528,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>4</v>
       </c>
@@ -13528,7 +13548,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -13548,7 +13568,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -13568,7 +13588,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -13588,7 +13608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -13608,7 +13628,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>13</v>
       </c>
@@ -13628,7 +13648,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>4</v>
       </c>
@@ -13648,7 +13668,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>4</v>
       </c>
@@ -13668,7 +13688,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>4</v>
       </c>
@@ -13688,7 +13708,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>4</v>
       </c>
@@ -13708,7 +13728,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>4</v>
       </c>
@@ -13728,7 +13748,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>13</v>
       </c>
@@ -13748,7 +13768,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>4</v>
       </c>
@@ -13768,7 +13788,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -13788,7 +13808,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -13808,7 +13828,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -13828,7 +13848,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -13848,7 +13868,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>13</v>
       </c>
@@ -13868,7 +13888,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>4</v>
       </c>
@@ -13888,7 +13908,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>4</v>
       </c>
@@ -13908,7 +13928,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>4</v>
       </c>
@@ -13928,7 +13948,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>4</v>
       </c>
@@ -13948,7 +13968,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>4</v>
       </c>
@@ -13968,7 +13988,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>13</v>
       </c>
@@ -13988,7 +14008,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>4</v>
       </c>
@@ -14008,7 +14028,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -14028,7 +14048,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -14048,7 +14068,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -14068,7 +14088,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -14088,7 +14108,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>13</v>
       </c>
@@ -14108,7 +14128,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>4</v>
       </c>
@@ -14128,7 +14148,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>4</v>
       </c>
@@ -14148,7 +14168,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>4</v>
       </c>
@@ -14168,7 +14188,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14208,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -14208,7 +14228,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>13</v>
       </c>
@@ -14228,7 +14248,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>4</v>
       </c>
@@ -14248,7 +14268,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>4</v>
       </c>
@@ -14268,7 +14288,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>4</v>
       </c>
@@ -14288,7 +14308,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -14308,7 +14328,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -14328,7 +14348,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>13</v>
       </c>
@@ -14348,7 +14368,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>4</v>
       </c>
@@ -14368,7 +14388,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>4</v>
       </c>
@@ -14388,7 +14408,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>4</v>
       </c>
@@ -14408,7 +14428,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -14428,7 +14448,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -14448,7 +14468,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>13</v>
       </c>
@@ -14468,7 +14488,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>4</v>
       </c>
@@ -14488,7 +14508,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>4</v>
       </c>
@@ -14508,7 +14528,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>4</v>
       </c>
@@ -14528,7 +14548,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -14548,7 +14568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -14568,7 +14588,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>13</v>
       </c>
@@ -14588,7 +14608,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>779</v>
       </c>
@@ -14608,7 +14628,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>8</v>
       </c>
@@ -14628,7 +14648,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>779</v>
       </c>
@@ -14648,7 +14668,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>8</v>
       </c>
@@ -14668,7 +14688,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>3</v>
       </c>
@@ -14688,7 +14708,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>780</v>
       </c>
@@ -14708,7 +14728,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>780</v>
       </c>
@@ -14728,7 +14748,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>13</v>
       </c>
@@ -14748,7 +14768,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>13</v>
       </c>
@@ -14768,7 +14788,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B217" s="17" t="s">
         <v>6</v>
       </c>
@@ -14788,7 +14808,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B218" s="17" t="s">
         <v>6</v>
       </c>
@@ -14808,7 +14828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B219" s="17" t="s">
         <v>6</v>
       </c>
@@ -14828,7 +14848,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B220" s="17" t="s">
         <v>6</v>
       </c>
@@ -14848,7 +14868,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>8</v>
       </c>
@@ -14868,7 +14888,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>6</v>
       </c>
@@ -14888,7 +14908,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>6</v>
       </c>
@@ -14908,7 +14928,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>3</v>
       </c>
@@ -14928,7 +14948,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>3</v>
       </c>
@@ -14948,7 +14968,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>10</v>
       </c>
@@ -14968,7 +14988,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>10</v>
       </c>
@@ -14988,7 +15008,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>10</v>
       </c>
@@ -15008,7 +15028,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>10</v>
       </c>
@@ -15028,7 +15048,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>10</v>
       </c>
@@ -15048,7 +15068,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>10</v>
       </c>
@@ -15068,7 +15088,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>10</v>
       </c>
@@ -15088,7 +15108,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>4</v>
       </c>
@@ -15108,7 +15128,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>4</v>
       </c>
@@ -15128,7 +15148,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>4</v>
       </c>
@@ -15148,7 +15168,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>4</v>
       </c>
@@ -15168,7 +15188,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>4</v>
       </c>
@@ -15188,7 +15208,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>6</v>
       </c>
@@ -15208,7 +15228,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>6</v>
       </c>
@@ -15228,7 +15248,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>779</v>
       </c>
@@ -15248,7 +15268,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B241" s="17" t="s">
         <v>6</v>
       </c>
@@ -15268,7 +15288,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B242" s="17" t="s">
         <v>6</v>
       </c>
@@ -15288,7 +15308,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B243" s="17" t="s">
         <v>6</v>
       </c>
@@ -15308,7 +15328,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>4</v>
       </c>
@@ -15328,7 +15348,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>4</v>
       </c>
@@ -15348,7 +15368,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>4</v>
       </c>
@@ -15368,7 +15388,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>4</v>
       </c>
@@ -15388,7 +15408,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>4</v>
       </c>
@@ -15408,7 +15428,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>13</v>
       </c>
@@ -15428,7 +15448,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B250" s="17" t="s">
         <v>6</v>
       </c>
@@ -15448,7 +15468,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>4</v>
       </c>
@@ -15468,7 +15488,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>4</v>
       </c>
@@ -15488,7 +15508,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>4</v>
       </c>
@@ -15508,7 +15528,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>4</v>
       </c>
@@ -15528,7 +15548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>4</v>
       </c>
@@ -15548,7 +15568,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>13</v>
       </c>
@@ -15568,7 +15588,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>10</v>
       </c>
@@ -15588,7 +15608,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>12</v>
       </c>
@@ -15608,7 +15628,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>12</v>
       </c>
@@ -15628,7 +15648,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>8</v>
       </c>
@@ -15648,7 +15668,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>13</v>
       </c>
@@ -15668,7 +15688,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B262" s="17" t="s">
         <v>6</v>
       </c>
@@ -15688,7 +15708,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B263" s="17" t="s">
         <v>6</v>
       </c>
@@ -15708,7 +15728,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>13</v>
       </c>
@@ -15728,7 +15748,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>6</v>
       </c>
@@ -15748,7 +15768,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>779</v>
       </c>
@@ -15768,7 +15788,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>779</v>
       </c>
@@ -15788,7 +15808,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>6</v>
       </c>
@@ -15808,7 +15828,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>6</v>
       </c>
@@ -15828,7 +15848,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>4</v>
       </c>
@@ -15848,7 +15868,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>4</v>
       </c>
@@ -15868,7 +15888,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>4</v>
       </c>
@@ -15888,7 +15908,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>4</v>
       </c>
@@ -15908,7 +15928,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>4</v>
       </c>
@@ -15928,7 +15948,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>780</v>
       </c>
@@ -15948,7 +15968,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>780</v>
       </c>
@@ -15968,7 +15988,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>8</v>
       </c>
@@ -15988,7 +16008,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>3</v>
       </c>
@@ -16008,7 +16028,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>6</v>
       </c>
@@ -16028,7 +16048,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>779</v>
       </c>
@@ -16048,7 +16068,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>6</v>
       </c>
@@ -16068,7 +16088,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>779</v>
       </c>
@@ -16088,7 +16108,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>6</v>
       </c>
@@ -16108,7 +16128,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>779</v>
       </c>
@@ -16128,7 +16148,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>779</v>
       </c>
@@ -16148,7 +16168,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>4</v>
       </c>
@@ -16168,7 +16188,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>4</v>
       </c>
@@ -16188,7 +16208,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>4</v>
       </c>
@@ -16208,7 +16228,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>4</v>
       </c>
@@ -16228,7 +16248,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>4</v>
       </c>
@@ -16248,7 +16268,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>6</v>
       </c>
@@ -16268,7 +16288,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16308,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>4</v>
       </c>
@@ -16308,7 +16328,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>4</v>
       </c>
@@ -16328,7 +16348,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>4</v>
       </c>
@@ -16348,7 +16368,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>4</v>
       </c>
@@ -16368,7 +16388,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>4</v>
       </c>
@@ -16388,7 +16408,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>4</v>
       </c>
@@ -16408,7 +16428,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>4</v>
       </c>
@@ -16428,7 +16448,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>4</v>
       </c>
@@ -16448,7 +16468,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>4</v>
       </c>
@@ -16468,7 +16488,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>10</v>
       </c>
@@ -16488,7 +16508,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>10</v>
       </c>
@@ -16508,7 +16528,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>3</v>
       </c>
@@ -16528,7 +16548,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>3</v>
       </c>
@@ -16548,7 +16568,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>3</v>
       </c>
@@ -16568,7 +16588,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>13</v>
       </c>
@@ -16588,7 +16608,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>780</v>
       </c>
@@ -16608,7 +16628,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>780</v>
       </c>
@@ -16628,7 +16648,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>779</v>
       </c>
@@ -16648,7 +16668,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>779</v>
       </c>
@@ -16668,7 +16688,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>779</v>
       </c>
@@ -16688,7 +16708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>8</v>
       </c>
@@ -16708,7 +16728,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>10</v>
       </c>
@@ -16728,7 +16748,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>6</v>
       </c>
@@ -16748,7 +16768,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>6</v>
       </c>
@@ -16768,7 +16788,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>3</v>
       </c>
@@ -16788,7 +16808,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>779</v>
       </c>
@@ -16808,7 +16828,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>6</v>
       </c>
@@ -16828,7 +16848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>3</v>
       </c>
@@ -16848,7 +16868,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>779</v>
       </c>
@@ -16868,7 +16888,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>6</v>
       </c>
@@ -16888,7 +16908,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>3</v>
       </c>
@@ -16908,7 +16928,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>779</v>
       </c>
@@ -16928,7 +16948,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>6</v>
       </c>
@@ -16948,7 +16968,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>6</v>
       </c>
@@ -16968,7 +16988,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>18</v>
       </c>
@@ -16988,7 +17008,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>18</v>
       </c>
@@ -17008,7 +17028,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>18</v>
       </c>
@@ -17028,7 +17048,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>18</v>
       </c>
@@ -17048,7 +17068,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>779</v>
       </c>
@@ -17068,7 +17088,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>6</v>
       </c>
@@ -17088,7 +17108,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>3</v>
       </c>
@@ -17108,7 +17128,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>6</v>
       </c>
@@ -17128,7 +17148,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>6</v>
       </c>
@@ -17148,7 +17168,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>6</v>
       </c>
@@ -17168,7 +17188,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>6</v>
       </c>
@@ -17188,7 +17208,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>6</v>
       </c>
@@ -17208,7 +17228,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>6</v>
       </c>
@@ -17228,7 +17248,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>6</v>
       </c>
@@ -17248,7 +17268,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>10</v>
       </c>
@@ -17268,7 +17288,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>10</v>
       </c>
@@ -17288,7 +17308,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>6</v>
       </c>
@@ -17308,7 +17328,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>6</v>
       </c>
@@ -17328,7 +17348,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>4</v>
       </c>
@@ -17348,7 +17368,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>4</v>
       </c>
@@ -17368,7 +17388,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>4</v>
       </c>
@@ -17388,7 +17408,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>4</v>
       </c>
@@ -17408,7 +17428,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>4</v>
       </c>
@@ -17428,7 +17448,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>13</v>
       </c>
@@ -17448,7 +17468,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>779</v>
       </c>
@@ -17468,7 +17488,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>6</v>
       </c>
@@ -17488,7 +17508,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>10</v>
       </c>
@@ -17508,7 +17528,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>6</v>
       </c>
@@ -17528,7 +17548,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>10</v>
       </c>
@@ -17548,7 +17568,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>4</v>
       </c>
@@ -17568,7 +17588,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>4</v>
       </c>
@@ -17588,7 +17608,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>4</v>
       </c>
@@ -17608,7 +17628,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>4</v>
       </c>
@@ -17628,7 +17648,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>4</v>
       </c>
@@ -17648,7 +17668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>13</v>
       </c>
@@ -17668,7 +17688,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>10</v>
       </c>
@@ -17688,7 +17708,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>6</v>
       </c>
@@ -17708,7 +17728,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>6</v>
       </c>
@@ -17728,7 +17748,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>4</v>
       </c>
@@ -17748,7 +17768,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>4</v>
       </c>
@@ -17768,7 +17788,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>4</v>
       </c>
@@ -17788,7 +17808,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>4</v>
       </c>
@@ -17808,7 +17828,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>4</v>
       </c>
@@ -17828,7 +17848,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>779</v>
       </c>
@@ -17848,7 +17868,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>6</v>
       </c>
@@ -17868,7 +17888,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>3</v>
       </c>
@@ -17888,7 +17908,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>780</v>
       </c>
@@ -17908,7 +17928,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>780</v>
       </c>
@@ -17928,7 +17948,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>780</v>
       </c>
@@ -17948,7 +17968,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>780</v>
       </c>
@@ -17968,7 +17988,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>780</v>
       </c>
@@ -17988,7 +18008,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>780</v>
       </c>
@@ -18008,7 +18028,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>780</v>
       </c>
@@ -18028,7 +18048,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>780</v>
       </c>
@@ -18048,7 +18068,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>10</v>
       </c>
@@ -18068,7 +18088,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>6</v>
       </c>
@@ -18088,7 +18108,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>779</v>
       </c>
@@ -18108,7 +18128,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>780</v>
       </c>
@@ -18128,7 +18148,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>780</v>
       </c>
@@ -18148,7 +18168,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>6</v>
       </c>
@@ -18168,7 +18188,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>6</v>
       </c>
@@ -18188,7 +18208,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>12</v>
       </c>
@@ -18208,7 +18228,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>12</v>
       </c>
@@ -18228,7 +18248,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>6</v>
       </c>
@@ -18248,7 +18268,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>780</v>
       </c>
@@ -18268,7 +18288,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>780</v>
       </c>
@@ -18288,7 +18308,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>8</v>
       </c>
@@ -18308,7 +18328,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>6</v>
       </c>
@@ -18328,7 +18348,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>3</v>
       </c>
@@ -18348,7 +18368,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>779</v>
       </c>
@@ -18368,7 +18388,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>6</v>
       </c>
@@ -18388,7 +18408,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>10</v>
       </c>
@@ -18408,7 +18428,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>6</v>
       </c>
@@ -18428,7 +18448,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>10</v>
       </c>
@@ -18448,7 +18468,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>10</v>
       </c>
@@ -18468,7 +18488,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>10</v>
       </c>
@@ -18488,7 +18508,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>10</v>
       </c>
@@ -18508,7 +18528,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>10</v>
       </c>
@@ -18528,7 +18548,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>10</v>
       </c>
@@ -18548,7 +18568,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>6</v>
       </c>
@@ -18568,7 +18588,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>6</v>
       </c>
@@ -18588,7 +18608,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>6</v>
       </c>
@@ -18608,7 +18628,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>6</v>
       </c>
@@ -18628,7 +18648,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>6</v>
       </c>
@@ -18648,7 +18668,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>4</v>
       </c>
@@ -18668,7 +18688,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>4</v>
       </c>
@@ -18688,7 +18708,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>4</v>
       </c>
@@ -18708,7 +18728,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>4</v>
       </c>
@@ -18728,7 +18748,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>4</v>
       </c>
@@ -18748,7 +18768,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>6</v>
       </c>
@@ -18768,7 +18788,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>4</v>
       </c>
@@ -18788,7 +18808,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>4</v>
       </c>
@@ -18808,7 +18828,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18848,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>4</v>
       </c>
@@ -18848,7 +18868,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>4</v>
       </c>
@@ -18868,7 +18888,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>10</v>
       </c>
@@ -18888,7 +18908,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +18928,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>12</v>
       </c>
@@ -18928,7 +18948,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>780</v>
       </c>
@@ -18948,7 +18968,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>780</v>
       </c>
@@ -18968,7 +18988,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>6</v>
       </c>
@@ -18988,7 +19008,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>6</v>
       </c>
@@ -19008,7 +19028,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>3</v>
       </c>
@@ -19028,7 +19048,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>3</v>
       </c>
@@ -19048,7 +19068,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>12</v>
       </c>
@@ -19068,7 +19088,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>12</v>
       </c>
@@ -19088,7 +19108,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>6</v>
       </c>
@@ -19108,7 +19128,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>6</v>
       </c>
@@ -19128,7 +19148,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>779</v>
       </c>
@@ -19148,7 +19168,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>6</v>
       </c>
@@ -19168,7 +19188,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>283</v>
       </c>
@@ -19188,7 +19208,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>283</v>
       </c>
@@ -19208,7 +19228,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>283</v>
       </c>
@@ -19228,7 +19248,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>283</v>
       </c>
@@ -19248,7 +19268,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>283</v>
       </c>
@@ -19268,7 +19288,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>283</v>
       </c>
@@ -19288,7 +19308,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>283</v>
       </c>
@@ -19308,7 +19328,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B444" t="s">
         <v>283</v>
       </c>
@@ -19328,7 +19348,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B445" t="s">
         <v>283</v>
       </c>
@@ -19354,20 +19374,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EB1DF-555F-4C14-8E69-28A1E57A4895}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19379,13 +19385,13 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>102</v>
       </c>
@@ -19408,7 +19414,7 @@
         <v>Paula Rojas</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>104</v>
       </c>
@@ -19420,7 +19426,7 @@
         <v>Fernanda Olivares</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -19432,7 +19438,7 @@
         <v>Carolina Marió</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -19444,7 +19450,7 @@
         <v>Natalia Arancibia</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -19456,7 +19462,7 @@
         <v>Reyes Rodríguez</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>115</v>
       </c>
@@ -19465,7 +19471,7 @@
         <v xml:space="preserve">Monserrat </v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>116</v>
       </c>
@@ -19477,7 +19483,7 @@
         <v>Andrés Sebastián</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>118</v>
       </c>
@@ -19489,7 +19495,7 @@
         <v>José Manuel Moro</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -19501,7 +19507,7 @@
         <v>Luis Monsalve</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -19513,7 +19519,7 @@
         <v>Christian Castro</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>124</v>
       </c>
@@ -19522,7 +19528,7 @@
         <v xml:space="preserve">Mario </v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>125</v>
       </c>
@@ -19531,7 +19537,7 @@
         <v xml:space="preserve">Vivian </v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>126</v>
       </c>
@@ -19540,7 +19546,7 @@
         <v xml:space="preserve">Edwin </v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>127</v>
       </c>
@@ -19552,7 +19558,7 @@
         <v>Clent Ebanks</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -19561,7 +19567,7 @@
         <v xml:space="preserve">Héctor </v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -19570,7 +19576,7 @@
         <v xml:space="preserve">Ian </v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -19579,7 +19585,7 @@
         <v xml:space="preserve">Víctor </v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -19591,7 +19597,7 @@
         <v>Claudia Garrido</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -19603,7 +19609,7 @@
         <v>Astrid Holmgren</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -19615,7 +19621,7 @@
         <v>Karen Farías</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>138</v>
       </c>
@@ -19627,7 +19633,7 @@
         <v>Efraín Duarte</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>140</v>
       </c>
@@ -19639,7 +19645,7 @@
         <v>Mª Victoria Colmenares</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>142</v>
       </c>
@@ -19651,7 +19657,7 @@
         <v>Abner Jiménez</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>144</v>
       </c>
@@ -19663,7 +19669,7 @@
         <v>Alfonso Quiroz</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>146</v>
       </c>
@@ -19675,7 +19681,7 @@
         <v>Patricio Emanuelli</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>148</v>
       </c>
@@ -19687,7 +19693,7 @@
         <v>Macarena Herrera</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>150</v>
       </c>
@@ -19711,26 +19717,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC69A750-CD1D-4669-9A9D-018B9017F0D6}">
   <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B70" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -19765,7 +19771,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -19796,7 +19802,7 @@
       </c>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -19827,7 +19833,7 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -19858,7 +19864,7 @@
       </c>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -19889,7 +19895,7 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -19920,7 +19926,7 @@
       </c>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -19951,7 +19957,7 @@
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -19982,7 +19988,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -20013,7 +20019,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -20044,7 +20050,7 @@
       </c>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -20075,7 +20081,7 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -20106,7 +20112,7 @@
       </c>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -20137,7 +20143,7 @@
       </c>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -20168,7 +20174,7 @@
       </c>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -20201,7 +20207,7 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
@@ -20234,7 +20240,7 @@
       </c>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -20267,7 +20273,7 @@
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
@@ -20300,7 +20306,7 @@
       </c>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -20333,7 +20339,7 @@
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -20366,7 +20372,7 @@
       </c>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -20399,7 +20405,7 @@
       </c>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -20432,7 +20438,7 @@
       </c>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -20465,7 +20471,7 @@
       </c>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -20498,7 +20504,7 @@
       </c>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -20531,7 +20537,7 @@
       </c>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -20564,7 +20570,7 @@
       </c>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -20595,7 +20601,7 @@
       </c>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
@@ -20626,7 +20632,7 @@
       </c>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -20657,7 +20663,7 @@
       </c>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -20684,7 +20690,7 @@
       </c>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -20715,7 +20721,7 @@
       </c>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -20746,7 +20752,7 @@
       </c>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -20777,7 +20783,7 @@
       </c>
       <c r="L40" s="19"/>
     </row>
-    <row r="41" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -20808,7 +20814,7 @@
       </c>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
@@ -20839,7 +20845,7 @@
       </c>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -20868,7 +20874,7 @@
       </c>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -20897,7 +20903,7 @@
       </c>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -20926,7 +20932,7 @@
       </c>
       <c r="L45" s="19"/>
     </row>
-    <row r="46" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
@@ -20955,7 +20961,7 @@
       </c>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
@@ -20984,7 +20990,7 @@
       </c>
       <c r="L47" s="19"/>
     </row>
-    <row r="48" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
@@ -21013,7 +21019,7 @@
       </c>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
@@ -21042,7 +21048,7 @@
       </c>
       <c r="L49" s="19"/>
     </row>
-    <row r="50" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
@@ -21071,7 +21077,7 @@
       </c>
       <c r="L50" s="19"/>
     </row>
-    <row r="51" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
@@ -21102,7 +21108,7 @@
       </c>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -21133,7 +21139,7 @@
       </c>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -21164,7 +21170,7 @@
       </c>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="2:12" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="78" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
@@ -21195,7 +21201,7 @@
       </c>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="2:12" ht="69" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="65" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -21226,7 +21232,7 @@
       </c>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
@@ -21257,7 +21263,7 @@
       </c>
       <c r="L56" s="19"/>
     </row>
-    <row r="57" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
@@ -21290,7 +21296,7 @@
       </c>
       <c r="L57" s="19"/>
     </row>
-    <row r="58" spans="2:12" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
@@ -21323,7 +21329,7 @@
       </c>
       <c r="L58" s="19"/>
     </row>
-    <row r="59" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
@@ -21354,7 +21360,7 @@
       </c>
       <c r="L59" s="19"/>
     </row>
-    <row r="60" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
@@ -21385,7 +21391,7 @@
       </c>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
@@ -21416,7 +21422,7 @@
       </c>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
@@ -21447,7 +21453,7 @@
       </c>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -21478,7 +21484,7 @@
       </c>
       <c r="L63" s="19"/>
     </row>
-    <row r="64" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
@@ -21509,7 +21515,7 @@
       </c>
       <c r="L64" s="19"/>
     </row>
-    <row r="65" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
@@ -21540,7 +21546,7 @@
       </c>
       <c r="L65" s="19"/>
     </row>
-    <row r="66" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
@@ -21571,7 +21577,7 @@
       </c>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
@@ -21602,7 +21608,7 @@
       </c>
       <c r="L67" s="19"/>
     </row>
-    <row r="68" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -21633,7 +21639,7 @@
       </c>
       <c r="L68" s="19"/>
     </row>
-    <row r="69" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -21664,7 +21670,7 @@
       </c>
       <c r="L69" s="19"/>
     </row>
-    <row r="70" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -21695,7 +21701,7 @@
       </c>
       <c r="L70" s="19"/>
     </row>
-    <row r="71" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
@@ -21726,7 +21732,7 @@
       </c>
       <c r="L71" s="19"/>
     </row>
-    <row r="72" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
@@ -21759,7 +21765,7 @@
       </c>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>6</v>
       </c>
@@ -21790,7 +21796,7 @@
       </c>
       <c r="L73" s="19"/>
     </row>
-    <row r="74" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
@@ -21821,7 +21827,7 @@
       </c>
       <c r="L74" s="19"/>
     </row>
-    <row r="75" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
@@ -21852,7 +21858,7 @@
       </c>
       <c r="L75" s="19"/>
     </row>
-    <row r="76" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
@@ -21883,7 +21889,7 @@
       </c>
       <c r="L76" s="19"/>
     </row>
-    <row r="77" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
@@ -21914,7 +21920,7 @@
       </c>
       <c r="L77" s="19"/>
     </row>
-    <row r="78" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
@@ -21945,7 +21951,7 @@
       </c>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
@@ -21976,7 +21982,7 @@
       </c>
       <c r="L79" s="19"/>
     </row>
-    <row r="80" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
@@ -22007,7 +22013,7 @@
       </c>
       <c r="L80" s="19"/>
     </row>
-    <row r="81" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
@@ -22038,7 +22044,7 @@
       </c>
       <c r="L81" s="19"/>
     </row>
-    <row r="82" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
@@ -22069,7 +22075,7 @@
       </c>
       <c r="L82" s="19"/>
     </row>
-    <row r="83" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
@@ -22100,7 +22106,7 @@
       </c>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
@@ -22131,7 +22137,7 @@
       </c>
       <c r="L84" s="19"/>
     </row>
-    <row r="85" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
@@ -22162,7 +22168,7 @@
       </c>
       <c r="L85" s="19"/>
     </row>
-    <row r="86" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" ht="39" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
@@ -22193,7 +22199,7 @@
       </c>
       <c r="L86" s="19"/>
     </row>
-    <row r="87" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
@@ -22224,7 +22230,7 @@
       </c>
       <c r="L87" s="19"/>
     </row>
-    <row r="88" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" ht="26" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
@@ -22276,30 +22282,30 @@
   <dimension ref="B11:O108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="35.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="35.90625" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:15" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="39" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
         <v>33</v>
       </c>
@@ -22343,7 +22349,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -22383,7 +22389,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -22423,7 +22429,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -22463,7 +22469,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
@@ -22503,7 +22509,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -22543,7 +22549,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -22583,7 +22589,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -22623,7 +22629,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -22663,7 +22669,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -22703,7 +22709,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -22743,7 +22749,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -22783,7 +22789,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -22823,7 +22829,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -22863,7 +22869,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -22903,7 +22909,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -22943,7 +22949,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -22983,7 +22989,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -23023,7 +23029,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -23063,7 +23069,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -23103,7 +23109,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
         <v>20</v>
       </c>
@@ -23143,7 +23149,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>20</v>
       </c>
@@ -23183,7 +23189,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -23223,7 +23229,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -23263,7 +23269,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -23303,7 +23309,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -23343,7 +23349,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>29</v>
       </c>
@@ -23383,7 +23389,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="36" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>29</v>
       </c>
@@ -23423,7 +23429,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -23463,7 +23469,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -23503,7 +23509,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -23543,7 +23549,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -23583,7 +23589,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -23623,7 +23629,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -23663,7 +23669,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -23703,7 +23709,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -23743,7 +23749,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -23783,7 +23789,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -23823,7 +23829,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -23863,7 +23869,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -23901,7 +23907,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="36" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -23939,7 +23945,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -23979,7 +23985,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
         <v>3</v>
       </c>
@@ -24019,7 +24025,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -24059,7 +24065,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -24099,7 +24105,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -24139,7 +24145,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -24179,7 +24185,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -24219,7 +24225,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>3</v>
       </c>
@@ -24259,7 +24265,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>955</v>
       </c>
@@ -24299,7 +24305,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -24339,7 +24345,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -24379,7 +24385,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -24419,7 +24425,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>10</v>
       </c>
@@ -24459,7 +24465,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>10</v>
       </c>
@@ -24499,7 +24505,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -24527,7 +24533,7 @@
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
     </row>
-    <row r="67" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>12</v>
       </c>
@@ -24555,7 +24561,7 @@
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -24583,7 +24589,7 @@
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>15</v>
       </c>
@@ -24611,7 +24617,7 @@
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -24639,7 +24645,7 @@
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -24667,7 +24673,7 @@
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>9</v>
       </c>
@@ -24695,7 +24701,7 @@
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>959</v>
       </c>
@@ -24723,7 +24729,7 @@
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>959</v>
       </c>
@@ -24751,7 +24757,7 @@
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
     </row>
-    <row r="75" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -24779,7 +24785,7 @@
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
     </row>
-    <row r="76" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>7</v>
       </c>
@@ -24807,7 +24813,7 @@
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>960</v>
       </c>
@@ -24835,7 +24841,7 @@
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>960</v>
       </c>
@@ -24863,7 +24869,7 @@
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>779</v>
       </c>
@@ -24889,7 +24895,7 @@
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>779</v>
       </c>
@@ -24915,7 +24921,7 @@
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
     </row>
-    <row r="81" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>31</v>
       </c>
@@ -24943,7 +24949,7 @@
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>973</v>
       </c>
@@ -24971,7 +24977,7 @@
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>974</v>
       </c>
@@ -24999,7 +25005,7 @@
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" s="27"/>
       <c r="C84" s="24"/>
       <c r="D84" s="23"/>
@@ -25015,7 +25021,7 @@
       <c r="N84" s="28"/>
       <c r="O84" s="28"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" s="27"/>
       <c r="C85" s="24"/>
       <c r="D85" s="23"/>
@@ -25031,7 +25037,7 @@
       <c r="N85" s="28"/>
       <c r="O85" s="28"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" s="27"/>
       <c r="C86" s="24"/>
       <c r="D86" s="23"/>
@@ -25047,7 +25053,7 @@
       <c r="N86" s="28"/>
       <c r="O86" s="28"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="27"/>
       <c r="C87" s="24"/>
       <c r="D87" s="23"/>
@@ -25063,7 +25069,7 @@
       <c r="N87" s="28"/>
       <c r="O87" s="28"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" s="27"/>
       <c r="C88" s="24"/>
       <c r="D88" s="23"/>
@@ -25079,7 +25085,7 @@
       <c r="N88" s="28"/>
       <c r="O88" s="28"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="27"/>
       <c r="C89" s="24"/>
       <c r="D89" s="23"/>
@@ -25095,7 +25101,7 @@
       <c r="N89" s="28"/>
       <c r="O89" s="28"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" s="27"/>
       <c r="C90" s="24"/>
       <c r="D90" s="23"/>
@@ -25111,7 +25117,7 @@
       <c r="N90" s="28"/>
       <c r="O90" s="28"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" s="27"/>
       <c r="C91" s="24"/>
       <c r="D91" s="23"/>
@@ -25127,7 +25133,7 @@
       <c r="N91" s="28"/>
       <c r="O91" s="28"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" s="27"/>
       <c r="C92" s="24"/>
       <c r="D92" s="23"/>
@@ -25143,7 +25149,7 @@
       <c r="N92" s="28"/>
       <c r="O92" s="28"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" s="27"/>
       <c r="C93" s="24"/>
       <c r="D93" s="23"/>
@@ -25159,7 +25165,7 @@
       <c r="N93" s="28"/>
       <c r="O93" s="28"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" s="27"/>
       <c r="C94" s="24"/>
       <c r="D94" s="23"/>
@@ -25175,7 +25181,7 @@
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" s="27"/>
       <c r="C95" s="24"/>
       <c r="D95" s="23"/>
@@ -25191,7 +25197,7 @@
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" s="27"/>
       <c r="C96" s="24"/>
       <c r="D96" s="23"/>
@@ -25207,7 +25213,7 @@
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B97" s="27"/>
       <c r="C97" s="24"/>
       <c r="D97" s="23"/>
@@ -25223,7 +25229,7 @@
       <c r="N97" s="28"/>
       <c r="O97" s="28"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B98" s="27"/>
       <c r="C98" s="24"/>
       <c r="D98" s="23"/>
@@ -25239,7 +25245,7 @@
       <c r="N98" s="28"/>
       <c r="O98" s="28"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="27"/>
       <c r="C99" s="24"/>
       <c r="D99" s="23"/>
@@ -25255,7 +25261,7 @@
       <c r="N99" s="28"/>
       <c r="O99" s="28"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B100" s="27"/>
       <c r="C100" s="24"/>
       <c r="D100" s="23"/>
@@ -25271,7 +25277,7 @@
       <c r="N100" s="28"/>
       <c r="O100" s="28"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B101" s="27"/>
       <c r="C101" s="24"/>
       <c r="D101" s="23"/>
@@ -25287,7 +25293,7 @@
       <c r="N101" s="28"/>
       <c r="O101" s="28"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" s="27"/>
       <c r="C102" s="24"/>
       <c r="D102" s="23"/>
@@ -25303,7 +25309,7 @@
       <c r="N102" s="28"/>
       <c r="O102" s="28"/>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" s="27"/>
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
@@ -25319,7 +25325,7 @@
       <c r="N103" s="28"/>
       <c r="O103" s="28"/>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" s="27"/>
       <c r="C104" s="24"/>
       <c r="D104" s="23"/>
@@ -25335,7 +25341,7 @@
       <c r="N104" s="28"/>
       <c r="O104" s="28"/>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" s="27"/>
       <c r="C105" s="24"/>
       <c r="D105" s="23"/>
@@ -25351,7 +25357,7 @@
       <c r="N105" s="28"/>
       <c r="O105" s="28"/>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" s="27"/>
       <c r="C106" s="24"/>
       <c r="D106" s="23"/>
@@ -25367,7 +25373,7 @@
       <c r="N106" s="28"/>
       <c r="O106" s="28"/>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" s="27"/>
       <c r="C107" s="24"/>
       <c r="D107" s="23"/>
@@ -25383,7 +25389,7 @@
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B108" s="27"/>
       <c r="C108" s="24"/>
       <c r="D108" s="23"/>
@@ -25423,45 +25429,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <dimension ref="A7:AO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="A10:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="55.6640625" customWidth="1"/>
-    <col min="17" max="17" width="22.77734375" customWidth="1"/>
-    <col min="18" max="19" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="16" width="55.6328125" customWidth="1"/>
+    <col min="17" max="17" width="22.81640625" customWidth="1"/>
+    <col min="18" max="19" width="22.90625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="55.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="17.88671875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="6.21875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="55.6328125" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.08984375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.90625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.36328125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="15" hidden="1" customWidth="1"/>
     <col min="29" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="17.109375" customWidth="1"/>
-    <col min="34" max="35" width="19.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.08984375" customWidth="1"/>
+    <col min="34" max="35" width="19.453125" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
     <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
-    <col min="39" max="39" width="26.109375" customWidth="1"/>
-    <col min="40" max="40" width="19.44140625" customWidth="1"/>
+    <col min="38" max="38" width="21.453125" customWidth="1"/>
+    <col min="39" max="39" width="26.08984375" customWidth="1"/>
+    <col min="40" max="40" width="19.453125" customWidth="1"/>
     <col min="41" max="41" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:41" s="14" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" s="14" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -25586,7 +25592,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(C8,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25710,7 +25716,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(C9,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25817,7 +25823,7 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:41" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(C10,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -25924,7 +25930,7 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:41" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(C11,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -26031,7 +26037,7 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="13"/>
     </row>
-    <row r="12" spans="1:41" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(C12,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -26122,7 +26128,7 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -26205,7 +26211,7 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="13"/>
     </row>
-    <row r="14" spans="1:41" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(C14,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0017</v>
@@ -26285,7 +26291,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(C15,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0017</v>
@@ -26365,7 +26371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(C16,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0012</v>
@@ -26434,7 +26440,7 @@
       <c r="AN16" s="7"/>
       <c r="AO16" s="13"/>
     </row>
-    <row r="17" spans="1:41" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(C17,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -26506,7 +26512,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(C18,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -26577,7 +26583,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(C19,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0011</v>
@@ -26632,7 +26638,7 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="13"/>
     </row>
-    <row r="20" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(C20,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -26687,7 +26693,7 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="13"/>
     </row>
-    <row r="21" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(C21,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -26742,7 +26748,7 @@
       <c r="AN21" s="7"/>
       <c r="AO21" s="13"/>
     </row>
-    <row r="22" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(C22,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -26797,7 +26803,7 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="38"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
         <f>+VLOOKUP(C23,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -26852,7 +26858,7 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="38"/>
     </row>
-    <row r="24" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(C24,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -26907,7 +26913,7 @@
       <c r="AN24" s="7"/>
       <c r="AO24" s="38"/>
     </row>
-    <row r="25" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(C25,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -26962,7 +26968,7 @@
       <c r="AN25" s="7"/>
       <c r="AO25" s="38"/>
     </row>
-    <row r="26" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(C26,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -27017,7 +27023,7 @@
       <c r="AN26" s="7"/>
       <c r="AO26" s="38"/>
     </row>
-    <row r="27" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(C27,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -27072,7 +27078,7 @@
       <c r="AN27" s="7"/>
       <c r="AO27" s="38"/>
     </row>
-    <row r="28" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(C28,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -27127,7 +27133,7 @@
       <c r="AN28" s="7"/>
       <c r="AO28" s="38"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(C29,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0013</v>
@@ -27182,7 +27188,7 @@
       <c r="AN29" s="7"/>
       <c r="AO29" s="38"/>
     </row>
-    <row r="30" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(C30,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0001</v>
@@ -27237,7 +27243,7 @@
       <c r="AN30" s="7"/>
       <c r="AO30" s="38"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(C31,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0001</v>
@@ -27292,7 +27298,7 @@
       <c r="AN31" s="7"/>
       <c r="AO31" s="38"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(C32,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
@@ -27347,7 +27353,7 @@
       <c r="AN32" s="7"/>
       <c r="AO32" s="13"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
         <f>+VLOOKUP(C33,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
@@ -27402,7 +27408,7 @@
       <c r="AN33" s="7"/>
       <c r="AO33" s="38"/>
     </row>
-    <row r="34" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
         <f>+VLOOKUP(C34,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
@@ -27457,7 +27463,7 @@
       <c r="AN34" s="7"/>
       <c r="AO34" s="38"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
         <f>+VLOOKUP(C35,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
@@ -27512,7 +27518,7 @@
       <c r="AN35" s="7"/>
       <c r="AO35" s="38"/>
     </row>
-    <row r="36" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(C36,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0017</v>
@@ -27567,7 +27573,7 @@
       <c r="AN36" s="7"/>
       <c r="AO36" s="38"/>
     </row>
-    <row r="37" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
         <f>+VLOOKUP(C37,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0016</v>
@@ -27622,7 +27628,7 @@
       <c r="AN37" s="7"/>
       <c r="AO37" s="38"/>
     </row>
-    <row r="38" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
         <f>+VLOOKUP(C38,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0016</v>
@@ -27677,7 +27683,7 @@
       <c r="AN38" s="7"/>
       <c r="AO38" s="38"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
         <f>+VLOOKUP(C39,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0016</v>
@@ -27732,7 +27738,7 @@
       <c r="AN39" s="7"/>
       <c r="AO39" s="38"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(C40,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0003</v>
@@ -27787,7 +27793,7 @@
       <c r="AN40" s="7"/>
       <c r="AO40" s="38"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(C41,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0003</v>
@@ -27842,7 +27848,7 @@
       <c r="AN41" s="7"/>
       <c r="AO41" s="38"/>
     </row>
-    <row r="42" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(C42,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0003</v>
@@ -27897,7 +27903,7 @@
       <c r="AN42" s="7"/>
       <c r="AO42" s="38"/>
     </row>
-    <row r="43" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+VLOOKUP(C43,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0011</v>
@@ -27952,7 +27958,7 @@
       <c r="AN43" s="7"/>
       <c r="AO43" s="38"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+VLOOKUP(C44,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0011</v>
@@ -28007,7 +28013,7 @@
       <c r="AN44" s="7"/>
       <c r="AO44" s="38"/>
     </row>
-    <row r="45" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
         <f>+VLOOKUP(C45,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0011</v>
@@ -28062,7 +28068,7 @@
       <c r="AN45" s="7"/>
       <c r="AO45" s="38"/>
     </row>
-    <row r="46" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
         <f>+VLOOKUP(C46,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0011</v>
@@ -28117,7 +28123,7 @@
       <c r="AN46" s="7"/>
       <c r="AO46" s="38"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(C47,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0005</v>
@@ -28172,7 +28178,7 @@
       <c r="AN47" s="7"/>
       <c r="AO47" s="38"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
         <f>+VLOOKUP(C48,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0005</v>
@@ -28227,7 +28233,7 @@
       <c r="AN48" s="7"/>
       <c r="AO48" s="38"/>
     </row>
-    <row r="49" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
         <f>+VLOOKUP(C49,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0005</v>
@@ -28282,7 +28288,7 @@
       <c r="AN49" s="7"/>
       <c r="AO49" s="38"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
         <f>+VLOOKUP(C50,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0005</v>
@@ -28337,7 +28343,7 @@
       <c r="AN50" s="7"/>
       <c r="AO50" s="38"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
         <f>+VLOOKUP(C51,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0005</v>
@@ -28392,7 +28398,7 @@
       <c r="AN51" s="7"/>
       <c r="AO51" s="38"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(C52,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0019</v>
@@ -28447,7 +28453,7 @@
       <c r="AN52" s="7"/>
       <c r="AO52" s="38"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(C53,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0019</v>
@@ -28502,7 +28508,7 @@
       <c r="AN53" s="7"/>
       <c r="AO53" s="38"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
         <f>+VLOOKUP(C54,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28557,7 +28563,7 @@
       <c r="AN54" s="7"/>
       <c r="AO54" s="38"/>
     </row>
-    <row r="55" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
         <f>+VLOOKUP(C55,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28612,7 +28618,7 @@
       <c r="AN55" s="7"/>
       <c r="AO55" s="38"/>
     </row>
-    <row r="56" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
         <f>+VLOOKUP(C56,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28667,7 +28673,7 @@
       <c r="AN56" s="7"/>
       <c r="AO56" s="38"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
         <f>+VLOOKUP(C57,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28722,7 +28728,7 @@
       <c r="AN57" s="7"/>
       <c r="AO57" s="38"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
         <f>+VLOOKUP(C58,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28777,7 +28783,7 @@
       <c r="AN58" s="7"/>
       <c r="AO58" s="38"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
         <f>+VLOOKUP(C59,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28832,7 +28838,7 @@
       <c r="AN59" s="7"/>
       <c r="AO59" s="38"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
         <f>+VLOOKUP(C60,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28887,7 +28893,7 @@
       <c r="AN60" s="7"/>
       <c r="AO60" s="38"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
         <f>+VLOOKUP(C61,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28942,7 +28948,7 @@
       <c r="AN61" s="7"/>
       <c r="AO61" s="38"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
         <f>+VLOOKUP(C62,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -28997,7 +29003,7 @@
       <c r="AN62" s="7"/>
       <c r="AO62" s="38"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
         <f>+VLOOKUP(C63,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
@@ -29052,7 +29058,7 @@
       <c r="AN63" s="7"/>
       <c r="AO63" s="38"/>
     </row>
-    <row r="64" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(C64,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0007</v>
@@ -29107,7 +29113,7 @@
       <c r="AN64" s="7"/>
       <c r="AO64" s="38"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(C65,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0024</v>
@@ -29162,7 +29168,7 @@
       <c r="AN65" s="7"/>
       <c r="AO65" s="38"/>
     </row>
-    <row r="66" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(C66,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0024</v>
@@ -29217,7 +29223,7 @@
       <c r="AN66" s="7"/>
       <c r="AO66" s="38"/>
     </row>
-    <row r="67" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(C67,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0024</v>
@@ -29272,7 +29278,7 @@
       <c r="AN67" s="7"/>
       <c r="AO67" s="13"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(C68,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0024</v>
@@ -29327,7 +29333,7 @@
       <c r="AN68" s="7"/>
       <c r="AO68" s="38"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
         <f>+VLOOKUP(C69,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0006</v>
@@ -29382,7 +29388,7 @@
       <c r="AN69" s="7"/>
       <c r="AO69" s="13"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
         <f>+VLOOKUP(C70,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0006</v>
@@ -29437,7 +29443,7 @@
       <c r="AN70" s="7"/>
       <c r="AO70" s="38"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
         <f>+VLOOKUP(C71,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0003</v>
@@ -29492,7 +29498,7 @@
       <c r="AN71" s="7"/>
       <c r="AO71" s="38"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="e">
         <f>+VLOOKUP(C72,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>#N/A</v>
@@ -29543,7 +29549,7 @@
       <c r="AN72" s="7"/>
       <c r="AO72" s="38"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="e">
         <f>+VLOOKUP(C73,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>#N/A</v>
@@ -29594,7 +29600,7 @@
       <c r="AN73" s="7"/>
       <c r="AO73" s="38"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="e">
         <f>+VLOOKUP(C74,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>#N/A</v>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7214F-B240-465F-BA7D-C748477B2165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CBEBE-7C06-4268-B22D-46EA819A7440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="PRIORIZACION" sheetId="8" r:id="rId8"/>
     <sheet name="SHOPIFY" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="DATAS_Lista">DATAS[Data]</definedName>
     <definedName name="SegmentaciónDeDatos_Avance__0_100">#N/A</definedName>
@@ -59,6 +56,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
@@ -81,7 +79,6 @@
         <x14:slicerCache r:id="rId30"/>
         <x14:slicerCache r:id="rId31"/>
         <x14:slicerCache r:id="rId32"/>
-        <x14:slicerCache r:id="rId33"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="1109">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3408,12 +3405,6 @@
     <t>00065</t>
   </si>
   <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
     <t>Ods1</t>
   </si>
   <si>
@@ -3424,6 +3415,24 @@
   </si>
   <si>
     <t>Básico</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
   </si>
 </sst>
 </file>
@@ -3636,7 +3645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3750,12 +3759,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="103">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4006,10 +4029,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4877,9 +4896,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5034,7 +5050,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -5110,13 +5126,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:colOff>1418590</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:colOff>1172210</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>304801</xdr:rowOff>
     </xdr:to>
@@ -5190,11 +5206,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:colOff>389890</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>297181</xdr:rowOff>
     </xdr:to>
@@ -5272,7 +5288,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>562610</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>274321</xdr:rowOff>
     </xdr:to>
@@ -5351,13 +5367,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>50165</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5427,15 +5443,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>164465</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>167641</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5507,11 +5523,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>521335</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -5583,15 +5599,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>658495</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3627120</xdr:colOff>
+      <xdr:colOff>3630295</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6536,13 +6552,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1470660</xdr:colOff>
+      <xdr:colOff>1473835</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6618,7 +6634,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>119381</xdr:colOff>
+      <xdr:colOff>122556</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6690,15 +6706,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1208758</xdr:colOff>
+      <xdr:colOff>1211933</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14110</xdr:rowOff>
+      <xdr:rowOff>10935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>20885</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105550</xdr:rowOff>
+      <xdr:rowOff>102375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6768,7 +6784,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85513</xdr:colOff>
+      <xdr:colOff>88688</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>35277</xdr:rowOff>
     </xdr:from>
@@ -6776,7 +6792,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>344593</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:rowOff>102659</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6844,226 +6860,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DATA`S"/>
-      <sheetName val="SHOPIFY"/>
-      <sheetName val="PRODUCTOS"/>
-      <sheetName val="MONITOREO"/>
-      <sheetName val="Variables"/>
-      <sheetName val="DATOS"/>
-      <sheetName val="PERSONAS"/>
-      <sheetName val="Detalle Productos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>DATASALUD</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>0001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>DATACLIMÁTICO</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>0002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>DATAAGRO</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>0003</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>DATAMUNICIPIO</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>0004</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>DATASAFEGUARDS</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>0005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>DATAGLOBAL</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>0006</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>DATAEMPRESA</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>0007</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>DATAGÉNERO</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>0008</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>DATAVIVIENDA</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>0009</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>DATAEDUCACIÓN</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>0010</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>DATATERRITORIO</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>0011</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>DATARIESGO</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>0012</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>DATACLIMA</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>0013</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>DATATRANSPARENCIA</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>0014</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>DATAHIDRO</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>0015</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>DATADELITO</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>0016</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>DATAELECCCIONES</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>0017</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>DATAEVALUACIÓN</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>0018</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>DATAINDÍGENAS</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>0019</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>DATAEMERGENCY</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>0020</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>DATAODS</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>0021</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>DATAPYME</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>0022</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>DATAGEOMIN</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>0023</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>DATAEIACC</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>0024</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7331,8 +7127,8 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
-  <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="6" columnCount="2" rowHeight="234950"/>
+  <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" startItem="2" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
 </slicers>
@@ -7348,7 +7144,7 @@
 
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="12" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -7369,8 +7165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J26" totalsRowShown="0" dataDxfId="102">
-  <autoFilter ref="B7:J26" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J32" totalsRowShown="0" dataDxfId="102">
+  <autoFilter ref="B7:J32" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="101"/>
     <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="100"/>
@@ -7387,39 +7183,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z18" totalsRowShown="0" headerRowDxfId="92">
-  <autoFilter ref="A7:Z18" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z72" totalsRowShown="0" headerRowDxfId="92">
+  <autoFilter ref="A7:Z72" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="DATAEMERGENCY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="91">
-      <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$25,2,0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="1">
+      <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="88">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="89">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="77"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="76"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="75"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="72"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="74"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="73"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="72"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="70"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="69"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="71"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7432,7 +7234,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="69"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -7456,109 +7258,111 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:O83" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53">
-  <autoFilter ref="B11:O83" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DATAAGRO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:O83" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="B11:O83" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:O65">
     <sortCondition ref="B12:B65"/>
     <sortCondition ref="D12:D65"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="45" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="46" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AO74" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="A7:AO74" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AO74" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="A7:AO74" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="DATAEMERGENCY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="37">
-      <calculatedColumnFormula>+VLOOKUP(C8,'[1]DATA`S'!$B$8:$C$31,2,0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="0">
+      <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="36">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="28"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="24"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="22"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="21"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="20"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="19"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="31"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="26"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="23"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="22"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="21"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="20"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="19">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="10"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="9"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="8"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="7"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="6"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="4"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="18">
+      <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="12"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="11"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="10"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="9"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="8"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="6"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="4"/>
     <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7861,10 +7665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
-  <dimension ref="B5:J26"/>
+  <dimension ref="B5:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8415,6 +8219,104 @@
       <c r="J26" s="3" t="s">
         <v>196</v>
       </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8436,13 +8338,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC307E2C-EE84-471E-9890-D38A97E99FE7}">
-  <dimension ref="A7:Z18"/>
+  <dimension ref="A7:Z72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8555,9 +8457,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
-        <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -8631,9 +8533,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
-        <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -8682,9 +8584,9 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
-        <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -8737,9 +8639,9 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
-        <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -8790,9 +8692,9 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
-        <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -8843,9 +8745,9 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
-        <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -8896,9 +8798,9 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
-        <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -8960,9 +8862,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
-        <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -9022,9 +8924,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
-        <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -9073,9 +8975,9 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
-        <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -9127,9 +9029,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
-        <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$25,2,0)</f>
+        <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -9179,6 +9081,2022 @@
       <c r="Z18" s="13" t="s">
         <v>845</v>
       </c>
+    </row>
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="str">
+        <f>+VLOOKUP(C19,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0011</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>+A19&amp;"-"&amp;B19</f>
+        <v>0011-00012</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="13"/>
+    </row>
+    <row r="20" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="str">
+        <f>+VLOOKUP(C20,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0010</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>+A20&amp;"-"&amp;B20</f>
+        <v>0010-00013</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="38"/>
+    </row>
+    <row r="21" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="str">
+        <f>+VLOOKUP(C21,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0010</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" ref="D21:D71" si="1">+A21&amp;"-"&amp;B21</f>
+        <v>0010-00014</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="str">
+        <f>+VLOOKUP(C22,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0010</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0010-00015</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="38"/>
+    </row>
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="str">
+        <f>+VLOOKUP(C23,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0010</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0010-00016</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="38"/>
+    </row>
+    <row r="24" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="str">
+        <f>+VLOOKUP(C24,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0002</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0002-00017</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="38"/>
+    </row>
+    <row r="25" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="str">
+        <f>+VLOOKUP(C25,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0013</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0013-00018</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="38"/>
+    </row>
+    <row r="26" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="str">
+        <f>+VLOOKUP(C26,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0002</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0002-00019</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="str">
+        <f>+VLOOKUP(C27,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0013</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0013-00020</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="38"/>
+    </row>
+    <row r="28" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="str">
+        <f>+VLOOKUP(C28,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0013</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0013-00021</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="38"/>
+    </row>
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="str">
+        <f>+VLOOKUP(C29,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0002</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0002-00022</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="38"/>
+    </row>
+    <row r="30" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="str">
+        <f>+VLOOKUP(C30,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0001</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0001-00023</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="38"/>
+    </row>
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="str">
+        <f>+VLOOKUP(C31,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0001</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0001-00024</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="38"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="str">
+        <f>+VLOOKUP(C32,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0025-00025</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="38"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="str">
+        <f>+VLOOKUP(C33,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0025-00026</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="38"/>
+    </row>
+    <row r="34" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="str">
+        <f>+VLOOKUP(C34,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0025-00027</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="str">
+        <f>+VLOOKUP(C35,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0025-00028</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="38"/>
+    </row>
+    <row r="36" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="str">
+        <f>+VLOOKUP(C36,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0017</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0017-00029</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="38"/>
+    </row>
+    <row r="37" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="str">
+        <f>+VLOOKUP(C37,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0016</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0016-00030</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="38"/>
+    </row>
+    <row r="38" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="str">
+        <f>+VLOOKUP(C38,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0016</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0016-00031</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="38"/>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="str">
+        <f>+VLOOKUP(C39,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0016</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0016-00032</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="38"/>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="str">
+        <f>+VLOOKUP(C40,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0003-00033</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="38"/>
+    </row>
+    <row r="41" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="str">
+        <f>+VLOOKUP(C41,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0003-00034</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="38"/>
+    </row>
+    <row r="42" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="str">
+        <f>+VLOOKUP(C42,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0003-00035</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="38"/>
+    </row>
+    <row r="43" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="str">
+        <f>+VLOOKUP(C43,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0011</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011-00036</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="38"/>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="str">
+        <f>+VLOOKUP(C44,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0011</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011-00037</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="38"/>
+    </row>
+    <row r="45" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="str">
+        <f>+VLOOKUP(C45,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0011</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011-00038</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="38"/>
+    </row>
+    <row r="46" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="str">
+        <f>+VLOOKUP(C46,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0011</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011-00039</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="38"/>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="str">
+        <f>+VLOOKUP(C47,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0005</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0005-00040</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="38"/>
+    </row>
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="str">
+        <f>+VLOOKUP(C48,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0005</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0005-00041</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="38"/>
+    </row>
+    <row r="49" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="str">
+        <f>+VLOOKUP(C49,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0005</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0005-00042</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="38"/>
+    </row>
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="str">
+        <f>+VLOOKUP(C50,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0005</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0005-00043</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="38"/>
+    </row>
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="str">
+        <f>+VLOOKUP(C51,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0005</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0005-00044</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="38"/>
+    </row>
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="str">
+        <f>+VLOOKUP(C52,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0019</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0019-00045</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="38"/>
+    </row>
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="str">
+        <f>+VLOOKUP(C53,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0019</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0019-00046</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="38"/>
+    </row>
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="str">
+        <f>+VLOOKUP(C54,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00047</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="38"/>
+    </row>
+    <row r="55" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="str">
+        <f>+VLOOKUP(C55,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00048</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="38"/>
+    </row>
+    <row r="56" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="str">
+        <f>+VLOOKUP(C56,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00049</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="38"/>
+    </row>
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="str">
+        <f>+VLOOKUP(C57,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00050</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="38"/>
+    </row>
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="str">
+        <f>+VLOOKUP(C58,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00051</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="38"/>
+    </row>
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="str">
+        <f>+VLOOKUP(C59,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00052</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="38"/>
+    </row>
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="str">
+        <f>+VLOOKUP(C60,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00053</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="38"/>
+    </row>
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="str">
+        <f>+VLOOKUP(C61,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00054</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="38"/>
+    </row>
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="str">
+        <f>+VLOOKUP(C62,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00055</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="38"/>
+    </row>
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="str">
+        <f>+VLOOKUP(C63,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0004</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0004-00056</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="38"/>
+    </row>
+    <row r="64" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="str">
+        <f>+VLOOKUP(C64,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0007</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0007-00057</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="38"/>
+    </row>
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="str">
+        <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0020-00058</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="38"/>
+    </row>
+    <row r="66" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="str">
+        <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0020-00059</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="38"/>
+    </row>
+    <row r="67" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="str">
+        <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0020-00060</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="38"/>
+    </row>
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="str">
+        <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0020-00061</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="38"/>
+    </row>
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="str">
+        <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0006</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0006-00062</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="38"/>
+    </row>
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="str">
+        <f>+VLOOKUP(C70,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0006</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0006-00063</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="38"/>
+    </row>
+    <row r="71" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="str">
+        <f>+VLOOKUP(C71,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0003-00064</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="38"/>
+    </row>
+    <row r="72" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="39" t="str">
+        <f>+VLOOKUP(C72,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f>+A72&amp;"-"&amp;B72</f>
+        <v>0003-00065</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10474,8 +12392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19717,7 +21635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC69A750-CD1D-4669-9A9D-018B9017F0D6}">
   <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
@@ -22283,7 +24201,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22549,7 +24467,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -22589,7 +24507,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -22629,7 +24547,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -22669,7 +24587,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -22709,7 +24627,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -22749,7 +24667,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -22789,7 +24707,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -22829,7 +24747,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -22869,7 +24787,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -22909,7 +24827,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -22949,7 +24867,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -22989,7 +24907,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -23029,7 +24947,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -23069,7 +24987,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -23109,9 +25027,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
-        <v>20</v>
+        <v>779</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>65</v>
@@ -23149,9 +25067,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
-        <v>20</v>
+        <v>779</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>67</v>
@@ -23189,7 +25107,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -23229,7 +25147,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="36" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -23269,7 +25187,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -23309,7 +25227,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -23349,7 +25267,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>29</v>
       </c>
@@ -23389,7 +25307,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" ht="36" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>29</v>
       </c>
@@ -23429,7 +25347,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -23469,7 +25387,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -23509,7 +25427,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -23549,7 +25467,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -23589,7 +25507,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -23629,7 +25547,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -23669,7 +25587,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -23709,7 +25627,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -23749,7 +25667,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -23789,7 +25707,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -23829,7 +25747,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -23869,7 +25787,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -23907,7 +25825,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:15" ht="36" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -23945,7 +25863,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -23985,7 +25903,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
         <v>3</v>
       </c>
@@ -24025,7 +25943,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -24065,7 +25983,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -24105,7 +26023,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -24145,7 +26063,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -24185,7 +26103,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -24225,7 +26143,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>3</v>
       </c>
@@ -24265,7 +26183,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>955</v>
       </c>
@@ -24305,7 +26223,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -24345,7 +26263,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -24385,7 +26303,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -24425,7 +26343,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>10</v>
       </c>
@@ -24465,7 +26383,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>10</v>
       </c>
@@ -24505,7 +26423,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -24533,7 +26451,7 @@
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
     </row>
-    <row r="67" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>12</v>
       </c>
@@ -24561,7 +26479,7 @@
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -24589,7 +26507,7 @@
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>15</v>
       </c>
@@ -24617,7 +26535,7 @@
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -24645,7 +26563,7 @@
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -24673,7 +26591,7 @@
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>9</v>
       </c>
@@ -24701,7 +26619,7 @@
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>959</v>
       </c>
@@ -24729,7 +26647,7 @@
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>959</v>
       </c>
@@ -24757,7 +26675,7 @@
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
     </row>
-    <row r="75" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -24785,7 +26703,7 @@
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
     </row>
-    <row r="76" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>7</v>
       </c>
@@ -24813,12 +26731,12 @@
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>960</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D77" s="23">
         <v>1</v>
@@ -24841,12 +26759,12 @@
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>960</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D78" s="23">
         <v>2</v>
@@ -24869,7 +26787,7 @@
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>779</v>
       </c>
@@ -24895,7 +26813,7 @@
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>779</v>
       </c>
@@ -24921,7 +26839,7 @@
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
     </row>
-    <row r="81" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>31</v>
       </c>
@@ -24949,7 +26867,7 @@
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>973</v>
       </c>
@@ -24977,7 +26895,7 @@
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>974</v>
       </c>
@@ -25429,8 +27347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <dimension ref="A7:AO74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25592,9 +27510,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
-        <f>+VLOOKUP(C8,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -25619,9 +27537,7 @@
       <c r="H8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>206</v>
       </c>
@@ -25629,13 +27545,13 @@
         <v>20000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M8" s="2">
         <v>10000</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O8" s="2">
         <v>5000</v>
@@ -25644,7 +27560,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>205</v>
@@ -25659,8 +27575,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>199</v>
+      <c r="V8" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>45</v>
@@ -25716,9 +27633,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
-        <f>+VLOOKUP(C9,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -25743,9 +27660,7 @@
       <c r="H9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>206</v>
       </c>
@@ -25753,13 +27668,13 @@
         <v>20000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M9" s="2">
         <v>10000</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O9" s="2">
         <v>5000</v>
@@ -25768,7 +27683,7 @@
         <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>205</v>
@@ -25783,8 +27698,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>199</v>
+      <c r="V9" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>45</v>
@@ -25823,9 +27739,9 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
-        <f>+VLOOKUP(C10,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -25850,9 +27766,7 @@
       <c r="H10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>206</v>
       </c>
@@ -25860,13 +27774,13 @@
         <v>20000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M10" s="2">
         <v>10000</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O10" s="2">
         <v>5000</v>
@@ -25875,7 +27789,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>205</v>
@@ -25890,8 +27804,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>200</v>
+      <c r="V10" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGIS Online</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>45</v>
@@ -25930,9 +27845,9 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
-        <f>+VLOOKUP(C11,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -25957,9 +27872,7 @@
       <c r="H11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>206</v>
       </c>
@@ -25967,13 +27880,13 @@
         <v>20000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M11" s="2">
         <v>10000</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O11" s="2">
         <v>5000</v>
@@ -25982,7 +27895,7 @@
         <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>205</v>
@@ -25997,8 +27910,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>56</v>
+      <c r="V11" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>Flourish</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>45</v>
@@ -26037,9 +27951,9 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="13"/>
     </row>
-    <row r="12" spans="1:41" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
-        <f>+VLOOKUP(C12,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -26064,9 +27978,7 @@
       <c r="H12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>206</v>
       </c>
@@ -26074,13 +27986,13 @@
         <v>20000</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M12" s="2">
         <v>10000</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O12" s="2">
         <v>5000</v>
@@ -26089,7 +28001,7 @@
         <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>205</v>
@@ -26104,8 +28016,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>56</v>
+      <c r="V12" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>Flourish</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>45</v>
@@ -26128,9 +28041,9 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:41" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
-        <f>+VLOOKUP(C13,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -26155,9 +28068,7 @@
       <c r="H13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>206</v>
       </c>
@@ -26165,13 +28076,13 @@
         <v>20000</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M13" s="2">
         <v>10000</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O13" s="2">
         <v>5000</v>
@@ -26187,8 +28098,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>200</v>
+      <c r="V13" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>ARCGIS Online</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>45</v>
@@ -26211,9 +28123,9 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="13"/>
     </row>
-    <row r="14" spans="1:41" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
-        <f>+VLOOKUP(C14,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -26256,8 +28168,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAELECCCIONES</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>56</v>
+      <c r="V14" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>Flourish</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>45</v>
@@ -26291,9 +28204,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
-        <f>+VLOOKUP(C15,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -26336,8 +28249,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAELECCCIONES</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>56</v>
+      <c r="V15" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>Flourish</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>45</v>
@@ -26371,9 +28285,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
-        <f>+VLOOKUP(C16,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -26416,8 +28330,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATARIESGO</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>201</v>
+      <c r="V16" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>GOOGLE EARTH ENGINE</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>45</v>
@@ -26440,9 +28355,9 @@
       <c r="AN16" s="7"/>
       <c r="AO16" s="13"/>
     </row>
-    <row r="17" spans="1:41" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
-        <f>+VLOOKUP(C17,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -26483,8 +28398,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>844</v>
+      <c r="V17" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI Y ARCGIS Online</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -26512,9 +28428,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
-        <f>+VLOOKUP(C18,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -26555,8 +28471,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>844</v>
+      <c r="V18" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI Y ARCGIS Online</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -26583,9 +28500,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
-        <f>+VLOOKUP(C19,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -26620,7 +28537,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="V19" s="2"/>
+      <c r="V19" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -26638,9 +28558,9 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="13"/>
     </row>
-    <row r="20" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
-        <f>+VLOOKUP(C20,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -26675,7 +28595,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -26693,9 +28616,9 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="13"/>
     </row>
-    <row r="21" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
-        <f>+VLOOKUP(C21,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -26730,7 +28653,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="V21" s="2"/>
+      <c r="V21" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -26748,9 +28674,9 @@
       <c r="AN21" s="7"/>
       <c r="AO21" s="13"/>
     </row>
-    <row r="22" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
-        <f>+VLOOKUP(C22,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -26785,7 +28711,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="V22" s="2"/>
+      <c r="V22" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -26803,9 +28732,9 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="38"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
-        <f>+VLOOKUP(C23,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -26840,7 +28769,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEDUCACIÓN</v>
       </c>
-      <c r="V23" s="2"/>
+      <c r="V23" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -26858,9 +28790,9 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="38"/>
     </row>
-    <row r="24" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
-        <f>+VLOOKUP(C24,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -26895,7 +28827,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V24" s="2"/>
+      <c r="V24" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -26913,9 +28848,9 @@
       <c r="AN24" s="7"/>
       <c r="AO24" s="38"/>
     </row>
-    <row r="25" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
-        <f>+VLOOKUP(C25,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -26950,7 +28885,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V25" s="2"/>
+      <c r="V25" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -26968,9 +28906,9 @@
       <c r="AN25" s="7"/>
       <c r="AO25" s="38"/>
     </row>
-    <row r="26" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
-        <f>+VLOOKUP(C26,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -27005,7 +28943,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -27023,9 +28964,9 @@
       <c r="AN26" s="7"/>
       <c r="AO26" s="38"/>
     </row>
-    <row r="27" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
-        <f>+VLOOKUP(C27,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -27060,7 +29001,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V27" s="2"/>
+      <c r="V27" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -27078,9 +29022,9 @@
       <c r="AN27" s="7"/>
       <c r="AO27" s="38"/>
     </row>
-    <row r="28" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
-        <f>+VLOOKUP(C28,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -27115,7 +29059,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V28" s="2"/>
+      <c r="V28" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -27133,9 +29080,9 @@
       <c r="AN28" s="7"/>
       <c r="AO28" s="38"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
-        <f>+VLOOKUP(C29,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -27170,7 +29117,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATACLIMA</v>
       </c>
-      <c r="V29" s="2"/>
+      <c r="V29" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -27188,9 +29138,9 @@
       <c r="AN29" s="7"/>
       <c r="AO29" s="38"/>
     </row>
-    <row r="30" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
-        <f>+VLOOKUP(C30,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -27225,7 +29175,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="V30" s="2"/>
+      <c r="V30" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -27243,9 +29196,9 @@
       <c r="AN30" s="7"/>
       <c r="AO30" s="38"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
-        <f>+VLOOKUP(C31,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -27280,7 +29233,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASALUD</v>
       </c>
-      <c r="V31" s="2"/>
+      <c r="V31" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -27300,8 +29256,8 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
-        <f>+VLOOKUP(C32,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0020</v>
+        <f>+VLOOKUP(C32,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>1025</v>
@@ -27311,7 +29267,7 @@
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00025</v>
+        <v>0025-00025</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1027</v>
@@ -27335,7 +29291,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEMERGENCY</v>
       </c>
-      <c r="V32" s="2"/>
+      <c r="V32" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -27355,8 +29314,8 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
-        <f>+VLOOKUP(C33,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0020</v>
+        <f>+VLOOKUP(C33,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>1028</v>
@@ -27366,7 +29325,7 @@
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00026</v>
+        <v>0025-00026</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>1029</v>
@@ -27390,7 +29349,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEMERGENCY</v>
       </c>
-      <c r="V33" s="2"/>
+      <c r="V33" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -27410,8 +29372,8 @@
     </row>
     <row r="34" spans="1:41" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
-        <f>+VLOOKUP(C34,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0020</v>
+        <f>+VLOOKUP(C34,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>1030</v>
@@ -27421,7 +29383,7 @@
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00027</v>
+        <v>0025-00027</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>1031</v>
@@ -27445,7 +29407,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEMERGENCY</v>
       </c>
-      <c r="V34" s="2"/>
+      <c r="V34" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -27465,8 +29430,8 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
-        <f>+VLOOKUP(C35,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0020</v>
+        <f>+VLOOKUP(C35,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0025</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>1032</v>
@@ -27476,7 +29441,7 @@
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00028</v>
+        <v>0025-00028</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>1033</v>
@@ -27500,7 +29465,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEMERGENCY</v>
       </c>
-      <c r="V35" s="2"/>
+      <c r="V35" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -27518,9 +29486,9 @@
       <c r="AN35" s="7"/>
       <c r="AO35" s="38"/>
     </row>
-    <row r="36" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
-        <f>+VLOOKUP(C36,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -27555,7 +29523,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAELECCCIONES</v>
       </c>
-      <c r="V36" s="2"/>
+      <c r="V36" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -27573,9 +29544,9 @@
       <c r="AN36" s="7"/>
       <c r="AO36" s="38"/>
     </row>
-    <row r="37" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
-        <f>+VLOOKUP(C37,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -27610,7 +29581,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="V37" s="2"/>
+      <c r="V37" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -27628,9 +29602,9 @@
       <c r="AN37" s="7"/>
       <c r="AO37" s="38"/>
     </row>
-    <row r="38" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
-        <f>+VLOOKUP(C38,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -27665,7 +29639,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="V38" s="2"/>
+      <c r="V38" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
@@ -27683,9 +29660,9 @@
       <c r="AN38" s="7"/>
       <c r="AO38" s="38"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
-        <f>+VLOOKUP(C39,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -27720,7 +29697,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="V39" s="2"/>
+      <c r="V39" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -27738,9 +29718,9 @@
       <c r="AN39" s="7"/>
       <c r="AO39" s="38"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
-        <f>+VLOOKUP(C40,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -27775,7 +29755,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V40" s="2"/>
+      <c r="V40" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
+      </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -27793,9 +29776,9 @@
       <c r="AN40" s="7"/>
       <c r="AO40" s="38"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
-        <f>+VLOOKUP(C41,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -27830,7 +29813,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V41" s="2"/>
+      <c r="V41" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>GOOGLE EARTH ENGINE</v>
+      </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
@@ -27848,9 +29834,9 @@
       <c r="AN41" s="7"/>
       <c r="AO41" s="38"/>
     </row>
-    <row r="42" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
-        <f>+VLOOKUP(C42,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -27885,7 +29871,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V42" s="2"/>
+      <c r="V42" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
+      </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -27903,9 +29892,9 @@
       <c r="AN42" s="7"/>
       <c r="AO42" s="38"/>
     </row>
-    <row r="43" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
-        <f>+VLOOKUP(C43,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -27940,7 +29929,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="V43" s="2"/>
+      <c r="V43" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -27958,9 +29950,9 @@
       <c r="AN43" s="7"/>
       <c r="AO43" s="38"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
-        <f>+VLOOKUP(C44,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -27995,7 +29987,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="V44" s="2"/>
+      <c r="V44" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
@@ -28013,9 +30008,9 @@
       <c r="AN44" s="7"/>
       <c r="AO44" s="38"/>
     </row>
-    <row r="45" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
-        <f>+VLOOKUP(C45,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -28050,7 +30045,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="V45" s="2"/>
+      <c r="V45" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
@@ -28068,9 +30066,9 @@
       <c r="AN45" s="7"/>
       <c r="AO45" s="38"/>
     </row>
-    <row r="46" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
-        <f>+VLOOKUP(C46,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -28105,7 +30103,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATATERRITORIO</v>
       </c>
-      <c r="V46" s="2"/>
+      <c r="V46" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -28123,9 +30124,9 @@
       <c r="AN46" s="7"/>
       <c r="AO46" s="38"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
-        <f>+VLOOKUP(C47,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -28160,7 +30161,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASAFEGUARDS</v>
       </c>
-      <c r="V47" s="2"/>
+      <c r="V47" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
@@ -28178,9 +30182,9 @@
       <c r="AN47" s="7"/>
       <c r="AO47" s="38"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
-        <f>+VLOOKUP(C48,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C48,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -28215,7 +30219,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASAFEGUARDS</v>
       </c>
-      <c r="V48" s="2"/>
+      <c r="V48" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
@@ -28233,9 +30240,9 @@
       <c r="AN48" s="7"/>
       <c r="AO48" s="38"/>
     </row>
-    <row r="49" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
-        <f>+VLOOKUP(C49,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C49,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -28270,7 +30277,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASAFEGUARDS</v>
       </c>
-      <c r="V49" s="2"/>
+      <c r="V49" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -28288,9 +30298,9 @@
       <c r="AN49" s="7"/>
       <c r="AO49" s="38"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
-        <f>+VLOOKUP(C50,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C50,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -28325,7 +30335,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASAFEGUARDS</v>
       </c>
-      <c r="V50" s="2"/>
+      <c r="V50" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
@@ -28343,9 +30356,9 @@
       <c r="AN50" s="7"/>
       <c r="AO50" s="38"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
-        <f>+VLOOKUP(C51,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C51,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -28380,7 +30393,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATASAFEGUARDS</v>
       </c>
-      <c r="V51" s="2"/>
+      <c r="V51" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -28398,9 +30414,9 @@
       <c r="AN51" s="7"/>
       <c r="AO51" s="38"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
-        <f>+VLOOKUP(C52,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -28435,7 +30451,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAINDÍGENAS</v>
       </c>
-      <c r="V52" s="2"/>
+      <c r="V52" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
@@ -28453,9 +30472,9 @@
       <c r="AN52" s="7"/>
       <c r="AO52" s="38"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
-        <f>+VLOOKUP(C53,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -28490,7 +30509,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAINDÍGENAS</v>
       </c>
-      <c r="V53" s="2"/>
+      <c r="V53" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -28508,9 +30530,9 @@
       <c r="AN53" s="7"/>
       <c r="AO53" s="38"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
-        <f>+VLOOKUP(C54,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -28545,7 +30567,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V54" s="2"/>
+      <c r="V54" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
@@ -28563,9 +30588,9 @@
       <c r="AN54" s="7"/>
       <c r="AO54" s="38"/>
     </row>
-    <row r="55" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
-        <f>+VLOOKUP(C55,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -28600,7 +30625,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V55" s="2"/>
+      <c r="V55" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
@@ -28618,9 +30646,9 @@
       <c r="AN55" s="7"/>
       <c r="AO55" s="38"/>
     </row>
-    <row r="56" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
-        <f>+VLOOKUP(C56,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -28655,7 +30683,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V56" s="2"/>
+      <c r="V56" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
@@ -28673,9 +30704,9 @@
       <c r="AN56" s="7"/>
       <c r="AO56" s="38"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
-        <f>+VLOOKUP(C57,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -28710,7 +30741,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V57" s="2"/>
+      <c r="V57" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
@@ -28728,9 +30762,9 @@
       <c r="AN57" s="7"/>
       <c r="AO57" s="38"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
-        <f>+VLOOKUP(C58,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -28765,7 +30799,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V58" s="2"/>
+      <c r="V58" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -28783,9 +30820,9 @@
       <c r="AN58" s="7"/>
       <c r="AO58" s="38"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
-        <f>+VLOOKUP(C59,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -28820,7 +30857,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V59" s="2"/>
+      <c r="V59" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
@@ -28838,9 +30878,9 @@
       <c r="AN59" s="7"/>
       <c r="AO59" s="38"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
-        <f>+VLOOKUP(C60,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -28875,7 +30915,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V60" s="2"/>
+      <c r="V60" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
@@ -28893,9 +30936,9 @@
       <c r="AN60" s="7"/>
       <c r="AO60" s="38"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
-        <f>+VLOOKUP(C61,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -28930,7 +30973,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V61" s="2"/>
+      <c r="V61" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
@@ -28948,9 +30994,9 @@
       <c r="AN61" s="7"/>
       <c r="AO61" s="38"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
-        <f>+VLOOKUP(C62,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -28985,7 +31031,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V62" s="2"/>
+      <c r="V62" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
@@ -29003,9 +31052,9 @@
       <c r="AN62" s="7"/>
       <c r="AO62" s="38"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
-        <f>+VLOOKUP(C63,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -29040,7 +31089,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAMUNICIPIO</v>
       </c>
-      <c r="V63" s="2"/>
+      <c r="V63" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -29058,9 +31110,9 @@
       <c r="AN63" s="7"/>
       <c r="AO63" s="38"/>
     </row>
-    <row r="64" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
-        <f>+VLOOKUP(C64,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -29095,7 +31147,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEMPRESA</v>
       </c>
-      <c r="V64" s="2"/>
+      <c r="V64" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
@@ -29113,10 +31168,10 @@
       <c r="AN64" s="7"/>
       <c r="AO64" s="38"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
-        <f>+VLOOKUP(C65,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>1083</v>
@@ -29126,7 +31181,7 @@
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00058</v>
+        <v>0020-00058</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>1085</v>
@@ -29150,7 +31205,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="V65" s="2"/>
+      <c r="V65" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
@@ -29168,10 +31226,10 @@
       <c r="AN65" s="7"/>
       <c r="AO65" s="38"/>
     </row>
-    <row r="66" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
-        <f>+VLOOKUP(C66,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>1086</v>
@@ -29181,7 +31239,7 @@
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00059</v>
+        <v>0020-00059</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>1087</v>
@@ -29205,7 +31263,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="V66" s="2"/>
+      <c r="V66" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
@@ -29223,10 +31284,10 @@
       <c r="AN66" s="7"/>
       <c r="AO66" s="38"/>
     </row>
-    <row r="67" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
-        <f>+VLOOKUP(C67,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>1088</v>
@@ -29236,7 +31297,7 @@
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00060</v>
+        <v>0020-00060</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>1089</v>
@@ -29260,7 +31321,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="V67" s="2"/>
+      <c r="V67" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
@@ -29278,10 +31342,10 @@
       <c r="AN67" s="7"/>
       <c r="AO67" s="13"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
-        <f>+VLOOKUP(C68,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0020</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>1090</v>
@@ -29291,7 +31355,7 @@
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00061</v>
+        <v>0020-00061</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>1091</v>
@@ -29315,7 +31379,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="V68" s="2"/>
+      <c r="V68" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
@@ -29333,9 +31400,9 @@
       <c r="AN68" s="7"/>
       <c r="AO68" s="38"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
-        <f>+VLOOKUP(C69,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -29370,7 +31437,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="V69" s="2"/>
+      <c r="V69" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
@@ -29388,9 +31458,9 @@
       <c r="AN69" s="7"/>
       <c r="AO69" s="13"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
-        <f>+VLOOKUP(C70,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -29425,7 +31495,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="V70" s="2"/>
+      <c r="V70" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
@@ -29443,9 +31516,9 @@
       <c r="AN70" s="7"/>
       <c r="AO70" s="38"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
-        <f>+VLOOKUP(C71,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C71,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -29480,7 +31553,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V71" s="2"/>
+      <c r="V71" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
@@ -29498,14 +31574,12 @@
       <c r="AN71" s="7"/>
       <c r="AO71" s="38"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="e">
-        <f>+VLOOKUP(C72,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>1098</v>
-      </c>
+      <c r="B72" s="9"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="e">
         <f t="shared" si="1"/>
@@ -29531,7 +31605,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>0</v>
       </c>
-      <c r="V72" s="2"/>
+      <c r="V72" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>GOOGLE EARTH ENGINE</v>
+      </c>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
@@ -29549,14 +31626,12 @@
       <c r="AN72" s="7"/>
       <c r="AO72" s="38"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="e">
-        <f>+VLOOKUP(C73,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C73,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>1099</v>
-      </c>
+      <c r="B73" s="9"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="e">
         <f t="shared" si="1"/>
@@ -29582,7 +31657,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>0</v>
       </c>
-      <c r="V73" s="2"/>
+      <c r="V73" s="2" t="e">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
@@ -29600,14 +31678,12 @@
       <c r="AN73" s="7"/>
       <c r="AO73" s="38"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="e">
-        <f>+VLOOKUP(C74,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
+        <f>+VLOOKUP(C74,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>1100</v>
-      </c>
+      <c r="B74" s="9"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="e">
         <f t="shared" si="1"/>
@@ -29633,7 +31709,10 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>0</v>
       </c>
-      <c r="V74" s="2"/>
+      <c r="V74" s="2" t="e">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CBEBE-7C06-4268-B22D-46EA819A7440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E448C-61F5-467D-A082-B62742C9333B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-40" yWindow="60" windowWidth="19200" windowHeight="10340" firstSheet="2" activeTab="7" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -5367,13 +5367,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50165</xdr:colOff>
+      <xdr:colOff>46990</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5443,15 +5443,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>164465</xdr:colOff>
+      <xdr:colOff>161290</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50166</xdr:rowOff>
+      <xdr:rowOff>46991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>164466</xdr:rowOff>
+      <xdr:rowOff>161291</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5523,11 +5523,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64136</xdr:rowOff>
+      <xdr:rowOff>67311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>521335</xdr:colOff>
+      <xdr:colOff>524510</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -5599,15 +5599,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>658495</xdr:colOff>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26036</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3630295</xdr:colOff>
+      <xdr:colOff>3627120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7127,7 +7127,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="6" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="8" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" startItem="2" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -7184,13 +7184,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z72" totalsRowShown="0" headerRowDxfId="92">
-  <autoFilter ref="A7:Z72" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="DATAEMERGENCY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:Z72" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="1">
       <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
@@ -7667,8 +7661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8341,10 +8335,10 @@
   <dimension ref="A7:Z72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8457,7 +8451,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8533,7 +8527,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="72" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="72" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8584,7 +8578,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8639,7 +8633,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8692,7 +8686,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8745,7 +8739,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="63" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8798,7 +8792,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -8862,7 +8856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -8924,7 +8918,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -8975,7 +8969,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -9029,7 +9023,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -9082,7 +9076,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(C19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -9119,7 +9113,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(C20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -9156,7 +9150,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(C21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -9193,7 +9187,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(C22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -9230,7 +9224,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
         <f>+VLOOKUP(C23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
@@ -9267,7 +9261,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="38"/>
     </row>
-    <row r="24" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(C24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -9304,7 +9298,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(C25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -9341,7 +9335,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(C26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -9378,7 +9372,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(C27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -9415,7 +9409,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(C28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
@@ -9452,7 +9446,7 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="38"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(C29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
@@ -9489,7 +9483,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="38"/>
     </row>
-    <row r="30" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(C30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -9526,7 +9520,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="38"/>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(C31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
@@ -9711,7 +9705,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="38"/>
     </row>
-    <row r="36" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(C36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -9748,7 +9742,7 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="38"/>
     </row>
-    <row r="37" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
         <f>+VLOOKUP(C37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -9785,7 +9779,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="38"/>
     </row>
-    <row r="38" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
         <f>+VLOOKUP(C38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -9822,7 +9816,7 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="38"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
         <f>+VLOOKUP(C39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
@@ -9859,7 +9853,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(C40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -9900,7 +9894,7 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="38"/>
     </row>
-    <row r="41" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(C41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -9941,7 +9935,7 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="38"/>
     </row>
-    <row r="42" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(C42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -9982,7 +9976,7 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="38"/>
     </row>
-    <row r="43" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+VLOOKUP(C43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -10019,7 +10013,7 @@
       <c r="Y43" s="7"/>
       <c r="Z43" s="38"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+VLOOKUP(C44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -10056,7 +10050,7 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="38"/>
     </row>
-    <row r="45" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
         <f>+VLOOKUP(C45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -10093,7 +10087,7 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="38"/>
     </row>
-    <row r="46" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
         <f>+VLOOKUP(C46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
@@ -10130,7 +10124,7 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="38"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(C47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -10167,7 +10161,7 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="38"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
         <f>+VLOOKUP(C48,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -10204,7 +10198,7 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="38"/>
     </row>
-    <row r="49" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
         <f>+VLOOKUP(C49,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -10241,7 +10235,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="38"/>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
         <f>+VLOOKUP(C50,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -10278,7 +10272,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="38"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
         <f>+VLOOKUP(C51,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
@@ -10315,7 +10309,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="38"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(C52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -10352,7 +10346,7 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="38"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(C53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
@@ -10389,7 +10383,7 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="38"/>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
         <f>+VLOOKUP(C54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10426,7 +10420,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="38"/>
     </row>
-    <row r="55" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
         <f>+VLOOKUP(C55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10463,7 +10457,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="38"/>
     </row>
-    <row r="56" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
         <f>+VLOOKUP(C56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10500,7 +10494,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="38"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
         <f>+VLOOKUP(C57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10537,7 +10531,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="38"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
         <f>+VLOOKUP(C58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10574,7 +10568,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="38"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
         <f>+VLOOKUP(C59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10611,7 +10605,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="38"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
         <f>+VLOOKUP(C60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10648,7 +10642,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="38"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
         <f>+VLOOKUP(C61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10685,7 +10679,7 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="38"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
         <f>+VLOOKUP(C62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10722,7 +10716,7 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="38"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
         <f>+VLOOKUP(C63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -10759,7 +10753,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="38"/>
     </row>
-    <row r="64" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(C64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
@@ -10796,7 +10790,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="38"/>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -10833,7 +10827,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="38"/>
     </row>
-    <row r="66" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -10870,7 +10864,7 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="38"/>
     </row>
-    <row r="67" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -10907,7 +10901,7 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="38"/>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
@@ -10944,7 +10938,7 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="38"/>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
         <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -10981,7 +10975,7 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="38"/>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
         <f>+VLOOKUP(C70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
@@ -11018,7 +11012,7 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="38"/>
     </row>
-    <row r="71" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
         <f>+VLOOKUP(C71,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -11057,7 +11051,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="38"/>
     </row>
-    <row r="72" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="39" t="str">
         <f>+VLOOKUP(C72,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -24199,9 +24193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD17B5-9F7E-4F39-86BE-12F114AA6DEC}">
   <dimension ref="B11:O108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27347,7 +27341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <dimension ref="A7:AO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3661FF07-A8D1-4A2B-9396-0294C89E7FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900A511-9B21-4503-BBC7-119B32879B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1016">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3164,6 +3164,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3230,7 +3233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,6 +3285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3370,7 +3379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3485,6 +3494,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6792,13 +6807,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7498,11 +7513,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:O83" totalsRowShown="0" headerRowDxfId="78" tableBorderDxfId="77">
-  <autoFilter ref="B11:O83" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:O88" totalsRowShown="0" headerRowDxfId="78" tableBorderDxfId="77">
+  <autoFilter ref="B11:O88" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DATADELITO"/>
+        <filter val="DATAEDUCACIÓN"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7829,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8506,7 +8521,7 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27341,10 +27356,10 @@
   </sheetPr>
   <dimension ref="B11:O108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27770,7 +27785,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -27810,7 +27825,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -27850,7 +27865,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -27890,7 +27905,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -27930,7 +27945,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -27970,7 +27985,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -28010,7 +28025,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" ht="24" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -28050,7 +28065,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -28090,7 +28105,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -28130,7 +28145,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -30066,12 +30081,20 @@
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B84" s="27"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+    <row r="84" spans="2:15" ht="24" x14ac:dyDescent="0.35">
+      <c r="B84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>769</v>
+      </c>
       <c r="G84" s="23"/>
       <c r="H84" s="29"/>
       <c r="I84" s="25"/>
@@ -30079,72 +30102,112 @@
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
       <c r="M84" s="26"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B85" s="27"/>
-      <c r="C85" s="24"/>
+      <c r="B85" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>991</v>
+      </c>
       <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>769</v>
+      </c>
       <c r="G85" s="23"/>
       <c r="H85" s="29"/>
       <c r="I85" s="25"/>
       <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
+      <c r="K85" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="L85" s="24"/>
       <c r="M85" s="26"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B86" s="27"/>
-      <c r="C86" s="24"/>
+      <c r="B86" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>993</v>
+      </c>
       <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>769</v>
+      </c>
       <c r="G86" s="23"/>
       <c r="H86" s="29"/>
       <c r="I86" s="25"/>
       <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
+      <c r="K86" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="L86" s="24"/>
       <c r="M86" s="26"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B87" s="27"/>
-      <c r="C87" s="24"/>
+      <c r="B87" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>995</v>
+      </c>
       <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>769</v>
+      </c>
       <c r="G87" s="23"/>
       <c r="H87" s="29"/>
       <c r="I87" s="25"/>
       <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
+      <c r="K87" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="L87" s="24"/>
       <c r="M87" s="26"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B88" s="27"/>
-      <c r="C88" s="24"/>
+      <c r="B88" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>997</v>
+      </c>
       <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>769</v>
+      </c>
       <c r="G88" s="23"/>
       <c r="H88" s="29"/>
       <c r="I88" s="25"/>
       <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
+      <c r="K88" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="L88" s="24"/>
       <c r="M88" s="26"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="27"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF99C128-B5B7-4F8A-823F-45ED02BD417F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3206B7C7-8C51-459F-9364-8C6B70B82F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" firstSheet="1" activeTab="1" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="999">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -2994,21 +2994,12 @@
     <t>Análisis área de proyecto</t>
   </si>
   <si>
-    <t>00062</t>
-  </si>
-  <si>
     <t>Perfil de las OIG</t>
   </si>
   <si>
-    <t>00063</t>
-  </si>
-  <si>
     <t>Cooperación internacional</t>
   </si>
   <si>
-    <t>00064</t>
-  </si>
-  <si>
     <t>Agrogestión</t>
   </si>
   <si>
@@ -3063,13 +3054,7 @@
     <t>Avance</t>
   </si>
   <si>
-    <t>00065</t>
-  </si>
-  <si>
     <t>Datos climáticos en tiempo real e históricos</t>
-  </si>
-  <si>
-    <t>00066</t>
   </si>
   <si>
     <t>Ods2</t>
@@ -3369,7 +3354,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3510,9 +3495,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3523,61 +3505,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="108">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3809,6 +3736,37 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -4309,6 +4267,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4649,6 +4620,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4668,6 +4643,13 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5164,13 +5146,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1297940</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5242,13 +5224,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50166</xdr:rowOff>
+      <xdr:rowOff>46991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:colOff>1511300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>164466</xdr:rowOff>
+      <xdr:rowOff>161291</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5318,9 +5300,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:colOff>1778000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64136</xdr:rowOff>
+      <xdr:rowOff>67311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -5396,15 +5378,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
+      <xdr:colOff>182245</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26036</xdr:rowOff>
+      <xdr:rowOff>29211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>315595</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5720,13 +5702,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1477010</xdr:colOff>
+      <xdr:colOff>1473835</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5802,7 +5784,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2027556</xdr:colOff>
+      <xdr:colOff>2030731</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5876,13 +5858,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>878558</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7760</xdr:rowOff>
+      <xdr:rowOff>10935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2103685</xdr:colOff>
+      <xdr:colOff>2106860</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105550</xdr:rowOff>
+      <xdr:rowOff>102375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5952,7 +5934,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2181013</xdr:colOff>
+      <xdr:colOff>2184188</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>35277</xdr:rowOff>
     </xdr:from>
@@ -5960,7 +5942,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>77893</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:rowOff>102659</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6980,8 +6962,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB69" totalsRowShown="0" headerRowDxfId="97">
-  <autoFilter ref="A7:AB69" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB64" totalsRowShown="0" headerRowDxfId="97">
+  <autoFilter ref="A7:AB64" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="96">
       <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
@@ -6992,33 +6974,33 @@
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="92"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="91"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="90"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="89" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="85">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="87"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="86"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="83"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="82"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="81"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="80"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="78"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="80"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="76"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="74"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="76"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="75"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="73"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7031,7 +7013,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="71"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -7055,93 +7037,93 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AQ69" totalsRowShown="0" headerRowDxfId="60">
-  <autoFilter ref="A7:AQ69" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AQ64" totalsRowShown="0" headerRowDxfId="57">
+  <autoFilter ref="A7:AQ64" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="56">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="53">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="2"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="52"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="51">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="56"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="55">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="50"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="49" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="48">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="47">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="53"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="52"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="51"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="50"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="49"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="48"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="46"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="45"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="44"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="43"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="42"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="41">
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="46"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="45"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="44"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="41"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="39"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="38"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="37"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="36"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="35"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="34">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="33">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="34"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="33"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="32"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="31"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="30"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="28"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="27"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="26"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="25"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="24"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="23"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="21"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="19"/>
     <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P95" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P95" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B11:P95" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
     <filterColumn colId="0">
       <filters>
@@ -7154,21 +7136,21 @@
     <sortCondition ref="D12:D65"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="14" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8031,7 +8013,7 @@
         <v>954</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="10"/>
@@ -8048,7 +8030,7 @@
         <v>855</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="10"/>
@@ -8065,7 +8047,7 @@
         <v>869</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="10"/>
@@ -8080,7 +8062,7 @@
         <v>850</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="10"/>
@@ -8095,7 +8077,7 @@
         <v>868</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
@@ -8110,7 +8092,7 @@
         <v>917</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="10"/>
@@ -8143,14 +8125,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:AB69"/>
+  <dimension ref="A7:AB64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8200,13 +8182,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>210</v>
@@ -8875,7 +8857,7 @@
         <v>0004-00010</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -8910,7 +8892,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="7"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="49" t="s">
+      <c r="Y17" s="48" t="s">
         <v>160</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -9096,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" ref="D21:D67" si="1">+A21&amp;"-"&amp;B21</f>
+        <f t="shared" ref="D21:D64" si="1">+A21&amp;"-"&amp;B21</f>
         <v>0010-00014</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -9712,7 +9694,7 @@
         <v>0019-00026</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -9763,7 +9745,7 @@
         <v>0019-00027</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -9814,7 +9796,7 @@
         <v>0004-00028</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -9916,7 +9898,7 @@
         <v>0004-00030</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -9967,7 +9949,7 @@
         <v>0021-00031</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -10072,7 +10054,7 @@
         <v>927</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="46">
@@ -10176,7 +10158,7 @@
         <v>931</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="46">
@@ -10379,7 +10361,7 @@
         <v>0013-00039</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -10787,7 +10769,7 @@
         <v>0009-00051</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -11144,7 +11126,7 @@
         <v>0006-00058</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -11195,7 +11177,7 @@
         <v>0006-00059</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -11246,7 +11228,7 @@
         <v>0003-00060</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F63" s="47"/>
       <c r="G63" s="2"/>
@@ -11331,241 +11313,6 @@
       <c r="W64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="38"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="e">
-        <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>962</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="46" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="38"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="e">
-        <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>964</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="46" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="38"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="e">
-        <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>966</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="48" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="46" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="38"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A68" s="43" t="e">
-        <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>985</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="e">
-        <f>+A68&amp;"-"&amp;B68</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="46" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="13"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A69" s="43" t="e">
-        <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="e">
-        <f>+A69&amp;"-"&amp;B69</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="46" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I69" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="2" t="e">
-        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="7"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11626,7 +11373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H436" sqref="H436"/>
     </sheetView>
   </sheetViews>
@@ -23437,10 +23184,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:AQ69"/>
+  <dimension ref="A7:AQ64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23494,13 +23241,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>210</v>
@@ -23664,7 +23411,7 @@
         <v>43</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>200</v>
@@ -23703,7 +23450,7 @@
         <v>896</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AG8" s="7" t="s">
         <v>45</v>
@@ -23814,7 +23561,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7" t="s">
@@ -23877,7 +23624,7 @@
         <v>Efraín</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -23914,7 +23661,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
@@ -24012,7 +23759,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7" t="s">
@@ -24247,7 +23994,7 @@
         <v>Natalia</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -24346,7 +24093,7 @@
         <v>Silvia</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -24531,10 +24278,10 @@
         <v>Astrid</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -24712,7 +24459,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -24874,7 +24621,7 @@
         <v>Silvia</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -24956,7 +24703,7 @@
         <v>Silvia</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -25038,7 +24785,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -25760,10 +25507,10 @@
         <v>Carolina</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -25771,7 +25518,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="7" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -25795,7 +25542,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -26008,10 +25755,10 @@
         <v>Astrid</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -26092,7 +25839,7 @@
         <v>Fernanda</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -26174,10 +25921,10 @@
         <v>Astrid</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -26338,7 +26085,7 @@
         <v>Macarena</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -26420,18 +26167,18 @@
         <v>Claudia</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="7"/>
@@ -26588,18 +26335,18 @@
         <v>Claudia</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="7"/>
@@ -26836,7 +26583,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -26845,7 +26592,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="7" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -27560,7 +27307,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -27722,18 +27469,18 @@
         <v xml:space="preserve">Paula </v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="7"/>
@@ -28370,7 +28117,7 @@
         <v>Claudia</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -28409,396 +28156,6 @@
       <c r="AL64" s="2"/>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="38"/>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_data]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B65" s="2" t="str">
-        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
-        <v>00062</v>
-      </c>
-      <c r="C65" s="2">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="2">
-        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="2">
-        <f>PRODUCTOS[[#This Row],[Estado]]</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="46" t="e">
-        <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7">
-        <f>SHOPIFY[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="X65" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AP65" s="7"/>
-      <c r="AQ65" s="38"/>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_data]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B66" s="2" t="str">
-        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
-        <v>00063</v>
-      </c>
-      <c r="C66" s="2">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="2">
-        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="2">
-        <f>PRODUCTOS[[#This Row],[Estado]]</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="46" t="e">
-        <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7">
-        <f>SHOPIFY[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="X66" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AP66" s="7"/>
-      <c r="AQ66" s="38"/>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_data]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B67" s="2" t="str">
-        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
-        <v>00064</v>
-      </c>
-      <c r="C67" s="2">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="2">
-        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <f>PRODUCTOS[[#This Row],[Estado]]</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="46" t="e">
-        <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7">
-        <f>SHOPIFY[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="X67" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AP67" s="7"/>
-      <c r="AQ67" s="13"/>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_data]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B68" s="2" t="str">
-        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
-        <v>00065</v>
-      </c>
-      <c r="C68" s="2">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="2">
-        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="2">
-        <f>PRODUCTOS[[#This Row],[Estado]]</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="46" t="e">
-        <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7">
-        <f>SHOPIFY[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="X68" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AP68" s="7"/>
-      <c r="AQ68" s="38"/>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_data]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B69" s="2" t="str">
-        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
-        <v>00066</v>
-      </c>
-      <c r="C69" s="2">
-        <f>PRODUCTOS[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="2">
-        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
-        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="2">
-        <f>PRODUCTOS[[#This Row],[Estado]]</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="46" t="e">
-        <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I69" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7">
-        <f>SHOPIFY[[#This Row],[Data]]</f>
-        <v>0</v>
-      </c>
-      <c r="X69" s="2" t="e">
-        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
-      <c r="AP69" s="7"/>
-      <c r="AQ69" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28827,7 +28184,7 @@
   </sheetPr>
   <dimension ref="B11:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
@@ -29203,7 +28560,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D19" s="23">
         <v>3</v>
@@ -30047,7 +29404,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D39" s="23">
         <v>1</v>
@@ -30091,7 +29448,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D40" s="23">
         <v>1</v>
@@ -31483,7 +30840,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D75" s="23">
         <v>1</v>
@@ -31505,7 +30862,7 @@
       <c r="J75" s="25"/>
       <c r="K75" s="24"/>
       <c r="L75" s="24" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="M75" s="24" t="s">
         <v>865</v>
@@ -31519,7 +30876,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D76" s="23">
         <v>2</v>
@@ -31541,7 +30898,7 @@
       <c r="J76" s="25"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="M76" s="24" t="s">
         <v>866</v>
@@ -31555,7 +30912,7 @@
         <v>855</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D77" s="23">
         <v>1</v>
@@ -31589,7 +30946,7 @@
         <v>855</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D78" s="23">
         <v>2</v>
@@ -31936,7 +31293,7 @@
         <v>144</v>
       </c>
       <c r="L89" s="24" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="26"/>
@@ -31964,7 +31321,7 @@
       <c r="J90" s="25"/>
       <c r="K90" s="24"/>
       <c r="L90" s="24" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="26"/>
@@ -31976,7 +31333,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3206B7C7-8C51-459F-9364-8C6B70B82F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C7BAB-AEF9-4BCD-B964-5A6F2F60A6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -6017,15 +6017,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6095,15 +6095,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1667510</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>636905</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>125096</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6175,13 +6175,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>105411</xdr:rowOff>
+      <xdr:rowOff>102236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6253,11 +6253,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -6329,7 +6329,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -6337,7 +6337,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>421005</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6413,9 +6413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1343660</xdr:colOff>
+      <xdr:colOff>1340485</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6485,7 +6485,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1459230</xdr:colOff>
+      <xdr:colOff>1456055</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6563,15 +6563,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85091</xdr:rowOff>
+      <xdr:rowOff>88266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7124,13 +7124,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P95" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B11:P95" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DATAAGRO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B11:P95" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P65">
     <sortCondition ref="B12:B65"/>
     <sortCondition ref="D12:D65"/>
@@ -8128,11 +8122,11 @@
   <dimension ref="A7:AB64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23186,8 +23180,8 @@
   </sheetPr>
   <dimension ref="A7:AQ64"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28187,7 +28181,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28470,7 +28464,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -28514,7 +28508,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -28555,7 +28549,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -28596,7 +28590,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -28640,7 +28634,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -28684,7 +28678,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -28725,7 +28719,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -28766,7 +28760,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -28807,7 +28801,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -28851,7 +28845,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -28895,7 +28889,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -28936,7 +28930,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -28977,7 +28971,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -29018,7 +29012,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -29059,7 +29053,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
         <v>678</v>
       </c>
@@ -29103,7 +29097,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>678</v>
       </c>
@@ -29147,7 +29141,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -29191,7 +29185,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="36" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -29232,7 +29226,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -29273,7 +29267,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -29314,7 +29308,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
@@ -29358,7 +29352,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="36" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
@@ -29399,7 +29393,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -29443,7 +29437,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -29487,7 +29481,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -29531,7 +29525,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -29575,7 +29569,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -29619,7 +29613,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -29663,7 +29657,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -29707,7 +29701,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -29751,7 +29745,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -29795,7 +29789,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -29839,7 +29833,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -29883,7 +29877,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -29925,7 +29919,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" ht="36" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -29967,7 +29961,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -30011,7 +30005,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
         <v>917</v>
       </c>
@@ -30055,7 +30049,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -30096,7 +30090,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -30137,7 +30131,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -30178,7 +30172,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -30219,7 +30213,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -30260,7 +30254,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>3</v>
       </c>
@@ -30301,7 +30295,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>850</v>
       </c>
@@ -30345,7 +30339,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="27" t="s">
         <v>10</v>
       </c>
@@ -30389,7 +30383,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>10</v>
       </c>
@@ -30433,7 +30427,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>10</v>
       </c>
@@ -30474,7 +30468,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>10</v>
       </c>
@@ -30515,7 +30509,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
         <v>10</v>
       </c>
@@ -30559,7 +30553,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -30591,7 +30585,7 @@
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
     </row>
-    <row r="67" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>12</v>
       </c>
@@ -30620,7 +30614,7 @@
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -30652,7 +30646,7 @@
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>15</v>
       </c>
@@ -30684,7 +30678,7 @@
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -30713,7 +30707,7 @@
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -30742,7 +30736,7 @@
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>9</v>
       </c>
@@ -30771,7 +30765,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>854</v>
       </c>
@@ -30803,7 +30797,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>854</v>
       </c>
@@ -30835,7 +30829,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -30871,7 +30865,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>7</v>
       </c>
@@ -30907,7 +30901,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>855</v>
       </c>
@@ -30941,7 +30935,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>855</v>
       </c>
@@ -30972,7 +30966,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>678</v>
       </c>
@@ -30999,7 +30993,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>678</v>
       </c>
@@ -31026,7 +31020,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>30</v>
       </c>
@@ -31058,7 +31052,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>868</v>
       </c>
@@ -31090,7 +31084,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>869</v>
       </c>
@@ -31122,7 +31116,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B84" s="27" t="s">
         <v>11</v>
       </c>
@@ -31150,7 +31144,7 @@
       <c r="O84" s="40"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
         <v>954</v>
       </c>
@@ -31180,7 +31174,7 @@
       <c r="O85" s="40"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="27" t="s">
         <v>954</v>
       </c>
@@ -31210,7 +31204,7 @@
       <c r="O86" s="40"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
         <v>954</v>
       </c>
@@ -31240,7 +31234,7 @@
       <c r="O87" s="40"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
         <v>954</v>
       </c>
@@ -31270,7 +31264,7 @@
       <c r="O88" s="40"/>
       <c r="P88" s="40"/>
     </row>
-    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
         <v>854</v>
       </c>
@@ -31300,7 +31294,7 @@
       <c r="O89" s="40"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
         <v>854</v>
       </c>
@@ -31328,7 +31322,7 @@
       <c r="O90" s="40"/>
       <c r="P90" s="40"/>
     </row>
-    <row r="91" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" s="27" t="s">
         <v>14</v>
       </c>
@@ -31354,7 +31348,7 @@
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
     </row>
-    <row r="92" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
@@ -31380,7 +31374,7 @@
       <c r="O92" s="40"/>
       <c r="P92" s="40"/>
     </row>
-    <row r="93" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>4</v>
       </c>
@@ -31406,7 +31400,7 @@
       <c r="O93" s="40"/>
       <c r="P93" s="40"/>
     </row>
-    <row r="94" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>4</v>
       </c>
@@ -31432,7 +31426,7 @@
       <c r="O94" s="40"/>
       <c r="P94" s="40"/>
     </row>
-    <row r="95" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>4</v>
       </c>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C7BAB-AEF9-4BCD-B964-5A6F2F60A6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121833A-1249-42BB-8F9E-BEE388271C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="8" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="6" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="DATOS" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="6" r:id="rId5"/>
     <sheet name="PERSONAS" sheetId="4" r:id="rId6"/>
-    <sheet name="Detalle Productos" sheetId="7" r:id="rId7"/>
-    <sheet name="SHOPIFY" sheetId="9" r:id="rId8"/>
-    <sheet name="PRIORIZACION" sheetId="8" r:id="rId9"/>
+    <sheet name="Investigación" sheetId="10" r:id="rId7"/>
+    <sheet name="Detalle Productos" sheetId="7" r:id="rId8"/>
+    <sheet name="SHOPIFY" sheetId="9" r:id="rId9"/>
+    <sheet name="PRIORIZACION" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="DATAS_Lista">DATAS[Data]</definedName>
@@ -45,6 +46,7 @@
     <definedName name="SegmentaciónDeDatos_Responsable_Información">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Responsable_Información1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Responsable_Información2">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Responsables2">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Secciones">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Tecnología">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Variables">#N/A</definedName>
@@ -56,7 +58,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
@@ -79,6 +80,8 @@
         <x14:slicerCache r:id="rId30"/>
         <x14:slicerCache r:id="rId31"/>
         <x14:slicerCache r:id="rId32"/>
+        <x14:slicerCache r:id="rId33"/>
+        <x14:slicerCache r:id="rId34"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="1074">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3103,16 +3106,241 @@
   </si>
   <si>
     <t>AGROSTAT - GT</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha avance</t>
+  </si>
+  <si>
+    <t>Fecha Termino</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Centro Directos; Corporaciones que trabajan para el SENAME; Organismos y personas naturales colaboradoras</t>
+  </si>
+  <si>
+    <t>Misma información de antes. Anuarios Estadísticos (pdf) 2010-2019. Con mucha información interesante: ejem: muertes de los niños en los centro; Demora en asiganción de los niños a centros. Se solicicto por LdT de las BD al SENAINFO. Adicional se Buscará información en la Defensoría del Niño.</t>
+  </si>
+  <si>
+    <t>Todos los anuarios convertidos a xls. Orden de talas por tema e identificación de variables que se repiten en las tablas (ejem: tramos de edad) para luego ver la mejor manera de sistematizarla</t>
+  </si>
+  <si>
+    <t>Aún ordenando tablas. Temáticas de Adopción.</t>
+  </si>
+  <si>
+    <t>3 partes: Adopción. Protección de derechos del niño. Justicia juvenil. Información compleja de entender: Los niños pueden estar en varios programas y son varias etapas. Avanzando en glosario y en entender de qué se trata.</t>
+  </si>
+  <si>
+    <t>Revisar anuario y tratar de entender para apoyo en las BD.</t>
+  </si>
+  <si>
+    <t>SENAMA</t>
+  </si>
+  <si>
+    <t>ELEAM: se solicictó información por LdT región por región. Falta de la VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda </t>
+  </si>
+  <si>
+    <t>Datos empresas/ Género</t>
+  </si>
+  <si>
+    <t>Cierre</t>
+  </si>
+  <si>
+    <t>PDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay muchas bases de datos. Hay informes anuales pdf (2013-2018). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bases de datos encontradas tienen como fuente el INE y tienen que ver con delitos. Se decide pasar esa información a data Delito.</t>
+  </si>
+  <si>
+    <t>DGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucha información: cuencas, derechos de agua, inventario público de cuencas y lagos, Obras mayores. Debe ordenar y ver definiciones. Informe Hidrometeorológico: información Pluvio´métrica, Fluviométrica, Caudales, y más... </t>
+  </si>
+  <si>
+    <t>Preguntar a Efraín por variabes del DATA HIDRO</t>
+  </si>
+  <si>
+    <t>El Data Hidro tiene otro enfoque, usando como fuente de información unicamente satélites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscripción de derecho de agua en el CBR. </t>
+  </si>
+  <si>
+    <t>REVISAR</t>
+  </si>
+  <si>
+    <t>Arcgis Fiscalización DGA, Cuencas hidrográficas y más.</t>
+  </si>
+  <si>
+    <t>Consulta SIG</t>
+  </si>
+  <si>
+    <t>SERNAGEOMIN</t>
+  </si>
+  <si>
+    <t>1- Accidentes en minería (PDF). 2- Catastro de relaves c/coordenadas. 3- Geoquímica de Relaves: empresa y faena. Existe un catastro de Relave en google Earth y un mapa de localización en jpg. Mapa de yacimientos mineros en JPG. Sitio interactivo de Catastro de Conseciones Mineras. (Catálogo virtual de ventas)</t>
+  </si>
+  <si>
+    <t>Información volcanes web. Ranking de volcanes en pdf. Plataforma Geomaps: muestra los proyectos y su estado (relacionado con cartas geológicas) (ArcGis). Sigex (shp). Pendiente glosario.</t>
+  </si>
+  <si>
+    <t>Información en dropbox: Casi listo el glosario sólo que hay palabras que no se encuentran. Solicitud de Anuarios por ley de transparencia.</t>
+  </si>
+  <si>
+    <t>Exportaciones/Importaciones</t>
+  </si>
+  <si>
+    <t>En la página de la Aduana datos por país y producto, por año y mensual. Aranceles tratado de LC y del Pacífico.</t>
+  </si>
+  <si>
+    <t>Existencia de BD de Exportaciones e importaciones (según FOB y CIF), desde los años 2015- 2020. BD de tráfico terrestre por punto de  tráfico a nivel regional detallando lugar de control?. Urgente GLOSARIO</t>
+  </si>
+  <si>
+    <t>Formato excel</t>
+  </si>
+  <si>
+    <t>Formato de Excel de trafico. Busqueda de información especifica de productos agropecuarios para Data Agro.</t>
+  </si>
+  <si>
+    <t>Formato de Excel de trafico. Busqueda de información especifica de productos agropecuarios para Data Agro. NO ENCONTRó: Lunes BD arregladas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listas las BD de exportaciones FOB, a partir del 2018 vienen especificadas por producto (agro y mineral) </t>
+  </si>
+  <si>
+    <t>Por Finalizar las Importaciones por CIF</t>
+  </si>
+  <si>
+    <t>Minsiterio de Obras Públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólo información en PDF.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISAR </t>
+  </si>
+  <si>
+    <t>Ministerio Del Trabajo y Previsión Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información 2016: se descarga una a una (especie de power bi). SIL: Sistema de información laboral (al parecer vinculado al INE). Tasa de desocupación desde el 2010, mensual. información nacional. </t>
+  </si>
+  <si>
+    <t>EXTRACCIÓN INFORMÁTICOS</t>
+  </si>
+  <si>
+    <t>Consejo para la Transparencia</t>
+  </si>
+  <si>
+    <t>Falta investigación y entender de qué se trata y que lo que hay.</t>
+  </si>
+  <si>
+    <t>Fiscalización hasta el 2018: separada por Municipio, SEREMI, Universidades estatales, otros dependencias de gobierno.</t>
+  </si>
+  <si>
+    <t>Puntaje DAI: Derecho de Acceso a la Información Pública</t>
+  </si>
+  <si>
+    <t>En el portal de Transparencia hay información 2020.</t>
+  </si>
+  <si>
+    <t>Info Probidad. Archivos de descarga en formato CSV, XML, JSON, SPARQL</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>SERNAC</t>
+  </si>
+  <si>
+    <t>Ministerio de Transporte y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Investigación del inicio del DI. Cantidad de suscrpción de tv de pago y de conexiones a internet, Dic cada año 2007-2019; Licencias de conducir por tipo (2011-2017); N° de vehiculos en circulación por tipo 2008-2019, Motorizado y no motorizado 2016-2019.</t>
+  </si>
+  <si>
+    <t>Ministerio de Desarrollo Social</t>
+  </si>
+  <si>
+    <t>Ministerio de Relaciones Exteriores</t>
+  </si>
+  <si>
+    <t>SNIFA (Sist. Nac. de Inf.de Fiscalización Amb.)</t>
+  </si>
+  <si>
+    <t>Fiscalización Ambiental opción de descarag en CSV. Actualización martes y jueves</t>
+  </si>
+  <si>
+    <t>Datos abiertos de emisones por sector eléctrico, riles y otros en descraga de sus BD.</t>
+  </si>
+  <si>
+    <t>https://ide.sma.gob.cl/</t>
+  </si>
+  <si>
+    <t>SHOA (Serv. Hidrográfico y Oceanográfico de la Armada)</t>
+  </si>
+  <si>
+    <t>No hay bases de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina </t>
+  </si>
+  <si>
+    <t>Cartas Náuticas en pdf y algunas degitales que no se pueden descargar</t>
+  </si>
+  <si>
+    <t>Información en línea de pronósticos de mareas, T° de Superficie del mar, entre otros que se debe evaluar su extracción</t>
+  </si>
+  <si>
+    <t>http://observatorio.mp.gob.gt/portal-estadistico/</t>
+  </si>
+  <si>
+    <t>Informáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tema/institución Investigación </t>
+  </si>
+  <si>
+    <t>Envío de BD arregladas de Importaciones CIF, exportaciones Peso, importaciones Peso</t>
+  </si>
+  <si>
+    <t>EVALUAR CREAR DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3185,8 +3413,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3256,6 +3506,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3354,7 +3622,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3498,13 +3766,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="121">
     <dxf>
       <font>
         <b val="0"/>
@@ -4515,6 +4892,212 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4809,11 +5392,74 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="0.80001220740379042"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="2" xr9:uid="{7621B3B5-3284-42E2-9B51-77722CE67511}">
+      <tableStyleElement type="wholeTable" dxfId="120"/>
+      <tableStyleElement type="headerRow" dxfId="119"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="Estilo de segmentación de datos 1"/>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -5461,6 +6107,89 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>108479</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Responsables  2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59065748-D2DF-4F2D-A79C-51959FE3F586}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Responsables  2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="537104" y="0"/>
+              <a:ext cx="2487084" cy="1333500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CL" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
@@ -5695,7 +6424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -6012,7 +6741,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -6825,6 +7554,16 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache24.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsables2" xr10:uid="{E3F3EEE2-9043-4EA5-A4A3-74B33A3784B9}" sourceName="Responsable">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="8" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsable_Desarrollo" xr10:uid="{5061DABD-748B-445C-99DF-144885DA9CA1}" sourceName="Responsable Desarrollo">
   <extLst>
@@ -6915,13 +7654,19 @@
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Responsables  2" xr10:uid="{1BCE56F9-DA4E-466B-A4F0-281EA7A5100A}" cache="SegmentaciónDeDatos_Responsables2" caption="Responsable" columnCount="3" style="Estilo de segmentación de datos 1" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Producto" xr10:uid="{216F7174-D0CB-4627-BA7A-235BD717E040}" cache="SegmentaciónDeDatos_Producto" caption="Producto" rowHeight="234950"/>
   <slicer name="Secciones" xr10:uid="{7B27F1D2-76AF-459E-BC11-480EFA18D8E3}" cache="SegmentaciónDeDatos_Secciones" caption="Secciones" columnCount="2" rowHeight="234950"/>
   <slicer name="Variables" xr10:uid="{2A1193AE-C4A3-4913-A0E6-D675DA800125}" cache="SegmentaciónDeDatos_Variables" caption="Variables" columnCount="2" rowHeight="234950"/>
 </slicers>
 </file>
 
-<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Data 3" xr10:uid="{1B88CD8D-67D8-4873-B664-8457245E259B}" cache="SegmentaciónDeDatos_Data3" caption="Data" startItem="18" columnCount="3" rowHeight="234950"/>
   <slicer name="Estado 3" xr10:uid="{F671C815-D0EF-4572-8B85-0D96E7B79021}" cache="SegmentaciónDeDatos_Estado3" caption="Estado" columnCount="2" rowHeight="234950"/>
@@ -6930,7 +7675,7 @@
 </slicers>
 </file>
 
-<file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicers/slicer6.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -6944,63 +7689,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J32" totalsRowShown="0" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E39FE05-78F7-46B2-A48A-6AE9D75C0EBB}" name="DATAS" displayName="DATAS" ref="B7:J32" totalsRowShown="0" dataDxfId="118">
   <autoFilter ref="B7:J32" xr:uid="{A0E2A789-D79F-4DB7-90A3-654E5E441AF8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{7076C6AD-6717-404D-96C6-53FBA68C1EBC}" name="Data" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{B68EB833-5A56-4B1F-8BF1-E83CF0F5B1BA}" name="id_data" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{B68551BE-AD5B-4ABC-92F3-75214F86D3BC}" name="Estado" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{35F21F0F-CEDD-4627-8F3A-B243E93A29A8}" name="Desarrollo" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{55D616E3-D0F3-464E-B32C-8DF920812CBC}" name="Investigación" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{C1D2156E-87B8-470E-9168-7A6E5AE31CC2}" name="Breve Descripción" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{5B85BAF7-51FC-47E2-B831-0E709569CEC4}" name="Vistas" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{57861CEA-0BDC-4179-9FF2-0E59F48A2157}" name="Repositorio Dropbox" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{0E50183B-22E4-424B-96DD-18AC3480E706}" name="Link Logo" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB64" totalsRowShown="0" headerRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB64" totalsRowShown="0" headerRowDxfId="108">
   <autoFilter ref="A7:AB64" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="107">
       <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="93">
+    <tableColumn id="2" xr3:uid="{07061539-DFF5-4A11-BADD-2A240074A56A}" name="Corr_Producto" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{56D80777-3871-4DBF-8856-DFDA54440D55}" name="Data" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{73D49374-8912-4C27-A2AF-E0476A8E9AEE}" name="id_producto" dataDxfId="104">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="92"/>
-    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="90"/>
-    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="89" dataCellStyle="Porcentaje">
+    <tableColumn id="5" xr3:uid="{71534AA1-DF8C-466C-AAA8-87DA9F119341}" name="Producto asociado " dataDxfId="103"/>
+    <tableColumn id="26" xr3:uid="{8B686EE2-348B-48C2-990B-424A8FB284BC}" name="Nombre comercial" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{75779DBD-8A91-4D7A-8A36-000CEDC599B6}" name="Estado" dataDxfId="101"/>
+    <tableColumn id="25" xr3:uid="{E03A0489-5A50-4DA9-A8DF-999E6DC669EA}" name="Avance" dataDxfId="100" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="85">
+    <tableColumn id="7" xr3:uid="{2699BB10-9D24-4629-8F45-4A2526A4D39A}" name="Responsable Desarrollo" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{69F4BEA1-A9B4-4421-A0EE-47BCAF12AAB2}" name="Responsable Información" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{8C6218FF-E6F6-471C-87F4-DD412097A1EE}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{03C8A422-EE9B-494A-A440-9110009A358E}" name="Tecnología" dataDxfId="96">
       <calculatedColumnFormula>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="83"/>
-    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="82"/>
-    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="81"/>
-    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="80"/>
-    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="79"/>
-    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="78"/>
-    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="77"/>
-    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="76"/>
-    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="75"/>
-    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{1A081205-19B8-4238-8F9E-1836061C2D4F}" name="Host " dataDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{6BCD6CB8-BA53-40A7-9F90-7EBA78E345DA}" name="Link Odoo" dataDxfId="94"/>
+    <tableColumn id="13" xr3:uid="{502BD7B7-DD01-471A-8E5E-C527F983E20E}" name="Fecha Publicación" dataDxfId="93"/>
+    <tableColumn id="14" xr3:uid="{D0799FF2-7DFE-4D09-994D-5586AE9FCF0E}" name="País" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{00014923-35F8-4A24-9B8B-A626BE90EC3E}" name="Escala " dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{D32995C9-2CA4-4BD7-A181-0CE6434624DC}" name="Periodo" dataDxfId="90"/>
+    <tableColumn id="17" xr3:uid="{5F683DA7-34DC-43D1-A154-FB5C17AB82E4}" name="Actualizaciones" dataDxfId="89"/>
+    <tableColumn id="18" xr3:uid="{D0F7DA38-1DAE-48DF-8725-440804E511ED}" name="Tipo Producto" dataDxfId="88"/>
+    <tableColumn id="19" xr3:uid="{6345440E-6C11-4DE3-9F30-57AA749130A3}" name="Fuentes " dataDxfId="87"/>
+    <tableColumn id="20" xr3:uid="{06F6F5BE-A8B5-450A-B890-E5272AC160CB}" name="Ref principal " dataDxfId="86"/>
+    <tableColumn id="21" xr3:uid="{F22EE5BC-B966-49EB-A843-F1384A77D7A0}" name="Competencia o material vinculado " dataDxfId="85"/>
     <tableColumn id="22" xr3:uid="{E445C8DD-86CC-41A9-9E49-D3492783FCB1}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{DBAFBD3B-B406-46F5-B2E9-B69F6F70645B}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{629986D1-249B-44FE-82F1-FCA6183BF20E}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="73"/>
-    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="72"/>
+    <tableColumn id="28" xr3:uid="{4F7861D7-1E20-4E49-BAAB-9731305CDBE5}" name="Observaciones" dataDxfId="84"/>
+    <tableColumn id="29" xr3:uid="{B82AF5FC-FE01-4F10-8B3A-A6B205199D0A}" name="Miniatura" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7013,7 +7758,7 @@
     <tableColumn id="1" xr3:uid="{69819873-BFDD-4D0F-83ED-7D2504DFDA31}" name="Data"/>
     <tableColumn id="2" xr3:uid="{70760145-B5A6-4F27-A738-A1EBE3D8A954}" name="Producto"/>
     <tableColumn id="3" xr3:uid="{585C0D49-B625-41C4-8893-45B93A4BE8CC}" name="Sección"/>
-    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{10EF7F87-DEF0-4028-9C31-E3E45FB50589}" name="Tema" dataDxfId="82"/>
     <tableColumn id="5" xr3:uid="{28D3851F-C206-422F-98B1-973F48082A17}" name="Verificador"/>
     <tableColumn id="6" xr3:uid="{71EF3903-87DB-422F-904D-B86468D3F2A8}" name="Variables"/>
     <tableColumn id="7" xr3:uid="{09ED368A-F77F-44FE-80CB-14C859399091}" name="ID_VAR"/>
@@ -7037,6 +7782,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A9:I50" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A9:I50" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="71"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
@@ -7056,7 +7819,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AQ64" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A7:AQ64" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="43">
@@ -7122,7 +7885,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P95" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B11:P95" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P65">
@@ -7449,7 +8212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167569FB-0D63-486E-90FA-C6B113AE5A31}">
   <dimension ref="B5:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -8114,6 +8877,3528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD17B5-9F7E-4F39-86BE-12F114AA6DEC}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B11:P108"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="35.90625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:16" ht="39" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f>PRODUCTOS!D40</f>
+        <v>0003-00033</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="D14" s="23">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="D15" s="23">
+        <v>4</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>PRODUCTOS!D64</f>
+        <v>0003-00061</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="D16" s="23">
+        <v>5</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G16" s="23" t="str">
+        <f>PRODUCTOS!D42</f>
+        <v>0003-00035</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f>PRODUCTOS!D24</f>
+        <v>0002-00017</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="D19" s="23">
+        <v>3</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="D20" s="23">
+        <v>4</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f>PRODUCTOS!D29</f>
+        <v>0002-00022</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G21" s="23" t="str">
+        <f>PRODUCTOS!D56</f>
+        <v>0016-00053</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="D23" s="23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="D24" s="23">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G25" s="23" t="str">
+        <f>PRODUCTOS!D21</f>
+        <v>0010-00014</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G26" s="23" t="str">
+        <f>PRODUCTOS!D22</f>
+        <v>0010-00015</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="D27" s="23">
+        <v>3</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="D29" s="23">
+        <v>5</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="D30" s="23">
+        <v>6</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G31" s="23" t="str">
+        <f>PRODUCTOS!D14</f>
+        <v>0017-00007</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="23">
+        <v>2</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G32" s="23" t="str">
+        <f>PRODUCTOS!D15</f>
+        <v>0017-00008</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G33" s="23" t="str">
+        <f>PRODUCTOS!D36</f>
+        <v>0007-00029</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+      <c r="B34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B35" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="D35" s="23">
+        <v>3</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="D36" s="23">
+        <v>4</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G37" s="23" t="str">
+        <f>PRODUCTOS!D23</f>
+        <v>0018-00016</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+      <c r="B38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G39" s="23" t="str">
+        <f>PRODUCTOS!D17</f>
+        <v>0004-00010</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G40" s="23" t="str">
+        <f>PRODUCTOS!D35</f>
+        <v>0004-00028</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="D41" s="23">
+        <v>2</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G41" s="23" t="str">
+        <f>PRODUCTOS!D18</f>
+        <v>0004-00011</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B42" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="D42" s="23">
+        <v>3</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G42" s="23" t="str">
+        <f>PRODUCTOS!D37</f>
+        <v>0004-00030</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="25">
+        <v>1</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G43" s="23" t="str">
+        <f>PRODUCTOS!D8</f>
+        <v>0012-00001</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G44" s="23" t="str">
+        <f>PRODUCTOS!D50</f>
+        <v>0012-00047</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B45" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G45" s="23" t="str">
+        <f>PRODUCTOS!D39</f>
+        <v>0012-00032</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J45" s="25">
+        <v>1</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B46" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="23">
+        <v>2</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G46" s="23" t="str">
+        <f>PRODUCTOS!D10</f>
+        <v>0012-00003</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B47" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="23">
+        <v>3</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G47" s="23" t="str">
+        <f>PRODUCTOS!D12</f>
+        <v>0012-00005</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" s="25">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M47" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B48" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="23">
+        <v>4</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G48" s="23" t="str">
+        <f>PRODUCTOS!D9</f>
+        <v>0012-00002</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="23">
+        <v>5</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G49" s="23" t="str">
+        <f>PRODUCTOS!D11</f>
+        <v>0012-00004</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="25">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="D50" s="23">
+        <v>6</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G50" s="23" t="str">
+        <f>PRODUCTOS!D13</f>
+        <v>0012-00006</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J50" s="25">
+        <v>0</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="N50" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+      <c r="B51" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="23">
+        <v>7</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G51" s="23" t="str">
+        <f>PRODUCTOS!D16</f>
+        <v>0012-00009</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="D52" s="23">
+        <v>1</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G52" s="23" t="str">
+        <f>PRODUCTOS!D31</f>
+        <v>0001-00024</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="D53" s="23">
+        <v>2</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G53" s="23" t="str">
+        <f>PRODUCTOS!D32</f>
+        <v>0025-00025</v>
+      </c>
+      <c r="H53" s="23"/>
+      <c r="I53" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="N53" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B54" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D54" s="23">
+        <v>3</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B55" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="D55" s="23">
+        <v>4</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="N55" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B56" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="D56" s="23">
+        <v>5</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B57" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="D57" s="23">
+        <v>6</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L57" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B58" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="D58" s="23">
+        <v>7</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J58" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B59" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="D59" s="23">
+        <v>8</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="N59" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B60" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G60" s="23" t="str">
+        <f>PRODUCTOS!D52</f>
+        <v>0023-00049</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="N60" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="D61" s="23">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G61" s="23" t="str">
+        <f>PRODUCTOS!D45</f>
+        <v>0009-00038</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J61" s="25">
+        <v>1</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M61" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N61" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B62" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G62" s="23" t="str">
+        <f>PRODUCTOS!D54</f>
+        <v>0009-00051</v>
+      </c>
+      <c r="H62" s="23"/>
+      <c r="I62" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J62" s="25">
+        <v>1</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M62" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B63" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="D63" s="23">
+        <v>3</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="25">
+        <v>1</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L63" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M63" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N63" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B64" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>784</v>
+      </c>
+      <c r="D64" s="23">
+        <v>4</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J64" s="25">
+        <v>1</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="D65" s="23">
+        <v>5</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G65" s="23" t="str">
+        <f>PRODUCTOS!D55</f>
+        <v>0009-00052</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="N65" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B66" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="D66" s="23">
+        <v>1</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G66" s="23" t="str">
+        <f>PRODUCTOS!D19</f>
+        <v>0011-00012</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+    </row>
+    <row r="67" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D67" s="23">
+        <v>2</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B68" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D68" s="23">
+        <v>1</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G68" s="23" t="str">
+        <f>PRODUCTOS!D43</f>
+        <v>0014-00036</v>
+      </c>
+      <c r="H68" s="23"/>
+      <c r="I68" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B69" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="D69" s="23">
+        <v>2</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G69" s="23" t="str">
+        <f>PRODUCTOS!D44</f>
+        <v>0014-00037</v>
+      </c>
+      <c r="H69" s="23"/>
+      <c r="I69" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J69" s="25"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B70" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" s="25"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B71" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D71" s="23">
+        <v>2</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J71" s="25"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="D72" s="23">
+        <v>3</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="25"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B73" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G73" s="23" t="str">
+        <f>PRODUCTOS!D33</f>
+        <v>0019-00026</v>
+      </c>
+      <c r="H73" s="23"/>
+      <c r="I73" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="25"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B74" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="D74" s="23">
+        <v>2</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G74" s="23" t="str">
+        <f>PRODUCTOS!D34</f>
+        <v>0019-00027</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" s="25"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+    </row>
+    <row r="75" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B75" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="D75" s="23">
+        <v>1</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G75" s="23" t="str">
+        <f>PRODUCTOS!D61</f>
+        <v>0006-00058</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J75" s="25"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="M75" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="N75" s="26"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+    </row>
+    <row r="76" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B76" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="D76" s="23">
+        <v>2</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G76" s="23" t="str">
+        <f>PRODUCTOS!D62</f>
+        <v>0006-00059</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="I76" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J76" s="25"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="M76" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="N76" s="26"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B77" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="D77" s="23">
+        <v>1</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G77" s="23" t="str">
+        <f>PRODUCTOS!D38</f>
+        <v>0021-00031</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="I77" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" s="25"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M77" s="24"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B78" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="D78" s="23">
+        <v>2</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J78" s="25"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M78" s="24"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B79" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C79" s="42"/>
+      <c r="D79" s="23">
+        <v>1</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="25"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B80" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="23">
+        <v>2</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J80" s="25"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+    </row>
+    <row r="81" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B81" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="D81" s="23">
+        <v>1</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G81" s="23" t="str">
+        <f>PRODUCTOS!D47</f>
+        <v>0005-00040</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J81" s="25"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B82" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D82" s="23">
+        <v>1</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G82" s="23" t="str">
+        <f>PRODUCTOS!D53</f>
+        <v>0024-00050</v>
+      </c>
+      <c r="H82" s="23"/>
+      <c r="I82" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J82" s="25"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B83" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D83" s="23">
+        <v>1</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G83" s="23" t="str">
+        <f>PRODUCTOS!D51</f>
+        <v>0022-00048</v>
+      </c>
+      <c r="H83" s="23"/>
+      <c r="I83" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J83" s="25"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+    </row>
+    <row r="84" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G84" s="23" t="str">
+        <f>PRODUCTOS!D20</f>
+        <v>0010-00013</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B85" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G85" s="23" t="str">
+        <f>PRODUCTOS!D57</f>
+        <v>0020-00054</v>
+      </c>
+      <c r="H85" s="23"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M85" s="24"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B86" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G86" s="23" t="str">
+        <f>PRODUCTOS!D58</f>
+        <v>0020-00055</v>
+      </c>
+      <c r="H86" s="23"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M86" s="24"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B87" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G87" s="23" t="str">
+        <f>PRODUCTOS!D59</f>
+        <v>0020-00056</v>
+      </c>
+      <c r="H87" s="23"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M87" s="24"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B88" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G88" s="23" t="str">
+        <f>PRODUCTOS!D60</f>
+        <v>0020-00057</v>
+      </c>
+      <c r="H88" s="23"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M88" s="24"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B89" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>938</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G89" s="23" t="str">
+        <f>PRODUCTOS!D48</f>
+        <v>0019-00045</v>
+      </c>
+      <c r="H89" s="23"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="M89" s="24"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B90" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>940</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G90" s="23" t="str">
+        <f>PRODUCTOS!D49</f>
+        <v>0019-00046</v>
+      </c>
+      <c r="H90" s="23"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="M90" s="24"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B91" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G91" s="23" t="str">
+        <f>PRODUCTOS!D46</f>
+        <v>0013-00039</v>
+      </c>
+      <c r="H91" s="23"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+    </row>
+    <row r="92" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B92" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G92" s="23" t="str">
+        <f>PRODUCTOS!D25</f>
+        <v>0002-00018</v>
+      </c>
+      <c r="H92" s="23"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B93" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G93" s="23" t="str">
+        <f>PRODUCTOS!D26</f>
+        <v>0002-00019</v>
+      </c>
+      <c r="H93" s="23"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+    </row>
+    <row r="94" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B94" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G94" s="23" t="str">
+        <f>PRODUCTOS!D27</f>
+        <v>0002-00020</v>
+      </c>
+      <c r="H94" s="23"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+    </row>
+    <row r="95" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B95" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G95" s="23" t="str">
+        <f>PRODUCTOS!D28</f>
+        <v>0002-00021</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B96" s="27"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B97" s="27"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="28"/>
+      <c r="P97" s="28"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B98" s="27"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="28"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B99" s="27"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B100" s="27"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B101" s="27"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B102" s="27"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B103" s="27"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B104" s="27"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B105" s="27"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B106" s="27"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B107" s="27"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B108" s="27"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P22">
+    <sortCondition ref="B12:B22"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC307E2C-EE84-471E-9890-D38A97E99FE7}">
   <sheetPr>
@@ -8121,7 +12406,7 @@
   </sheetPr>
   <dimension ref="A7:AB64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
@@ -11367,7 +15652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BC1C9-A7B2-4609-9A72-8F077292DA6C}">
   <dimension ref="B3:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H436" sqref="H436"/>
     </sheetView>
   </sheetViews>
@@ -20607,6 +24892,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98631CB2-BBAD-48DA-853F-D221028B80C0}">
+  <dimension ref="A9:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="14" style="49" customWidth="1"/>
+    <col min="7" max="7" width="65.08984375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>1</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E10" s="53">
+        <v>44117</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>1</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E11" s="53">
+        <v>44113</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
+        <v>1</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E12" s="53">
+        <v>44121</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="57" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
+        <v>1</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E13" s="53">
+        <v>44125</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="57" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>1</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E14" s="53">
+        <v>44130</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:9" s="58" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
+        <v>1</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E15" s="61">
+        <v>44134</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
+        <v>2</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="52">
+        <v>44111</v>
+      </c>
+      <c r="E16" s="53">
+        <v>44113</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
+        <v>3</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>744</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="49">
+        <v>44111</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65">
+        <v>44113</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="58">
+        <v>4</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E18" s="61">
+        <v>44113</v>
+      </c>
+      <c r="F18" s="67">
+        <v>44113</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="58">
+        <v>4</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E19" s="61">
+        <v>44113</v>
+      </c>
+      <c r="F19" s="67">
+        <v>44113</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="58" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="58">
+        <v>5</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="60">
+        <v>44126</v>
+      </c>
+      <c r="E20" s="61">
+        <v>44128</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58">
+        <v>5</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="60">
+        <v>44126</v>
+      </c>
+      <c r="E21" s="61">
+        <v>44128</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="55" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="58">
+        <v>5</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="60">
+        <v>44126</v>
+      </c>
+      <c r="E22" s="61">
+        <v>44128</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="58" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:9" s="58" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="A23" s="58">
+        <v>6</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="60">
+        <v>44113</v>
+      </c>
+      <c r="E23" s="61">
+        <v>44120</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="58" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="A24" s="58">
+        <v>6</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="60">
+        <v>44113</v>
+      </c>
+      <c r="E24" s="73">
+        <v>44126</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="74" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H24" s="63"/>
+    </row>
+    <row r="25" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A25" s="58">
+        <v>6</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="60">
+        <v>44113</v>
+      </c>
+      <c r="E25" s="73">
+        <v>44134</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H25" s="63"/>
+    </row>
+    <row r="26" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A26" s="58">
+        <v>7</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E26" s="61">
+        <v>44113</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:9" s="58" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="A27" s="58">
+        <v>7</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E27" s="61">
+        <v>44119</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="58">
+        <v>7</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E28" s="61">
+        <v>44124</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A29" s="58">
+        <v>7</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E29" s="61">
+        <v>44127</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H29" s="63"/>
+    </row>
+    <row r="30" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A30" s="58">
+        <v>7</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E30" s="61">
+        <v>44132</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58">
+        <v>7</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E31" s="61">
+        <v>44132</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="55" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H31" s="63"/>
+    </row>
+    <row r="32" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="58">
+        <v>7</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="60">
+        <v>44111</v>
+      </c>
+      <c r="E32" s="61">
+        <v>44138</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="55" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H32" s="91" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="49">
+        <v>8</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="52">
+        <v>44112</v>
+      </c>
+      <c r="E33" s="75">
+        <v>44119</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="74" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="58" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="A34" s="58">
+        <v>9</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="60">
+        <v>44113</v>
+      </c>
+      <c r="E34" s="61">
+        <v>44118</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="G34" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="49">
+        <v>10</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="52">
+        <v>44119</v>
+      </c>
+      <c r="E35" s="75">
+        <v>44131</v>
+      </c>
+      <c r="F35" s="54"/>
+      <c r="G35" s="74" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H35" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="49">
+        <v>10</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53">
+        <v>44134</v>
+      </c>
+      <c r="F36" s="80"/>
+      <c r="G36" s="57" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="49">
+        <v>10</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53">
+        <v>44134</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H37" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>10</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="49">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53">
+        <v>44134</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="49">
+        <v>10</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53">
+        <v>44135</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="G40" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H40" s="79"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="49">
+        <v>11</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="52">
+        <v>44134</v>
+      </c>
+      <c r="E41" s="82">
+        <v>44138</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
+    </row>
+    <row r="42" spans="1:8" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="83">
+        <v>12</v>
+      </c>
+      <c r="B42" s="84" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="83"/>
+      <c r="E42" s="85">
+        <v>44119</v>
+      </c>
+      <c r="F42" s="86">
+        <v>44121</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H42" s="56" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="49">
+        <v>13</v>
+      </c>
+      <c r="B43" s="87" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="52">
+        <v>44121</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="56"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="49">
+        <v>14</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="49">
+        <v>15</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="52">
+        <v>44126</v>
+      </c>
+      <c r="E45" s="53">
+        <v>44130</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H45" s="79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="49">
+        <v>15</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="52">
+        <v>44126</v>
+      </c>
+      <c r="E46" s="53">
+        <v>44130</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="49">
+        <v>15</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="52">
+        <v>44126</v>
+      </c>
+      <c r="E47" s="53">
+        <v>44130</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H47" s="88" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="49">
+        <v>16</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="52">
+        <v>44127</v>
+      </c>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65">
+        <v>44134</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H48" s="56"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="49">
+        <v>16</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D49" s="52">
+        <v>44127</v>
+      </c>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65">
+        <v>44134</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>17</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="52">
+        <v>44127</v>
+      </c>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65">
+        <v>44134</v>
+      </c>
+      <c r="G50" s="57" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H50" s="88" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="56"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="89" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C56" s="90" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC69A750-CD1D-4669-9A9D-018B9017F0D6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -23173,7 +28470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C2BD8C-96C0-4065-A145-5EAE5CCCA78E}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28169,3526 +33466,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD17B5-9F7E-4F39-86BE-12F114AA6DEC}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B11:P108"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="1.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="7" width="14.08984375" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="35.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" spans="2:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f>PRODUCTOS!D40</f>
-        <v>0003-00033</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="D13" s="23">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="D14" s="23">
-        <v>3</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="D15" s="23">
-        <v>4</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G15" s="23" t="str">
-        <f>PRODUCTOS!D64</f>
-        <v>0003-00061</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="D16" s="23">
-        <v>5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G16" s="23" t="str">
-        <f>PRODUCTOS!D42</f>
-        <v>0003-00035</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B17" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G17" s="23" t="str">
-        <f>PRODUCTOS!D24</f>
-        <v>0002-00017</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="D18" s="23">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>821</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="D19" s="23">
-        <v>3</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="D20" s="23">
-        <v>4</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G20" s="23" t="str">
-        <f>PRODUCTOS!D29</f>
-        <v>0002-00022</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J20" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G21" s="23" t="str">
-        <f>PRODUCTOS!D56</f>
-        <v>0016-00053</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J21" s="25">
-        <v>1</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>845</v>
-      </c>
-      <c r="D22" s="23">
-        <v>2</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>846</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B23" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="D23" s="23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="D24" s="23">
-        <v>4</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="25">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G25" s="23" t="str">
-        <f>PRODUCTOS!D21</f>
-        <v>0010-00014</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="D26" s="23">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G26" s="23" t="str">
-        <f>PRODUCTOS!D22</f>
-        <v>0010-00015</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="D27" s="23">
-        <v>3</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>814</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="D28" s="23">
-        <v>4</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="N28" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>791</v>
-      </c>
-      <c r="D29" s="23">
-        <v>5</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>792</v>
-      </c>
-      <c r="D30" s="23">
-        <v>6</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B31" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="23">
-        <v>1</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G31" s="23" t="str">
-        <f>PRODUCTOS!D14</f>
-        <v>0017-00007</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>763</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B32" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="23">
-        <v>2</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G32" s="23" t="str">
-        <f>PRODUCTOS!D15</f>
-        <v>0017-00008</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G33" s="23" t="str">
-        <f>PRODUCTOS!D36</f>
-        <v>0007-00029</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="N33" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B34" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>834</v>
-      </c>
-      <c r="D34" s="23">
-        <v>2</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B35" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="D35" s="23">
-        <v>3</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="D36" s="23">
-        <v>4</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>832</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>839</v>
-      </c>
-      <c r="D37" s="23">
-        <v>1</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G37" s="23" t="str">
-        <f>PRODUCTOS!D23</f>
-        <v>0018-00016</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="25">
-        <v>1</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N37" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B38" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="D38" s="23">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J38" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B39" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="D39" s="23">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G39" s="23" t="str">
-        <f>PRODUCTOS!D17</f>
-        <v>0004-00010</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B40" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="D40" s="23">
-        <v>1</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G40" s="23" t="str">
-        <f>PRODUCTOS!D35</f>
-        <v>0004-00028</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="D41" s="23">
-        <v>2</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G41" s="23" t="str">
-        <f>PRODUCTOS!D18</f>
-        <v>0004-00011</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J41" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="N41" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B42" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="D42" s="23">
-        <v>3</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G42" s="23" t="str">
-        <f>PRODUCTOS!D37</f>
-        <v>0004-00030</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J42" s="25">
-        <v>1</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>833</v>
-      </c>
-      <c r="N42" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="23">
-        <v>1</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G43" s="23" t="str">
-        <f>PRODUCTOS!D8</f>
-        <v>0012-00001</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J43" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="N43" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="D44" s="23">
-        <v>1</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G44" s="23" t="str">
-        <f>PRODUCTOS!D50</f>
-        <v>0012-00047</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J44" s="25">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="N44" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="D45" s="23">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G45" s="23" t="str">
-        <f>PRODUCTOS!D39</f>
-        <v>0012-00032</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="25">
-        <v>1</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="M45" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="N45" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="23">
-        <v>2</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G46" s="23" t="str">
-        <f>PRODUCTOS!D10</f>
-        <v>0012-00003</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J46" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B47" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="23">
-        <v>3</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G47" s="23" t="str">
-        <f>PRODUCTOS!D12</f>
-        <v>0012-00005</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J47" s="25">
-        <v>0</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="M47" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="N47" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="23">
-        <v>4</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G48" s="23" t="str">
-        <f>PRODUCTOS!D9</f>
-        <v>0012-00002</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J48" s="25">
-        <v>0</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="N48" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B49" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="23">
-        <v>5</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G49" s="23" t="str">
-        <f>PRODUCTOS!D11</f>
-        <v>0012-00004</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="25">
-        <v>0</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="N49" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B50" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="D50" s="23">
-        <v>6</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G50" s="23" t="str">
-        <f>PRODUCTOS!D13</f>
-        <v>0012-00006</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J50" s="25">
-        <v>0</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B51" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="23">
-        <v>7</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G51" s="23" t="str">
-        <f>PRODUCTOS!D16</f>
-        <v>0012-00009</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J51" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B52" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>769</v>
-      </c>
-      <c r="D52" s="23">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G52" s="23" t="str">
-        <f>PRODUCTOS!D31</f>
-        <v>0001-00024</v>
-      </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J52" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="N52" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B53" s="27" t="s">
-        <v>917</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="D53" s="23">
-        <v>2</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G53" s="23" t="str">
-        <f>PRODUCTOS!D32</f>
-        <v>0025-00025</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J53" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="N53" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B54" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="D54" s="23">
-        <v>3</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J54" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="N54" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B55" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="D55" s="23">
-        <v>4</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J55" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="N55" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B56" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="D56" s="23">
-        <v>5</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J56" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="N56" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B57" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="D57" s="23">
-        <v>6</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J57" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="N57" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B58" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="D58" s="23">
-        <v>7</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J58" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K58" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>808</v>
-      </c>
-      <c r="N58" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B59" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="D59" s="23">
-        <v>8</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K59" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M59" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="N59" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B60" s="27" t="s">
-        <v>850</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>851</v>
-      </c>
-      <c r="D60" s="23">
-        <v>1</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G60" s="23" t="str">
-        <f>PRODUCTOS!D52</f>
-        <v>0023-00049</v>
-      </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J60" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="N60" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B61" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="D61" s="23">
-        <v>1</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G61" s="23" t="str">
-        <f>PRODUCTOS!D45</f>
-        <v>0009-00038</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J61" s="25">
-        <v>1</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L61" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M61" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N61" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B62" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>782</v>
-      </c>
-      <c r="D62" s="23">
-        <v>2</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G62" s="23" t="str">
-        <f>PRODUCTOS!D54</f>
-        <v>0009-00051</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J62" s="25">
-        <v>1</v>
-      </c>
-      <c r="K62" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M62" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N62" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B63" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>783</v>
-      </c>
-      <c r="D63" s="23">
-        <v>3</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J63" s="25">
-        <v>1</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L63" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M63" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N63" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B64" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>784</v>
-      </c>
-      <c r="D64" s="23">
-        <v>4</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J64" s="25">
-        <v>1</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N64" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B65" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>785</v>
-      </c>
-      <c r="D65" s="23">
-        <v>5</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G65" s="23" t="str">
-        <f>PRODUCTOS!D55</f>
-        <v>0009-00052</v>
-      </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J65" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="M65" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="N65" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B66" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="D66" s="23">
-        <v>1</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G66" s="23" t="str">
-        <f>PRODUCTOS!D19</f>
-        <v>0011-00012</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-    </row>
-    <row r="67" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B67" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>859</v>
-      </c>
-      <c r="D67" s="23">
-        <v>2</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>860</v>
-      </c>
-      <c r="D68" s="23">
-        <v>1</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G68" s="23" t="str">
-        <f>PRODUCTOS!D43</f>
-        <v>0014-00036</v>
-      </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>867</v>
-      </c>
-      <c r="D69" s="23">
-        <v>2</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G69" s="23" t="str">
-        <f>PRODUCTOS!D44</f>
-        <v>0014-00037</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B70" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="D70" s="23">
-        <v>1</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B71" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>862</v>
-      </c>
-      <c r="D71" s="23">
-        <v>2</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>863</v>
-      </c>
-      <c r="D72" s="23">
-        <v>3</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J72" s="25"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B73" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>864</v>
-      </c>
-      <c r="D73" s="23">
-        <v>1</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G73" s="23" t="str">
-        <f>PRODUCTOS!D33</f>
-        <v>0019-00026</v>
-      </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B74" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>864</v>
-      </c>
-      <c r="D74" s="23">
-        <v>2</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>857</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G74" s="23" t="str">
-        <f>PRODUCTOS!D34</f>
-        <v>0019-00027</v>
-      </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-    </row>
-    <row r="75" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B75" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>962</v>
-      </c>
-      <c r="D75" s="23">
-        <v>1</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G75" s="23" t="str">
-        <f>PRODUCTOS!D61</f>
-        <v>0006-00058</v>
-      </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24" t="s">
-        <v>984</v>
-      </c>
-      <c r="M75" s="24" t="s">
-        <v>865</v>
-      </c>
-      <c r="N75" s="26"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-    </row>
-    <row r="76" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B76" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>963</v>
-      </c>
-      <c r="D76" s="23">
-        <v>2</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G76" s="23" t="str">
-        <f>PRODUCTOS!D62</f>
-        <v>0006-00059</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24" t="s">
-        <v>984</v>
-      </c>
-      <c r="M76" s="24" t="s">
-        <v>866</v>
-      </c>
-      <c r="N76" s="26"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B77" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="D77" s="23">
-        <v>1</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G77" s="23" t="str">
-        <f>PRODUCTOS!D38</f>
-        <v>0021-00031</v>
-      </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B78" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="D78" s="23">
-        <v>2</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B79" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="23">
-        <v>1</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B80" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="23">
-        <v>2</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>857</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-    </row>
-    <row r="81" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B81" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="D81" s="23">
-        <v>1</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G81" s="23" t="str">
-        <f>PRODUCTOS!D47</f>
-        <v>0005-00040</v>
-      </c>
-      <c r="H81" s="23"/>
-      <c r="I81" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J81" s="25"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B82" s="27" t="s">
-        <v>868</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="D82" s="23">
-        <v>1</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G82" s="23" t="str">
-        <f>PRODUCTOS!D53</f>
-        <v>0024-00050</v>
-      </c>
-      <c r="H82" s="23"/>
-      <c r="I82" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J82" s="25"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B83" s="27" t="s">
-        <v>869</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="D83" s="23">
-        <v>1</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G83" s="23" t="str">
-        <f>PRODUCTOS!D51</f>
-        <v>0022-00048</v>
-      </c>
-      <c r="H83" s="23"/>
-      <c r="I83" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-    </row>
-    <row r="84" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B84" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G84" s="23" t="str">
-        <f>PRODUCTOS!D20</f>
-        <v>0010-00013</v>
-      </c>
-      <c r="H84" s="23"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B85" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>955</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G85" s="23" t="str">
-        <f>PRODUCTOS!D57</f>
-        <v>0020-00054</v>
-      </c>
-      <c r="H85" s="23"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B86" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G86" s="23" t="str">
-        <f>PRODUCTOS!D58</f>
-        <v>0020-00055</v>
-      </c>
-      <c r="H86" s="23"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B87" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>959</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G87" s="23" t="str">
-        <f>PRODUCTOS!D59</f>
-        <v>0020-00056</v>
-      </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B88" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>961</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G88" s="23" t="str">
-        <f>PRODUCTOS!D60</f>
-        <v>0020-00057</v>
-      </c>
-      <c r="H88" s="23"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>938</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G89" s="23" t="str">
-        <f>PRODUCTOS!D48</f>
-        <v>0019-00045</v>
-      </c>
-      <c r="H89" s="23"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>973</v>
-      </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B90" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C90" s="44" t="s">
-        <v>940</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G90" s="23" t="str">
-        <f>PRODUCTOS!D49</f>
-        <v>0019-00046</v>
-      </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24" t="s">
-        <v>973</v>
-      </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B91" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>982</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G91" s="23" t="str">
-        <f>PRODUCTOS!D46</f>
-        <v>0013-00039</v>
-      </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-    </row>
-    <row r="92" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B92" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G92" s="23" t="str">
-        <f>PRODUCTOS!D25</f>
-        <v>0002-00018</v>
-      </c>
-      <c r="H92" s="23"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-    </row>
-    <row r="93" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B93" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G93" s="23" t="str">
-        <f>PRODUCTOS!D26</f>
-        <v>0002-00019</v>
-      </c>
-      <c r="H93" s="23"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-    </row>
-    <row r="94" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B94" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G94" s="23" t="str">
-        <f>PRODUCTOS!D27</f>
-        <v>0002-00020</v>
-      </c>
-      <c r="H94" s="23"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-    </row>
-    <row r="95" spans="2:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="B95" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="G95" s="23" t="str">
-        <f>PRODUCTOS!D28</f>
-        <v>0002-00021</v>
-      </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B96" s="27"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B97" s="27"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B98" s="27"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B99" s="27"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B100" s="27"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B101" s="27"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B102" s="27"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B103" s="27"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B104" s="27"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B105" s="27"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B106" s="27"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B107" s="27"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B108" s="27"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P22">
-    <sortCondition ref="B12:B22"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF7370B-43D9-4211-BA4D-75E0A3E18143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013FF0E-AE36-487E-8E60-7B0D442D7E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="6" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013FF0E-AE36-487E-8E60-7B0D442D7E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2B365-0436-4899-8FEB-A4478618D1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" activeTab="6" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="1" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA`S" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="1126">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -2489,15 +2489,6 @@
     <t>PSU</t>
   </si>
   <si>
-    <t>Agricultura || STAT</t>
-  </si>
-  <si>
-    <t>Ganadería || STAT</t>
-  </si>
-  <si>
-    <t>Forestal || STAT</t>
-  </si>
-  <si>
     <t>Indices Satelitales para Agricultura de Precisión</t>
   </si>
   <si>
@@ -2893,15 +2884,9 @@
     <t>00033</t>
   </si>
   <si>
-    <t>Agrostat. Estadística del AGRO CHILE</t>
-  </si>
-  <si>
     <t>00034</t>
   </si>
   <si>
-    <t>Agroclima (GEE)</t>
-  </si>
-  <si>
     <t>00035</t>
   </si>
   <si>
@@ -3004,9 +2989,6 @@
     <t>Cooperación internacional</t>
   </si>
   <si>
-    <t>Agrogestión</t>
-  </si>
-  <si>
     <t>Ods1</t>
   </si>
   <si>
@@ -3103,9 +3085,6 @@
     <t>Nombre comercial</t>
   </si>
   <si>
-    <t>AGROSTAT - CL</t>
-  </si>
-  <si>
     <t>AGROSTAT - GT</t>
   </si>
   <si>
@@ -3461,6 +3440,54 @@
   </si>
   <si>
     <t>Cerrado</t>
+  </si>
+  <si>
+    <t>AGROCLIMA - Geomática agrícola</t>
+  </si>
+  <si>
+    <t>AGROGESTIÓN - Gestión agrícola</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas ambientales</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas Productivas Agrícolas</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas Productivas Pecuarias</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadisticas Productivas Forestales</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas Económicas Agrícolas</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas Económicas Pecuarias</t>
+  </si>
+  <si>
+    <t>AGROSTAT - Estadísticas Económicas Forestales</t>
+  </si>
+  <si>
+    <t>AGROSTAT</t>
+  </si>
+  <si>
+    <t>00062</t>
+  </si>
+  <si>
+    <t>00063</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>00065</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>00067</t>
   </si>
 </sst>
 </file>
@@ -3758,7 +3785,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4039,6 +4066,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -4046,320 +4082,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="135">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5505,6 +5227,320 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6216,13 +6252,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1297940</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6294,13 +6330,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46991</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:colOff>1514475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161291</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6370,9 +6406,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:colOff>1781175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67311</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -6448,15 +6484,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182245</xdr:colOff>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29211</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>315595</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7170,15 +7206,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>140336</xdr:rowOff>
+      <xdr:rowOff>143511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7248,15 +7284,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1664335</xdr:colOff>
+      <xdr:colOff>1667510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>125096</xdr:rowOff>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7328,13 +7364,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>102236</xdr:rowOff>
+      <xdr:rowOff>105411</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7406,11 +7442,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -7482,7 +7518,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -7490,7 +7526,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>421005</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7566,9 +7602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1340485</xdr:colOff>
+      <xdr:colOff>1343660</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>103505</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7638,7 +7674,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1456055</xdr:colOff>
+      <xdr:colOff>1459230</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7716,15 +7752,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88266</xdr:rowOff>
+      <xdr:rowOff>85091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -8069,7 +8105,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="4" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -8131,8 +8167,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB64" totalsRowShown="0" headerRowDxfId="122">
-  <autoFilter ref="A7:AB64" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:AB70" totalsRowShown="0" headerRowDxfId="122">
+  <autoFilter ref="A7:AB70" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="DATAAGRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{01CFB9DB-FBAD-4A9E-9D8F-5FB3EB42A9EB}" name="id_data" dataDxfId="121">
       <calculatedColumnFormula>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</calculatedColumnFormula>
@@ -8206,154 +8248,154 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F79A991F-1A6F-4232-A4CD-E26026F59FD2}" name="Tabla1" displayName="Tabla1" ref="A9:M44" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A9:M44" xr:uid="{2573F5B0-EE83-49B6-AF2E-FA541AB2D0A7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{01DC2308-9C99-4EEE-82DB-DC6B48F1F8E3}" name="N°" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{F3B4997E-B2A4-4EB5-AF03-1C32EC201E29}" name="Tema Investigación " dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{2ED8CCEC-CAF8-463E-AB90-B3689E282F52}" name="Responsables " dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{A45DAC7C-0BE8-484E-8902-C84794C6E4E6}" name="Fecha inicio" dataDxfId="90"/>
     <tableColumn id="4" xr3:uid="{1DFD24D3-150A-4A18-8D2B-471C5E615C4A}" name="Estado"/>
-    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A5E888F3-954C-4454-ABBF-0CB322AC2892}" name="Fecha Termino" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{DC2FD273-C50C-4DC5-BCAE-F4707F0CC4FD}" name="Chile" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{DC0F9138-A833-4513-8446-6D9A0BE8DC03}" name="Panamá " dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{1C354151-0542-4839-A312-82A4762672B3}" name="Guatemala" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{B44F5A38-555A-4E07-BD14-45F877391CC6}" name="Honduras" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{E43EB3EC-0D6D-42B8-A156-EA2EF365B7B3}" name="El Salvador" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{9ED27B35-B472-416C-B394-C3447A132041}" name="Link 1" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{0813E4B9-E868-4B0E-A181-67DEE49699BC}" name="Link 2" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A9:I50" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E94DB916-DE89-4F64-9EF8-AFB72BA8FF61}" name="Tabla14" displayName="Tabla14" ref="A9:I50" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A9:I50" xr:uid="{14629A1E-D5D5-412C-8FAB-488411430C85}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{7299EEE0-40CF-4EF5-8F0C-C1FFA863E5B5}" name="N°" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{9E84EC16-0161-44D0-9CB9-123C0428ADAD}" name="Tema/institución Investigación " dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{76853A8B-3945-4590-AB61-F2892D4BDEF9}" name="Responsable" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{F7339DE0-8C86-4469-9258-ED935FDEFA77}" name="Fecha inicio" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{1434B0D6-C669-403A-970D-962B797CA9A9}" name="Fecha avance" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{B968D1D9-84E8-493C-9491-88D890E8453F}" name="Fecha Termino" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{914D3775-FE9D-4F06-9643-2FF0DC094A44}" name="Comentario" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{447DB363-0F58-4053-9903-C5B73E99B8F7}" name="Acción" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{FAD7DF30-EA13-48D4-85BE-33B82685C836}" name="Seguimiento" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{065B9CF9-E4C7-46B6-A6AB-AE4727F44BAE}" name="DETALLE_PRODUCTO" displayName="DETALLE_PRODUCTO" ref="B8:L88" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="B8:L88" xr:uid="{B19E98DB-D5A2-4B79-98FB-79403A46B576}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="76"/>
-    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{53D02E25-6272-402F-ABD7-44B8E0C71D87}" name="Data" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{EC4D90DB-631D-4228-A704-DD698C8FDA74}" name="id_producto" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{8BB7EEC5-6570-41F8-9A07-5AAEA8522606}" name="Plazo Producto" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{8CB3D480-A20D-43D6-A036-A52F2B756492}" name="Producto" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{A37F897B-BDC4-49DB-9D73-0B585928FBCF}" name="Secciones" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{52913CC1-5A92-42A3-9DE0-3B6AB5FF68D3}" name="Sub-secciones" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{AA418FB7-7169-4105-9A7B-952204D6B07D}" name="Variables" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{9CFF7943-E7AB-407C-A8B2-A61784C0D377}" name="Fuente" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{E0A15B94-D546-4F86-877E-4ECCBE8390C9}" name="Situación Variable" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{766CAFFF-49CC-4F0A-A3FA-AA09276E3B90}" name="Fecha Actualización" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{8FEDBB30-0CE4-44B9-B885-55B24F35F89F}" name="Observaciones" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AQ64" totalsRowShown="0" headerRowDxfId="74">
-  <autoFilter ref="A7:AQ64" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8903E000-6268-4700-8DED-A61277FDDF6A}" name="SHOPIFY" displayName="SHOPIFY" ref="A7:AQ70" totalsRowShown="0" headerRowDxfId="57">
+  <autoFilter ref="A7:AQ70" xr:uid="{8E7BE500-FD82-4AF8-9786-CF4905281DB3}"/>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{97B30EC8-C107-4A29-BFE9-64B671A010DD}" name="id_data" dataDxfId="56">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[id_data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{D4210DF6-B71C-4CEA-B273-A001CC99D71D}" name="Corr_Producto" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3A3C3A45-DC12-420E-B4A9-B6FC4AB09680}" name="Data" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{F589E312-6F04-441B-BD92-57D8AF605B91}" name="id_producto" dataDxfId="53">
       <calculatedColumnFormula>+A8&amp;"-"&amp;B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="69"/>
-    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{8673061C-EC24-4EF4-81F6-F73CCCED37A8}" name="Producto asociado " dataDxfId="52"/>
+    <tableColumn id="32" xr3:uid="{BB6CBD3F-A1DC-4006-8ED6-2EDD0372776F}" name="Nombre comercial" dataDxfId="51">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Nombre comercial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="67"/>
-    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="66" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="65">
+    <tableColumn id="6" xr3:uid="{F158BFCF-29BB-4A21-85DD-EC1A577268A9}" name="Estado" dataDxfId="50"/>
+    <tableColumn id="21" xr3:uid="{F5606F96-2B4C-4028-BAFD-98E68F248BB6}" name="Avance" dataDxfId="49" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{F996455F-A80C-45DE-824E-AA15DC67B89F}" name="Responsable Desarrollo" dataDxfId="48">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="64">
+    <tableColumn id="8" xr3:uid="{8243748E-EFCB-4AEF-AE13-DEB22DE5398A}" name="Responsable Información" dataDxfId="47">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Responsable Información]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="63"/>
-    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="62"/>
-    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="61"/>
-    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="60"/>
-    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="59"/>
-    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="58"/>
-    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="56"/>
-    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="55"/>
-    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="54"/>
-    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="53"/>
-    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="52"/>
-    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="51">
+    <tableColumn id="25" xr3:uid="{DE283954-0E54-4788-A6B7-64B3FABE5655}" name="Párrafo enganche" dataDxfId="46"/>
+    <tableColumn id="31" xr3:uid="{69B5166B-7DB7-4B2A-BDDB-51BC1CDC9E13}" name="Variante_1" dataDxfId="45"/>
+    <tableColumn id="30" xr3:uid="{FD2BFBD3-7364-4A40-82AD-5ED8F1EC60C8}" name="Precio_1" dataDxfId="44"/>
+    <tableColumn id="27" xr3:uid="{7BAA5845-FEF8-4AF0-A034-4502EA6425FB}" name="Variante_2" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{055AC0B8-B715-4865-A615-F93F51BDB937}" name="Precio_2" dataDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{E986E95A-C830-4C89-88DC-A69F64460E34}" name="Variante_3" dataDxfId="41"/>
+    <tableColumn id="33" xr3:uid="{15105E85-D580-466D-8DEA-A21111029F6E}" name="Precio_3" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{EE306381-1575-4475-A9CE-5592A93932BB}" name="Descripción (Indicar qué permite ver o hacer el producto) " dataDxfId="39"/>
+    <tableColumn id="35" xr3:uid="{C39FDC20-ABE5-4151-B056-F4B5E12D47DD}" name="CAR_Tipo_Prod" dataDxfId="38"/>
+    <tableColumn id="36" xr3:uid="{C8D4ECC0-DE7A-41BF-A6E9-9964E26F4261}" name="CAR_Var1_Disponible" dataDxfId="37"/>
+    <tableColumn id="39" xr3:uid="{87F44B21-0148-4ECE-9BC5-6D8A4C1030F3}" name="CAR_Periodo" dataDxfId="36"/>
+    <tableColumn id="37" xr3:uid="{DB23C32C-B4CE-4982-8D0A-F32C01C6CF98}" name="CAR_Proveedor" dataDxfId="35"/>
+    <tableColumn id="38" xr3:uid="{887C31F6-B5D9-48A2-AC60-3BBFDA8C2D93}" name="CAR_Colección" dataDxfId="34">
       <calculatedColumnFormula>SHOPIFY[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{465FFD71-9838-46F8-96D9-04071B46AADF}" name="ESP_Tecnología" dataDxfId="33">
       <calculatedColumnFormula>PRODUCTOS[[#This Row],[Tecnología]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="44"/>
-    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="43"/>
-    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="42"/>
-    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="41"/>
-    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="40"/>
-    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="38"/>
-    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="37"/>
-    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{EC2BE421-D8F5-4218-AF58-90E90B893031}" name="Host " dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{E79C574B-B7A1-469C-8F8F-2D0CFAE51341}" name="Link Odoo" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{3809FE9C-54F9-4CF7-B339-2E0041642249}" name="Fecha Publicación" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{F596F3F4-DDEC-4196-A3BB-82BA12090401}" name="País" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{8ABA9F49-20E7-4D44-969F-61983CB570CF}" name="Escala " dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{96768B2C-E9AB-4A4C-B2EA-54B345E4B2EE}" name="ESP_Periodo" dataDxfId="27"/>
+    <tableColumn id="40" xr3:uid="{B886925D-5342-4EF0-BEC7-231A532CD384}" name="ESP_Incluye" dataDxfId="26"/>
+    <tableColumn id="41" xr3:uid="{3B13D200-0F79-4222-81F3-6523101D8224}" name="ESP_Uso_Disp." dataDxfId="25"/>
+    <tableColumn id="42" xr3:uid="{36761705-B510-456F-B13C-7C1F1691A844}" name="ESP_Fuentes " dataDxfId="24"/>
+    <tableColumn id="43" xr3:uid="{51F4D077-A0BB-4F59-B19A-FA245554DE68}" name="ACC_Recibirás" dataDxfId="23"/>
+    <tableColumn id="44" xr3:uid="{5291A2DA-9FCC-47E6-8092-612F754EE474}" name="ACC_Licencia_uso" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{77D650B5-1F6E-4D9B-91EE-AFD5F57BC1C1}" name="ACC_Actualizaciones" dataDxfId="21"/>
+    <tableColumn id="45" xr3:uid="{9AD5E5EE-A8BD-4739-AE89-A1B8EC4723F5}" name="ACC_N°_usuarios" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{AC3AE441-67FC-4118-9DEB-4484BC70FA5A}" name="Etiquetas" dataDxfId="19"/>
     <tableColumn id="22" xr3:uid="{0EAB21ED-E5E2-4B44-8E8C-DA03632B81CB}" name="Vistas"/>
     <tableColumn id="23" xr3:uid="{4146A4AA-B422-4A23-AFC0-891AE3F78FEE}" name="Repositorio Dropbox"/>
     <tableColumn id="24" xr3:uid="{44B7EB22-51ED-4A59-9AAA-14197F95E149}" name="Link Logo"/>
-    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="35"/>
-    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{4352BE36-B76B-41FB-8592-7009FF2F8409}" name="Observaciones" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{2127F871-F5E7-448D-8C26-8CF290798729}" name="Miniatura" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P95" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
-  <autoFilter ref="B11:P95" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P101" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B11:P101" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P65">
     <sortCondition ref="B12:B65"/>
     <sortCondition ref="D12:D65"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="23" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{229DCB04-6969-4E62-A149-FB9E3CAE5BF4}" name="Data" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CD34A55D-D0AD-4B52-8194-AFDE7E5C6050}" name="Producto Previos" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4029C438-04CA-46F0-B968-E3D862055C27}" name="Secuencia (dentro DATA)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9842277F-498F-4399-B9E9-AE2739193ABA}" name="País" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{ED853D5F-1B7C-4052-B0FE-5337CC52FC4D}" name="Integrado en PRODUCTOS? [SI/NO]" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8D63376D-2407-4CF9-A0F9-4552C9649833}" name="id_producto" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{14D31B75-8E88-42FB-BB27-6BB36C1418D0}" name="Prioridad [1-9]" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{679658E8-A980-4528-82C7-F19E24336030}" name="Estado" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2EF6A42B-DFA0-4FE7-A1E1-2E79F580EB12}" name="Avance [0-100%]" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{40541782-CDD5-4622-B1C1-C97D63A0C9AA}" name="Responsable Desarrollo" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{3B543DE3-BF65-4BD9-9932-28271C56E4C6}" name="Responsable Información" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DAB3B04F-F977-4413-A23F-4094B552D30E}" name="Tareas/Elementos / Observaciones" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{78859102-313B-47F6-BED8-F613D7B8587E}" name="Tecnología" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BBACA7B7-AF7E-4714-A44E-1572587CA1A4}" name="Fecha estimada" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3D3E6850-E86A-4D4E-99C6-7FEB6D12B271}" name="Fecha Actualización [de esta info]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9187,7 +9229,7 @@
     </row>
     <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>191</v>
@@ -9213,10 +9255,10 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="10"/>
@@ -9230,10 +9272,10 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="10"/>
@@ -9247,10 +9289,10 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="10"/>
@@ -9262,10 +9304,10 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="10"/>
@@ -9277,10 +9319,10 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
@@ -9292,10 +9334,10 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="10"/>
@@ -9328,10 +9370,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:AQ64"/>
+  <dimension ref="A7:AQ70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9385,13 +9427,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>210</v>
@@ -9400,46 +9442,46 @@
         <v>211</v>
       </c>
       <c r="K7" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="N7" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>876</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>877</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>878</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>879</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="S7" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="V7" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="W7" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="X7" s="35" t="s">
         <v>882</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>884</v>
-      </c>
-      <c r="X7" s="35" t="s">
-        <v>885</v>
       </c>
       <c r="Y7" s="35" t="s">
         <v>38</v>
@@ -9457,31 +9499,31 @@
         <v>197</v>
       </c>
       <c r="AD7" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="AF7" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="AG7" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="AE7" s="35" t="s">
+      <c r="AH7" s="36" t="s">
         <v>887</v>
       </c>
-      <c r="AF7" s="35" t="s">
+      <c r="AI7" s="36" t="s">
         <v>888</v>
       </c>
-      <c r="AG7" s="35" t="s">
+      <c r="AJ7" s="36" t="s">
         <v>889</v>
       </c>
-      <c r="AH7" s="36" t="s">
+      <c r="AK7" s="36" t="s">
         <v>890</v>
       </c>
-      <c r="AI7" s="36" t="s">
+      <c r="AL7" s="37" t="s">
         <v>891</v>
-      </c>
-      <c r="AJ7" s="36" t="s">
-        <v>892</v>
-      </c>
-      <c r="AK7" s="36" t="s">
-        <v>893</v>
-      </c>
-      <c r="AL7" s="37" t="s">
-        <v>894</v>
       </c>
       <c r="AM7" s="14" t="s">
         <v>178</v>
@@ -9555,7 +9597,7 @@
         <v>43</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>200</v>
@@ -9564,7 +9606,7 @@
         <v>202</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W8" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -9591,19 +9633,19 @@
         <v>202</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AG8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>215</v>
@@ -9612,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AM8" s="12" t="s">
         <v>180</v>
@@ -9683,7 +9725,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W9" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -9705,14 +9747,14 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>215</v>
@@ -9721,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="13"/>
@@ -9768,7 +9810,7 @@
         <v>Efraín</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -9783,7 +9825,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W10" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -9805,14 +9847,14 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>215</v>
@@ -9821,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="13"/>
@@ -9881,7 +9923,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W11" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -9903,14 +9945,14 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>215</v>
@@ -9919,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="13"/>
@@ -9979,7 +10021,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W12" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10065,7 +10107,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W13" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10138,7 +10180,7 @@
         <v>Natalia</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -10153,7 +10195,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W14" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10237,7 +10279,7 @@
         <v>Silvia</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -10252,7 +10294,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W15" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10349,7 +10391,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W16" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10422,10 +10464,10 @@
         <v>Astrid</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -10437,7 +10479,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W17" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10526,7 +10568,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W18" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10603,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -10616,7 +10658,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W19" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10696,7 +10738,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W20" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10765,7 +10807,7 @@
         <v>Silvia</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -10778,7 +10820,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W21" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10847,7 +10889,7 @@
         <v>Silvia</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -10860,7 +10902,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W22" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -10929,7 +10971,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -10942,7 +10984,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W23" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11022,7 +11064,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W24" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11102,7 +11144,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W25" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11182,7 +11224,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W26" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11262,7 +11304,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W27" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11342,7 +11384,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W28" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11422,7 +11464,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W29" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11502,7 +11544,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W30" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11582,7 +11624,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W31" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11651,10 +11693,10 @@
         <v>Carolina</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -11662,13 +11704,13 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="7" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W32" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11686,7 +11728,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -11750,7 +11792,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W33" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11830,7 +11872,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W34" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11899,10 +11941,10 @@
         <v>Astrid</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -11914,7 +11956,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W35" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -11983,7 +12025,7 @@
         <v>Fernanda</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -11996,7 +12038,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W36" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12065,10 +12107,10 @@
         <v>Astrid</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -12080,7 +12122,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W37" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12160,7 +12202,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W38" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12229,7 +12271,7 @@
         <v>Macarena</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -12242,7 +12284,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W39" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12269,7 +12311,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="38"/>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[id_data]]</f>
         <v>0003</v>
@@ -12288,11 +12330,11 @@
       </c>
       <c r="E40" s="47" t="str">
         <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>Agrostat. Estadística del AGRO CHILE</v>
-      </c>
-      <c r="F40" s="2" t="str">
+        <v>AGROSTAT - Estadísticas Productivas Agrícolas</v>
+      </c>
+      <c r="F40" s="2">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>AGROSTAT - CL</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <f>PRODUCTOS[[#This Row],[Estado]]</f>
@@ -12311,18 +12353,18 @@
         <v>Claudia</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="7"/>
@@ -12330,7 +12372,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W40" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12376,7 +12418,7 @@
       </c>
       <c r="E41" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>Agroclima (GEE)</v>
+        <v>AGROCLIMA - Geomática agrícola</v>
       </c>
       <c r="F41" s="2">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
@@ -12386,17 +12428,17 @@
         <f>PRODUCTOS[[#This Row],[Estado]]</f>
         <v>0</v>
       </c>
-      <c r="H41" s="46" t="e">
+      <c r="H41" s="46">
         <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
+        <v>Claudia</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -12410,15 +12452,15 @@
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W41" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="X41" s="2" t="e">
+      <c r="X41" s="2">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
@@ -12479,18 +12521,18 @@
         <v>Claudia</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="7"/>
@@ -12498,7 +12540,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W42" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12578,7 +12620,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W43" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12658,7 +12700,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W44" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12727,7 +12769,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -12736,13 +12778,13 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="7" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W45" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12822,7 +12864,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W46" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12902,7 +12944,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W47" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -12982,7 +13024,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W48" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13062,7 +13104,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W49" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13142,7 +13184,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W50" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13222,7 +13264,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W51" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13302,7 +13344,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W52" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13382,7 +13424,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W53" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13451,7 +13493,7 @@
         <v>Reyes-Monse</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -13464,7 +13506,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W54" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13544,7 +13586,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W55" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13613,18 +13655,18 @@
         <v xml:space="preserve">Paula </v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="7"/>
@@ -13632,7 +13674,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W56" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13712,7 +13754,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W57" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13792,7 +13834,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W58" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13872,7 +13914,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W59" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -13952,7 +13994,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W60" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -14032,7 +14074,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W61" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -14112,7 +14154,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W62" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -14158,7 +14200,7 @@
       </c>
       <c r="E63" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
-        <v>Agrogestión</v>
+        <v>AGROGESTIÓN - Gestión agrícola</v>
       </c>
       <c r="F63" s="2">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
@@ -14168,17 +14210,17 @@
         <f>PRODUCTOS[[#This Row],[Estado]]</f>
         <v>0</v>
       </c>
-      <c r="H63" s="46" t="e">
+      <c r="H63" s="46">
         <f>PRODUCTOS[[#This Row],[Avance]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
-        <v>#N/A</v>
+        <v>Claudia</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -14192,15 +14234,15 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W63" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="X63" s="2" t="e">
+      <c r="X63" s="2">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -14261,7 +14303,7 @@
         <v>Claudia</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -14274,7 +14316,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W64" s="7" t="str">
         <f>SHOPIFY[[#This Row],[Data]]</f>
@@ -14300,6 +14342,498 @@
       <c r="AL64" s="2"/>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="38"/>
+    </row>
+    <row r="65" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00062</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D65" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00062</v>
+      </c>
+      <c r="E65" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadísticas Productivas Pecuarias</v>
+      </c>
+      <c r="F65" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>Patricio</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W65" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X65" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
+      </c>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="13"/>
+    </row>
+    <row r="66" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00063</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D66" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00063</v>
+      </c>
+      <c r="E66" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadisticas Productivas Forestales</v>
+      </c>
+      <c r="F66" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>Patricio</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W66" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X66" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>POWER BI</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="38"/>
+    </row>
+    <row r="67" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00064</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D67" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00064</v>
+      </c>
+      <c r="E67" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadísticas ambientales</v>
+      </c>
+      <c r="F67" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W67" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X67" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="38"/>
+    </row>
+    <row r="68" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00065</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D68" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00065</v>
+      </c>
+      <c r="E68" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadísticas Económicas Agrícolas</v>
+      </c>
+      <c r="F68" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W68" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X68" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="38"/>
+    </row>
+    <row r="69" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00066</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D69" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00066</v>
+      </c>
+      <c r="E69" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadísticas Económicas Pecuarias</v>
+      </c>
+      <c r="F69" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W69" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X69" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="38"/>
+    </row>
+    <row r="70" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[id_data]]</f>
+        <v>0003</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Corr_Producto]]</f>
+        <v>00067</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="D70" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[id_producto]]</f>
+        <v>0003-00067</v>
+      </c>
+      <c r="E70" s="47" t="str">
+        <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
+        <v>AGROSTAT - Estadísticas Económicas Forestales</v>
+      </c>
+      <c r="F70" s="2">
+        <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <f>PRODUCTOS[[#This Row],[Estado]]</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="46">
+        <f>PRODUCTOS[[#This Row],[Avance]]</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <f>PRODUCTOS[[#This Row],[Responsable Desarrollo]]</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f>PRODUCTOS[[#This Row],[Responsable Información]]</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W70" s="7" t="str">
+        <f>SHOPIFY[[#This Row],[Data]]</f>
+        <v>DATAAGRO</v>
+      </c>
+      <c r="X70" s="2">
+        <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14329,9 +14863,9 @@
   <dimension ref="B11:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14405,7 +14939,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>793</v>
+        <v>1113</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -14434,7 +14968,7 @@
         <v>130</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>196</v>
@@ -14449,7 +14983,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>794</v>
+        <v>1114</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -14460,7 +14994,10 @@
       <c r="F13" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="23" t="str">
+        <f>PRODUCTOS!D65</f>
+        <v>0003-00062</v>
+      </c>
       <c r="H13" s="23"/>
       <c r="I13" s="29" t="s">
         <v>168</v>
@@ -14475,7 +15012,7 @@
         <v>130</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>196</v>
@@ -14490,7 +15027,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>795</v>
+        <v>1115</v>
       </c>
       <c r="D14" s="23">
         <v>3</v>
@@ -14501,7 +15038,10 @@
       <c r="F14" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="23" t="str">
+        <f>PRODUCTOS!D66</f>
+        <v>0003-00063</v>
+      </c>
       <c r="H14" s="23"/>
       <c r="I14" s="29" t="s">
         <v>168</v>
@@ -14516,7 +15056,7 @@
         <v>130</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>196</v>
@@ -14530,14 +15070,14 @@
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>796</v>
+      <c r="C15" s="42" t="s">
+        <v>793</v>
       </c>
       <c r="D15" s="23">
         <v>4</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>759</v>
@@ -14560,7 +15100,7 @@
         <v>130</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>761</v>
@@ -14574,8 +15114,8 @@
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>793</v>
+      <c r="C16" s="42" t="s">
+        <v>1119</v>
       </c>
       <c r="D16" s="23">
         <v>5</v>
@@ -14604,7 +15144,7 @@
         <v>130</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>196</v>
@@ -14619,7 +15159,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -14648,7 +15188,7 @@
         <v>106</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>196</v>
@@ -14663,7 +15203,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D18" s="23">
         <v>2</v>
@@ -14689,7 +15229,7 @@
         <v>106</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>196</v>
@@ -14704,13 +15244,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D19" s="23">
         <v>3</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>759</v>
@@ -14730,7 +15270,7 @@
         <v>106</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>761</v>
@@ -14745,13 +15285,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D20" s="23">
         <v>4</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>759</v>
@@ -14774,7 +15314,7 @@
         <v>136</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>761</v>
@@ -14789,7 +15329,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -14815,10 +15355,10 @@
         <v>144</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>196</v>
@@ -14833,7 +15373,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D22" s="23">
         <v>2</v>
@@ -14859,7 +15399,7 @@
         <v>120</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>196</v>
@@ -14874,7 +15414,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D23" s="23">
         <v>3</v>
@@ -14897,10 +15437,10 @@
         <v>144</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>196</v>
@@ -14915,7 +15455,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D24" s="23">
         <v>4</v>
@@ -14938,10 +15478,10 @@
         <v>764</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>780</v>
@@ -14985,7 +15525,7 @@
         <v>176</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>196</v>
@@ -15029,7 +15569,7 @@
         <v>176</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>196</v>
@@ -15070,7 +15610,7 @@
         <v>176</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>780</v>
@@ -15111,7 +15651,7 @@
         <v>176</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>196</v>
@@ -15152,7 +15692,7 @@
         <v>176</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>196</v>
@@ -15193,7 +15733,7 @@
         <v>176</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>196</v>
@@ -15281,7 +15821,7 @@
         <v>176</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>765</v>
@@ -15296,7 +15836,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D33" s="23">
         <v>1</v>
@@ -15325,7 +15865,7 @@
         <v>102</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="N33" s="26" t="s">
         <v>196</v>
@@ -15340,7 +15880,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D34" s="23">
         <v>2</v>
@@ -15366,7 +15906,7 @@
         <v>102</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="N34" s="26" t="s">
         <v>196</v>
@@ -15381,7 +15921,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D35" s="23">
         <v>3</v>
@@ -15407,7 +15947,7 @@
         <v>102</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>196</v>
@@ -15422,7 +15962,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D36" s="23">
         <v>4</v>
@@ -15448,7 +15988,7 @@
         <v>102</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="N36" s="26" t="s">
         <v>196</v>
@@ -15463,7 +16003,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D37" s="23">
         <v>1</v>
@@ -15492,7 +16032,7 @@
         <v>786</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N37" s="26" t="s">
         <v>196</v>
@@ -15507,7 +16047,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D38" s="23">
         <v>2</v>
@@ -15533,7 +16073,7 @@
         <v>786</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="N38" s="26" t="s">
         <v>196</v>
@@ -15548,7 +16088,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D39" s="23">
         <v>1</v>
@@ -15577,7 +16117,7 @@
         <v>132</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N39" s="26" t="s">
         <v>766</v>
@@ -15592,7 +16132,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D40" s="23">
         <v>1</v>
@@ -15621,7 +16161,7 @@
         <v>132</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="N40" s="26" t="s">
         <v>766</v>
@@ -15665,7 +16205,7 @@
         <v>132</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N41" s="26" t="s">
         <v>766</v>
@@ -15680,7 +16220,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D42" s="23">
         <v>3</v>
@@ -15709,7 +16249,7 @@
         <v>132</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="N42" s="26" t="s">
         <v>196</v>
@@ -15753,7 +16293,7 @@
         <v>146</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="N43" s="26" t="s">
         <v>196</v>
@@ -15768,7 +16308,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D44" s="23">
         <v>1</v>
@@ -15797,7 +16337,7 @@
         <v>171</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="N44" s="26" t="s">
         <v>196</v>
@@ -15812,7 +16352,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D45" s="23">
         <v>1</v>
@@ -15841,7 +16381,7 @@
         <v>146</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N45" s="26" t="s">
         <v>196</v>
@@ -15885,7 +16425,7 @@
         <v>136</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N46" s="26" t="s">
         <v>761</v>
@@ -15929,7 +16469,7 @@
         <v>146</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="N47" s="26" t="s">
         <v>762</v>
@@ -15973,7 +16513,7 @@
         <v>111</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="N48" s="26" t="s">
         <v>762</v>
@@ -16017,7 +16557,7 @@
         <v>146</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="N49" s="26" t="s">
         <v>762</v>
@@ -16157,7 +16697,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>771</v>
@@ -16230,7 +16770,7 @@
         <v>105</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N54" s="26" t="s">
         <v>196</v>
@@ -16271,7 +16811,7 @@
         <v>105</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N55" s="26" t="s">
         <v>196</v>
@@ -16312,7 +16852,7 @@
         <v>105</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N56" s="26" t="s">
         <v>196</v>
@@ -16353,7 +16893,7 @@
         <v>105</v>
       </c>
       <c r="M57" s="24" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N57" s="26" t="s">
         <v>780</v>
@@ -16394,7 +16934,7 @@
         <v>105</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N58" s="26" t="s">
         <v>762</v>
@@ -16435,7 +16975,7 @@
         <v>144</v>
       </c>
       <c r="M59" s="24" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="N59" s="26" t="s">
         <v>762</v>
@@ -16447,10 +16987,10 @@
     </row>
     <row r="60" spans="2:16" ht="24" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D60" s="23">
         <v>1</v>
@@ -16479,7 +17019,7 @@
         <v>102</v>
       </c>
       <c r="M60" s="24" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N60" s="26" t="s">
         <v>196</v>
@@ -16523,7 +17063,7 @@
         <v>786</v>
       </c>
       <c r="M61" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N61" s="26" t="s">
         <v>780</v>
@@ -16567,7 +17107,7 @@
         <v>786</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N62" s="26" t="s">
         <v>780</v>
@@ -16608,7 +17148,7 @@
         <v>786</v>
       </c>
       <c r="M63" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N63" s="26" t="s">
         <v>780</v>
@@ -16649,7 +17189,7 @@
         <v>786</v>
       </c>
       <c r="M64" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N64" s="26" t="s">
         <v>780</v>
@@ -16693,7 +17233,7 @@
         <v>786</v>
       </c>
       <c r="M65" s="24" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N65" s="26" t="s">
         <v>780</v>
@@ -16708,7 +17248,7 @@
         <v>12</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D66" s="23">
         <v>1</v>
@@ -16740,7 +17280,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D67" s="23">
         <v>2</v>
@@ -16769,7 +17309,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
@@ -16801,7 +17341,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D69" s="23">
         <v>2</v>
@@ -16833,7 +17373,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D70" s="23">
         <v>1</v>
@@ -16862,7 +17402,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D71" s="23">
         <v>2</v>
@@ -16891,7 +17431,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D72" s="23">
         <v>3</v>
@@ -16917,10 +17457,10 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D73" s="23">
         <v>1</v>
@@ -16949,16 +17489,16 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D74" s="23">
         <v>2</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>759</v>
@@ -16984,13 +17524,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D75" s="23">
         <v>1</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>759</v>
@@ -17006,10 +17546,10 @@
       <c r="J75" s="25"/>
       <c r="K75" s="24"/>
       <c r="L75" s="24" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="M75" s="24" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N75" s="26"/>
       <c r="O75" s="28"/>
@@ -17020,13 +17560,13 @@
         <v>7</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D76" s="23">
         <v>2</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>759</v>
@@ -17042,10 +17582,10 @@
       <c r="J76" s="25"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N76" s="26"/>
       <c r="O76" s="28"/>
@@ -17053,16 +17593,16 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D77" s="23">
         <v>1</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>759</v>
@@ -17087,16 +17627,16 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D78" s="23">
         <v>2</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F78" s="23" t="s">
         <v>760</v>
@@ -17152,7 +17692,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>760</v>
@@ -17175,13 +17715,13 @@
         <v>30</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D81" s="23">
         <v>1</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F81" s="23" t="s">
         <v>759</v>
@@ -17204,10 +17744,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>868</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>871</v>
       </c>
       <c r="D82" s="23">
         <v>1</v>
@@ -17236,10 +17776,10 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D83" s="23">
         <v>1</v>
@@ -17296,10 +17836,10 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23" t="s">
@@ -17326,10 +17866,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="27" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23" t="s">
@@ -17356,10 +17896,10 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>954</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>959</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23" t="s">
@@ -17386,10 +17926,10 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23" t="s">
@@ -17416,10 +17956,10 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -17437,7 +17977,7 @@
         <v>144</v>
       </c>
       <c r="L89" s="24" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="26"/>
@@ -17446,10 +17986,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -17465,7 +18005,7 @@
       <c r="J90" s="25"/>
       <c r="K90" s="24"/>
       <c r="L90" s="24" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="26"/>
@@ -17477,7 +18017,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -17603,106 +18143,186 @@
       <c r="P95" s="40"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B96" s="27"/>
-      <c r="C96" s="24"/>
+      <c r="B96" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>1110</v>
+      </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+      <c r="F96" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G96" s="23" t="str">
+        <f>PRODUCTOS!D41</f>
+        <v>0003-00034</v>
+      </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="29"/>
+      <c r="I96" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="J96" s="25"/>
       <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
+      <c r="L96" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M96" s="24"/>
       <c r="N96" s="26"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B97" s="27"/>
-      <c r="C97" s="24"/>
+      <c r="B97" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>1111</v>
+      </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
+      <c r="F97" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G97" s="23" t="str">
+        <f>PRODUCTOS!D63</f>
+        <v>0003-00060</v>
+      </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="25"/>
+      <c r="I97" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J97" s="25">
+        <v>0</v>
+      </c>
       <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="L97" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M97" s="24"/>
       <c r="N97" s="26"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B98" s="27"/>
-      <c r="C98" s="24"/>
+      <c r="B98" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>1112</v>
+      </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
+      <c r="F98" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G98" s="23" t="str">
+        <f>PRODUCTOS!D67</f>
+        <v>0003-00064</v>
+      </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="29"/>
+      <c r="I98" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="J98" s="25"/>
       <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
+      <c r="L98" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M98" s="24"/>
       <c r="N98" s="26"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B99" s="27"/>
-      <c r="C99" s="24"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+    </row>
+    <row r="99" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B99" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>1116</v>
+      </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
+      <c r="F99" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G99" s="23" t="str">
+        <f>PRODUCTOS!D68</f>
+        <v>0003-00065</v>
+      </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="29"/>
+      <c r="I99" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="J99" s="25"/>
       <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
+      <c r="L99" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M99" s="24"/>
       <c r="N99" s="26"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B100" s="27"/>
-      <c r="C100" s="24"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+    </row>
+    <row r="100" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B100" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>1117</v>
+      </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
+      <c r="F100" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G100" s="23" t="str">
+        <f>PRODUCTOS!D69</f>
+        <v>0003-00066</v>
+      </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="29"/>
+      <c r="I100" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="J100" s="25"/>
       <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
+      <c r="L100" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M100" s="24"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B101" s="27"/>
-      <c r="C101" s="24"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+    </row>
+    <row r="101" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="B101" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>1118</v>
+      </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
+      <c r="F101" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G101" s="23" t="str">
+        <f>PRODUCTOS!D70</f>
+        <v>0003-00067</v>
+      </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="29"/>
+      <c r="I101" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="J101" s="25"/>
       <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
+      <c r="L101" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="M101" s="24"/>
       <c r="N101" s="26"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="27"/>
@@ -17848,14 +18468,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:AB64"/>
+  <dimension ref="A7:AB70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17905,13 +18525,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>210</v>
@@ -17974,7 +18594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>+VLOOKUP(C8,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18058,7 +18678,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>+VLOOKUP(C9,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18117,7 +18737,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>+VLOOKUP(C10,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18180,7 +18800,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>+VLOOKUP(C11,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18241,7 +18861,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>+VLOOKUP(C12,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18302,7 +18922,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>+VLOOKUP(C13,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18363,7 +18983,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>+VLOOKUP(C14,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -18435,7 +19055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f>+VLOOKUP(C15,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0017</v>
@@ -18505,7 +19125,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>+VLOOKUP(C16,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
@@ -18564,7 +19184,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="13"/>
     </row>
-    <row r="17" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>+VLOOKUP(C17,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -18580,7 +19200,7 @@
         <v>0004-00010</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -18626,7 +19246,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f>+VLOOKUP(C18,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
@@ -18687,13 +19307,13 @@
         <v>742</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f>+VLOOKUP(C19,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0011</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -18703,7 +19323,7 @@
         <v>0011-00012</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -18738,13 +19358,13 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(C20,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -18789,13 +19409,13 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="38"/>
     </row>
-    <row r="21" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(C21,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -18840,13 +19460,13 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="38"/>
     </row>
-    <row r="22" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(C22,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0010</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -18891,13 +19511,13 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="38"/>
     </row>
-    <row r="23" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="str">
         <f>+VLOOKUP(C23,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -18907,7 +19527,7 @@
         <v>0018-00016</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -18942,13 +19562,13 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="13"/>
     </row>
-    <row r="24" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(C24,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -18993,13 +19613,13 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="38"/>
     </row>
-    <row r="25" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(C25,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -19044,13 +19664,13 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="38"/>
     </row>
-    <row r="26" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(C26,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -19095,13 +19715,13 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="38"/>
     </row>
-    <row r="27" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(C27,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -19146,13 +19766,13 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="38"/>
     </row>
-    <row r="28" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(C28,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -19197,13 +19817,13 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="38"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(C29,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -19213,7 +19833,7 @@
         <v>0002-00022</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -19248,13 +19868,13 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="38"/>
     </row>
-    <row r="30" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(C30,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -19264,7 +19884,7 @@
         <v>0001-00023</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="2"/>
@@ -19299,13 +19919,13 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="38"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(C31,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -19315,7 +19935,7 @@
         <v>0001-00024</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -19350,23 +19970,23 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="38"/>
     </row>
-    <row r="32" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f>+VLOOKUP(C32,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0025</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0025-00025</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -19401,23 +20021,23 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="38"/>
     </row>
-    <row r="33" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="str">
         <f>+VLOOKUP(C33,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>+A33&amp;"-"&amp;B33</f>
         <v>0019-00026</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -19452,23 +20072,23 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="13"/>
     </row>
-    <row r="34" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="str">
         <f>+VLOOKUP(C34,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>+A34&amp;"-"&amp;B34</f>
         <v>0019-00027</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -19503,13 +20123,13 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="13"/>
     </row>
-    <row r="35" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="str">
         <f>+VLOOKUP(C35,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -19519,7 +20139,7 @@
         <v>0004-00028</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -19554,13 +20174,13 @@
       <c r="AA35" s="7"/>
       <c r="AB35" s="13"/>
     </row>
-    <row r="36" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(C36,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0007</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
@@ -19570,7 +20190,7 @@
         <v>0007-00029</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -19605,13 +20225,13 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="38"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="str">
         <f>+VLOOKUP(C37,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -19621,7 +20241,7 @@
         <v>0004-00030</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -19656,23 +20276,23 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="13"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="str">
         <f>+VLOOKUP(C38,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0021</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>+A38&amp;"-"&amp;B38</f>
         <v>0021-00031</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -19707,13 +20327,13 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="13"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="43" t="str">
         <f>+VLOOKUP(C39,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
@@ -19723,7 +20343,7 @@
         <v>0012-00032</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -19758,13 +20378,13 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="13"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(C40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
@@ -19774,11 +20394,9 @@
         <v>0003-00033</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>997</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="46">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
@@ -19817,7 +20435,7 @@
         <v>0003</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
@@ -19826,27 +20444,27 @@
         <f t="shared" si="1"/>
         <v>0003-00034</v>
       </c>
-      <c r="E41" s="47" t="s">
-        <v>929</v>
+      <c r="E41" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="46" t="e">
+      <c r="H41" s="46">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
+        <v>Claudia</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="2" t="e">
+      <c r="L41" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -19868,7 +20486,7 @@
         <v>0003</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -19877,11 +20495,11 @@
         <f t="shared" si="1"/>
         <v>0003-00035</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>931</v>
+      <c r="E42" s="106" t="s">
+        <v>926</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="46">
@@ -19915,13 +20533,13 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="38"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="43" t="str">
         <f>+VLOOKUP(C43,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
@@ -19931,7 +20549,7 @@
         <v>0014-00036</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -19966,13 +20584,13 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="13"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="43" t="str">
         <f>+VLOOKUP(C44,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0014</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
@@ -19982,7 +20600,7 @@
         <v>0014-00037</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -20017,13 +20635,13 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="13"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="43" t="str">
         <f>+VLOOKUP(C45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -20068,13 +20686,13 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="13"/>
     </row>
-    <row r="46" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="43" t="str">
         <f>+VLOOKUP(C46,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0013</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
@@ -20084,7 +20702,7 @@
         <v>0013-00039</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -20119,13 +20737,13 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="13"/>
     </row>
-    <row r="47" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f>+VLOOKUP(C47,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0005</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>30</v>
@@ -20135,7 +20753,7 @@
         <v>0005-00040</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -20170,23 +20788,23 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="38"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
         <f>+VLOOKUP(C48,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0019-00045</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -20221,23 +20839,23 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="38"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
         <f>+VLOOKUP(C49,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0019</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0019-00046</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -20272,13 +20890,13 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="38"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="43" t="str">
         <f>+VLOOKUP(C50,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0012</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -20288,7 +20906,7 @@
         <v>0012-00047</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -20323,23 +20941,23 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="13"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="43" t="str">
         <f>+VLOOKUP(C51,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0022</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0022-00048</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -20374,23 +20992,23 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="13"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="43" t="str">
         <f>+VLOOKUP(C52,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0023</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0023-00049</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -20425,23 +21043,23 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="13"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="43" t="str">
         <f>+VLOOKUP(C53,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0024</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D53" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0024-00050</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -20476,13 +21094,13 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="43" t="str">
         <f>+VLOOKUP(C54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -20492,7 +21110,7 @@
         <v>0009-00051</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -20527,13 +21145,13 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="43" t="str">
         <f>+VLOOKUP(C55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -20578,13 +21196,13 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="13"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43" t="str">
         <f>+VLOOKUP(C56,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0016</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -20594,7 +21212,7 @@
         <v>0016-00053</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -20629,23 +21247,23 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="13"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="43" t="str">
         <f>+VLOOKUP(C57,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0020-00054</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -20680,23 +21298,23 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="13"/>
     </row>
-    <row r="58" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="43" t="str">
         <f>+VLOOKUP(C58,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0020-00055</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -20731,23 +21349,23 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="13"/>
     </row>
-    <row r="59" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="43" t="str">
         <f>+VLOOKUP(C59,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D59" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0020-00056</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -20782,23 +21400,23 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="13"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
         <f>+VLOOKUP(C60,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0020-00057</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -20833,13 +21451,13 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="38"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
         <f>+VLOOKUP(C61,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
@@ -20849,7 +21467,7 @@
         <v>0006-00058</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -20884,13 +21502,13 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="38"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
         <f>+VLOOKUP(C62,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0006</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
@@ -20900,7 +21518,7 @@
         <v>0006-00059</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -20941,36 +21559,36 @@
         <v>0003</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="47" t="str">
+      <c r="D63" s="108" t="str">
         <f t="shared" si="1"/>
         <v>0003-00060</v>
       </c>
-      <c r="E63" s="47" t="s">
-        <v>964</v>
-      </c>
-      <c r="F63" s="47"/>
+      <c r="E63" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F63" s="108"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="46" t="e">
+      <c r="H63" s="46">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="str">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
-        <v>#N/A</v>
+        <v>Claudia</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="2" t="e">
+      <c r="L63" s="2">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -20992,7 +21610,7 @@
         <v>0003</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>5</v>
@@ -21002,7 +21620,7 @@
         <v>0003-00061</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -21036,6 +21654,312 @@
       <c r="W64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="38"/>
+    </row>
+    <row r="65" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="43" t="str">
+        <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" ref="D65:D66" si="3">+A65&amp;"-"&amp;B65</f>
+        <v>0003-00062</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>Patricio</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="43" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>POWER BI</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="13"/>
+    </row>
+    <row r="66" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="43" t="str">
+        <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0003-00063</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>Patricio</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="43" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>POWER BI</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="38"/>
+    </row>
+    <row r="67" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="43" t="str">
+        <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" ref="D67:D70" si="4">+A67&amp;"-"&amp;B67</f>
+        <v>0003-00064</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="43">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="13"/>
+    </row>
+    <row r="68" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="43" t="str">
+        <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0003-00065</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="43">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="38"/>
+    </row>
+    <row r="69" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="43" t="str">
+        <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0003-00066</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="43">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="38"/>
+    </row>
+    <row r="70" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="43" t="str">
+        <f>+VLOOKUP(C70,'DATA`S'!$B$8:$C$32,2,0)</f>
+        <v>0003</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0003-00067</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="107">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$K$108,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$L$108,6,0)</f>
+        <v>Claudia</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="43">
+        <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$N$108,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30342,8 +31266,8 @@
   </sheetPr>
   <dimension ref="A9:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -30366,43 +31290,43 @@
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>200</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="I9" s="51" t="s">
         <v>779</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -30410,19 +31334,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="52">
         <v>44111</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
@@ -30432,17 +31356,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D11" s="52">
         <v>44111</v>
       </c>
       <c r="E11" s="52"/>
       <c r="G11" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
@@ -30455,7 +31379,7 @@
         <v>744</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -30463,7 +31387,7 @@
         <v>44113</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
@@ -30473,22 +31397,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D13" s="65">
         <v>44111</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="F13" s="65">
         <v>44113</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
@@ -30498,7 +31422,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -30508,7 +31432,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
@@ -30518,7 +31442,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
@@ -30528,7 +31452,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
@@ -30538,7 +31462,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -30548,10 +31472,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D19" s="52">
         <v>44126</v>
@@ -30565,10 +31489,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D20" s="94">
         <v>44113</v>
@@ -30585,10 +31509,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="D21" s="52">
         <v>44111</v>
@@ -30596,7 +31520,7 @@
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
@@ -30606,7 +31530,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
@@ -30616,7 +31540,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
@@ -30626,19 +31550,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
@@ -30648,10 +31572,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="D25" s="52">
         <v>44114</v>
@@ -30661,19 +31585,19 @@
         <v>44116</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="K25" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
@@ -30683,10 +31607,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="D26" s="52">
         <v>44114</v>
@@ -30696,19 +31620,19 @@
         <v>44116</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
@@ -30718,19 +31642,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
@@ -30740,7 +31664,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
@@ -30750,17 +31674,17 @@
         <v>20</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D29" s="52">
         <v>44112</v>
       </c>
       <c r="E29" s="52"/>
       <c r="G29" s="51" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
@@ -30770,7 +31694,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="L30" s="51"/>
       <c r="M30" s="51"/>
@@ -30780,10 +31704,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D31" s="52">
         <v>44113</v>
@@ -30797,7 +31721,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="L32" s="51"/>
       <c r="M32" s="51"/>
@@ -30807,7 +31731,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
@@ -30817,7 +31741,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
@@ -30827,10 +31751,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D35" s="52">
         <v>44119</v>
@@ -30844,10 +31768,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D36" s="52">
         <v>44134</v>
@@ -30861,7 +31785,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
@@ -30871,10 +31795,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -30894,10 +31818,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D39" s="52">
         <v>44121</v>
@@ -30911,7 +31835,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
@@ -30921,10 +31845,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D41" s="52">
         <v>44126</v>
@@ -30938,10 +31862,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D42" s="102">
         <v>44127</v>
@@ -30963,13 +31887,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="L43" s="97" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="M43" s="98" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -30977,10 +31901,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="L44" s="97" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="M44" s="51"/>
     </row>
@@ -31031,31 +31955,31 @@
   <sheetData>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>997</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="I9" s="49" t="s">
         <v>999</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -31063,7 +31987,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>176</v>
@@ -31076,7 +32000,7 @@
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="57" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="H10" s="56"/>
     </row>
@@ -31085,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>176</v>
@@ -31098,7 +32022,7 @@
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="57" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H11" s="56"/>
     </row>
@@ -31107,7 +32031,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>176</v>
@@ -31120,7 +32044,7 @@
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="57" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="H12" s="56"/>
     </row>
@@ -31129,7 +32053,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>176</v>
@@ -31142,7 +32066,7 @@
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="55" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H13" s="56"/>
     </row>
@@ -31151,7 +32075,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>176</v>
@@ -31164,13 +32088,13 @@
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="19" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="58" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31178,7 +32102,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>176</v>
@@ -31191,10 +32115,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="19" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -31202,7 +32126,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>176</v>
@@ -31215,7 +32139,7 @@
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="55" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="H16" s="56"/>
     </row>
@@ -31227,7 +32151,7 @@
         <v>744</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D17" s="52">
         <v>44111</v>
@@ -31237,10 +32161,10 @@
         <v>44113</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.35">
@@ -31248,7 +32172,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>105</v>
@@ -31263,10 +32187,10 @@
         <v>44113</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -31274,7 +32198,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>105</v>
@@ -31289,10 +32213,10 @@
         <v>44113</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="58" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -31300,7 +32224,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>100</v>
@@ -31313,13 +32237,13 @@
       </c>
       <c r="F20" s="69"/>
       <c r="G20" s="19" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="I20" s="70" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
@@ -31327,7 +32251,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>100</v>
@@ -31340,10 +32264,10 @@
       </c>
       <c r="F21" s="69"/>
       <c r="G21" s="55" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I21" s="70"/>
     </row>
@@ -31352,7 +32276,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>100</v>
@@ -31365,10 +32289,10 @@
       </c>
       <c r="F22" s="69"/>
       <c r="G22" s="58" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="H22" s="71" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="I22" s="70"/>
     </row>
@@ -31377,7 +32301,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="104" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>105</v>
@@ -31390,10 +32314,10 @@
       </c>
       <c r="F23" s="62"/>
       <c r="G23" s="19" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="58" customFormat="1" ht="39" x14ac:dyDescent="0.35">
@@ -31401,7 +32325,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="104" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>105</v>
@@ -31414,7 +32338,7 @@
       </c>
       <c r="F24" s="62"/>
       <c r="G24" s="74" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H24" s="63"/>
     </row>
@@ -31423,7 +32347,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>105</v>
@@ -31436,7 +32360,7 @@
       </c>
       <c r="F25" s="62"/>
       <c r="G25" s="19" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H25" s="63"/>
     </row>
@@ -31445,7 +32369,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>114</v>
@@ -31458,7 +32382,7 @@
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="19" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="H26" s="63"/>
     </row>
@@ -31467,7 +32391,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>114</v>
@@ -31480,10 +32404,10 @@
       </c>
       <c r="F27" s="67"/>
       <c r="G27" s="19" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.35">
@@ -31491,7 +32415,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>114</v>
@@ -31504,7 +32428,7 @@
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="19" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="H28" s="63"/>
     </row>
@@ -31513,7 +32437,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>114</v>
@@ -31526,7 +32450,7 @@
       </c>
       <c r="F29" s="67"/>
       <c r="G29" s="19" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="H29" s="63"/>
     </row>
@@ -31535,7 +32459,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>114</v>
@@ -31548,7 +32472,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="19" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="H30" s="63"/>
     </row>
@@ -31557,7 +32481,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>114</v>
@@ -31570,7 +32494,7 @@
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="55" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H31" s="63"/>
     </row>
@@ -31579,7 +32503,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>114</v>
@@ -31592,10 +32516,10 @@
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="55" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -31603,7 +32527,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>113</v>
@@ -31616,10 +32540,10 @@
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="74" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="H33" s="76" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="58" customFormat="1" ht="39" x14ac:dyDescent="0.35">
@@ -31627,7 +32551,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>102</v>
@@ -31640,10 +32564,10 @@
       </c>
       <c r="F34" s="69"/>
       <c r="G34" s="19" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="H34" s="77" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -31651,7 +32575,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>102</v>
@@ -31664,10 +32588,10 @@
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="74" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26" x14ac:dyDescent="0.3">
@@ -31675,7 +32599,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>102</v>
@@ -31686,10 +32610,10 @@
       </c>
       <c r="F36" s="79"/>
       <c r="G36" s="57" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -31697,7 +32621,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>102</v>
@@ -31708,10 +32632,10 @@
       </c>
       <c r="F37" s="79"/>
       <c r="G37" s="55" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="H37" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -31719,7 +32643,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>102</v>
@@ -31730,10 +32654,10 @@
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="55" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -31741,7 +32665,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>102</v>
@@ -31752,10 +32676,10 @@
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="80" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -31763,7 +32687,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>102</v>
@@ -31774,7 +32698,7 @@
       </c>
       <c r="F40" s="79"/>
       <c r="G40" s="55" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="H40" s="78"/>
     </row>
@@ -31783,7 +32707,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>105</v>
@@ -31803,7 +32727,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C42" s="82" t="s">
         <v>113</v>
@@ -31816,10 +32740,10 @@
         <v>44121</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="H42" s="56" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -31827,7 +32751,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="C43" s="49" t="s">
         <v>113</v>
@@ -31845,7 +32769,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="54"/>
@@ -31857,7 +32781,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C45" s="49" t="s">
         <v>106</v>
@@ -31870,10 +32794,10 @@
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="55" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -31881,7 +32805,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C46" s="49" t="s">
         <v>106</v>
@@ -31894,7 +32818,7 @@
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="55" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="H46" s="56"/>
     </row>
@@ -31903,7 +32827,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C47" s="49" t="s">
         <v>106</v>
@@ -31916,10 +32840,10 @@
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="55" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="H47" s="87" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="26" x14ac:dyDescent="0.3">
@@ -31927,7 +32851,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>105</v>
@@ -31940,7 +32864,7 @@
         <v>44134</v>
       </c>
       <c r="G48" s="55" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="H48" s="56"/>
     </row>
@@ -31949,10 +32873,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D49" s="52">
         <v>44127</v>
@@ -31962,7 +32886,7 @@
         <v>44134</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="H49" s="56"/>
     </row>
@@ -31971,7 +32895,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C50" s="49" t="s">
         <v>105</v>
@@ -31984,10 +32908,10 @@
         <v>44134</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="H50" s="87" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -32002,10 +32926,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="88" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoreo DI.xlsx
+++ b/Monitoreo DI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2B365-0436-4899-8FEB-A4478618D1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D1C93F-6F8F-445B-9DBD-C1A638994D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="833" activeTab="1" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="1127">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -3488,6 +3488,9 @@
   </si>
   <si>
     <t>00067</t>
+  </si>
+  <si>
+    <t>Calidad de Viviendas Urbanas</t>
   </si>
 </sst>
 </file>
@@ -7206,15 +7209,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7284,15 +7287,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1667510</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>636905</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>125096</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7364,13 +7367,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>105411</xdr:rowOff>
+      <xdr:rowOff>102236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7442,11 +7445,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -7518,7 +7521,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -7526,7 +7529,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>421005</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7602,9 +7605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1343660</xdr:colOff>
+      <xdr:colOff>1340485</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7674,7 +7677,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1459230</xdr:colOff>
+      <xdr:colOff>1456055</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7752,15 +7755,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85091</xdr:rowOff>
+      <xdr:rowOff>88266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -8105,7 +8108,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" columnCount="2" rowHeight="234950"/>
+  <slicer name="Data" xr10:uid="{DC5B16C7-0AA8-4789-BE46-CC500A0CE2D1}" cache="SegmentaciónDeDatos_Data" caption="Data" startItem="20" columnCount="2" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B5CDA16E-1F84-4290-AEF3-96C65DB4DD5A}" cache="SegmentaciónDeDatos_Estado" caption="Estado" columnCount="2" rowHeight="234950"/>
   <slicer name="Responsable Desarrollo" xr10:uid="{5F85B909-3D60-4494-A859-CB65DDAD43F0}" cache="SegmentaciónDeDatos_Responsable_Desarrollo" caption="Responsable Desarrollo" columnCount="3" rowHeight="234950"/>
   <slicer name="Responsable Información" xr10:uid="{1509BA93-0D1C-489B-BEEE-3640ADE75D86}" cache="SegmentaciónDeDatos_Responsable_Información" caption="Responsable Información" columnCount="4" rowHeight="234950"/>
@@ -8137,7 +8140,7 @@
 
 <file path=xl/slicers/slicer6.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Data 2" xr10:uid="{80951101-2A2B-4B15-9E33-78D3A7E8B5B0}" cache="SegmentaciónDeDatos_Data2" caption="Data" startItem="14" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="País" xr10:uid="{75A217B5-277A-4B68-8268-AEA4271B985B}" cache="SegmentaciónDeDatos_País" caption="País" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Estado 2" xr10:uid="{271E2C58-B673-4F76-A62E-46B7337EB1E5}" cache="SegmentaciónDeDatos_Estado2" caption="Estado" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Avance [0-100%]" xr10:uid="{3E416F9C-0DF4-4E82-9BCC-0ABC5F831734}" cache="SegmentaciónDeDatos_Avance__0_100" caption="Avance [0-100%]" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
@@ -8171,7 +8174,7 @@
   <autoFilter ref="A7:AB70" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
     <filterColumn colId="2">
       <filters>
-        <filter val="DATAAGRO"/>
+        <filter val="DATAVIVIENDA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8375,7 +8378,13 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{07333795-F402-425E-9AC7-1C17203C211E}" name="BORRADOR_PRODUCTOS" displayName="BORRADOR_PRODUCTOS" ref="B11:P101" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B11:P101" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}"/>
+  <autoFilter ref="B11:P101" xr:uid="{488C7ADA-DF10-4033-BE01-B6478A789716}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATAVIVIENDA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:P65">
     <sortCondition ref="B12:B65"/>
     <sortCondition ref="D12:D65"/>
@@ -13554,9 +13563,9 @@
         <f>PRODUCTOS[[#This Row],[Producto asociado ]]</f>
         <v>Herramienta Evaluación Areas Urbanas</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Nombre comercial]]</f>
-        <v>0</v>
+        <v>Calidad de Viviendas Urbanas</v>
       </c>
       <c r="G55" s="2">
         <f>PRODUCTOS[[#This Row],[Estado]]</f>
@@ -14863,9 +14872,9 @@
   <dimension ref="B11:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14934,7 +14943,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
@@ -14978,7 +14987,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
@@ -15022,7 +15031,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
@@ -15066,7 +15075,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
@@ -15110,7 +15119,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -15154,7 +15163,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
@@ -15198,7 +15207,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
@@ -15239,7 +15248,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -15280,7 +15289,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
@@ -15324,7 +15333,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -15368,7 +15377,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
@@ -15450,7 +15459,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
@@ -15535,7 +15544,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
@@ -15579,7 +15588,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
@@ -15620,7 +15629,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -15661,7 +15670,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
@@ -15702,7 +15711,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
@@ -15743,7 +15752,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="27" t="s">
         <v>678</v>
       </c>
@@ -15787,7 +15796,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27" t="s">
         <v>678</v>
       </c>
@@ -15831,7 +15840,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>8</v>
       </c>
@@ -15875,7 +15884,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
@@ -15916,7 +15925,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
@@ -15957,7 +15966,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>8</v>
       </c>
@@ -15998,7 +16007,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
@@ -16042,7 +16051,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
@@ -16083,7 +16092,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
@@ -16127,7 +16136,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -16171,7 +16180,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
@@ -16215,7 +16224,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
@@ -16259,7 +16268,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="27" t="s">
         <v>13</v>
       </c>
@@ -16303,7 +16312,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
@@ -16347,7 +16356,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
         <v>13</v>
       </c>
@@ -16391,7 +16400,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>13</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="27" t="s">
         <v>13</v>
       </c>
@@ -16479,7 +16488,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
@@ -16523,7 +16532,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="27" t="s">
         <v>13</v>
       </c>
@@ -16567,7 +16576,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
@@ -16609,7 +16618,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
         <v>13</v>
       </c>
@@ -16651,7 +16660,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
@@ -16695,7 +16704,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="27" t="s">
         <v>914</v>
       </c>
@@ -16739,7 +16748,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="27" t="s">
         <v>3</v>
       </c>
@@ -16780,7 +16789,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="27" t="s">
         <v>3</v>
       </c>
@@ -16821,7 +16830,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="27" t="s">
         <v>3</v>
       </c>
@@ -16862,7 +16871,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
@@ -16903,7 +16912,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
         <v>3</v>
       </c>
@@ -16944,7 +16953,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
         <v>3</v>
       </c>
@@ -16985,7 +16994,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>847</v>
       </c>
@@ -17243,7 +17252,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
@@ -17275,7 +17284,7 @@
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
     </row>
-    <row r="67" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
         <v>12</v>
       </c>
@@ -17304,7 +17313,7 @@
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="27" t="s">
         <v>15</v>
       </c>
@@ -17336,7 +17345,7 @@
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="27" t="s">
         <v>15</v>
       </c>
@@ -17368,7 +17377,7 @@
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="27" t="s">
         <v>9</v>
       </c>
@@ -17397,7 +17406,7 @@
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>9</v>
       </c>
@@ -17426,7 +17435,7 @@
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="27" t="s">
         <v>9</v>
       </c>
@@ -17455,7 +17464,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>851</v>
       </c>
@@ -17487,7 +17496,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>851</v>
       </c>
@@ -17519,7 +17528,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>7</v>
       </c>
@@ -17555,7 +17564,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="27" t="s">
         <v>7</v>
       </c>
@@ -17591,7 +17600,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>852</v>
       </c>
@@ -17625,7 +17634,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="27" t="s">
         <v>852</v>
       </c>
@@ -17656,7 +17665,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>678</v>
       </c>
@@ -17683,7 +17692,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="27" t="s">
         <v>678</v>
       </c>
@@ -17710,7 +17719,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>30</v>
       </c>
@@ -17742,7 +17751,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="27" t="s">
         <v>865</v>
       </c>
@@ -17774,7 +17783,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>866</v>
       </c>
@@ -17806,7 +17815,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="27" t="s">
         <v>11</v>
       </c>
@@ -17834,7 +17843,7 @@
       <c r="O84" s="40"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
         <v>949</v>
       </c>
@@ -17864,7 +17873,7 @@
       <c r="O85" s="40"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="27" t="s">
         <v>949</v>
       </c>
@@ -17894,7 +17903,7 @@
       <c r="O86" s="40"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="27" t="s">
         <v>949</v>
       </c>
@@ -17924,7 +17933,7 @@
       <c r="O87" s="40"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="27" t="s">
         <v>949</v>
       </c>
@@ -17954,7 +17963,7 @@
       <c r="O88" s="40"/>
       <c r="P88" s="40"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="27" t="s">
         <v>851</v>
       </c>
@@ -17984,7 +17993,7 @@
       <c r="O89" s="40"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="27" t="s">
         <v>851</v>
       </c>
@@ -18012,7 +18021,7 @@
       <c r="O90" s="40"/>
       <c r="P90" s="40"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="27" t="s">
         <v>14</v>
       </c>
@@ -18038,7 +18047,7 @@
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
     </row>
-    <row r="92" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="27" t="s">
         <v>4</v>
       </c>
@@ -18064,7 +18073,7 @@
       <c r="O92" s="40"/>
       <c r="P92" s="40"/>
     </row>
-    <row r="93" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="27" t="s">
         <v>4</v>
       </c>
@@ -18090,7 +18099,7 @@
       <c r="O93" s="40"/>
       <c r="P93" s="40"/>
     </row>
-    <row r="94" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="27" t="s">
         <v>4</v>
       </c>
@@ -18116,7 +18125,7 @@
       <c r="O94" s="40"/>
       <c r="P94" s="40"/>
     </row>
-    <row r="95" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27" t="s">
         <v>4</v>
       </c>
@@ -18142,7 +18151,7 @@
       <c r="O95" s="40"/>
       <c r="P95" s="40"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27" t="s">
         <v>5</v>
       </c>
@@ -18172,7 +18181,7 @@
       <c r="O96" s="40"/>
       <c r="P96" s="40"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27" t="s">
         <v>5</v>
       </c>
@@ -18204,7 +18213,7 @@
       <c r="O97" s="40"/>
       <c r="P97" s="40"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27" t="s">
         <v>5</v>
       </c>
@@ -18234,7 +18243,7 @@
       <c r="O98" s="40"/>
       <c r="P98" s="40"/>
     </row>
-    <row r="99" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="27" t="s">
         <v>5</v>
       </c>
@@ -18264,7 +18273,7 @@
       <c r="O99" s="40"/>
       <c r="P99" s="40"/>
     </row>
-    <row r="100" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27" t="s">
         <v>5</v>
       </c>
@@ -18294,7 +18303,7 @@
       <c r="O100" s="40"/>
       <c r="P100" s="40"/>
     </row>
-    <row r="101" spans="2:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27" t="s">
         <v>5</v>
       </c>
@@ -18475,7 +18484,7 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40:E41"/>
+      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20378,7 +20387,7 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="13"/>
     </row>
-    <row r="40" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(C40,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -20429,7 +20438,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="38"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(C41,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -20480,7 +20489,7 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="38"/>
     </row>
-    <row r="42" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(C42,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -20635,7 +20644,7 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="13"/>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="43" t="str">
         <f>+VLOOKUP(C45,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -21094,7 +21103,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="43" t="str">
         <f>+VLOOKUP(C54,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -21145,7 +21154,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="43" t="str">
         <f>+VLOOKUP(C55,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0009</v>
@@ -21163,7 +21172,9 @@
       <c r="E55" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="46">
         <f>+VLOOKUP(PRODUCTOS[[#This Row],[id_producto]],PRIORIZACION!$G$11:$J$108,4,0)</f>
@@ -21553,7 +21564,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="38"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
         <f>+VLOOKUP(C63,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21604,7 +21615,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="38"/>
     </row>
-    <row r="64" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(C64,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21655,7 +21666,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="38"/>
     </row>
-    <row r="65" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="43" t="str">
         <f>+VLOOKUP(C65,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21706,7 +21717,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="13"/>
     </row>
-    <row r="66" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="43" t="str">
         <f>+VLOOKUP(C66,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21757,7 +21768,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="38"/>
     </row>
-    <row r="67" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="43" t="str">
         <f>+VLOOKUP(C67,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21808,7 +21819,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="13"/>
     </row>
-    <row r="68" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="43" t="str">
         <f>+VLOOKUP(C68,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21859,7 +21870,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="38"/>
     </row>
-    <row r="69" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="str">
         <f>+VLOOKUP(C69,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
@@ -21910,7 +21921,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="38"/>
     </row>
-    <row r="70" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="str">
         <f>+VLOOKUP(C70,'DATA`S'!$B$8:$C$32,2,0)</f>
         <v>0003</v>
